--- a/processeddata/shock_codes.xlsx
+++ b/processeddata/shock_codes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="shock pivot" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="872">
   <si>
     <t>code</t>
   </si>
@@ -33740,7 +33740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -35369,9 +35369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J271" sqref="J271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42293,7 +42293,12 @@
         <f>TRIM(LOWER(E267))</f>
         <v>engagé dans des activités spirituelles (prières, sacrifices, consultation de marabout,</v>
       </c>
-      <c r="G267" s="4"/>
+      <c r="G267" s="4">
+        <v>118</v>
+      </c>
+      <c r="H267" s="21" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
@@ -42768,7 +42773,7 @@
       </c>
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>116</v>
       </c>
@@ -42786,9 +42791,14 @@
         <f>TRIM(LOWER(E289))</f>
         <v>sale of household durable goods</v>
       </c>
-      <c r="G289" s="4"/>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G289" s="4">
+        <v>112</v>
+      </c>
+      <c r="H289" s="21" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>116</v>
       </c>
@@ -42808,7 +42818,7 @@
       </c>
       <c r="G290" s="4"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>116</v>
       </c>
@@ -42828,7 +42838,7 @@
       </c>
       <c r="G291" s="4"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>116</v>
       </c>
@@ -42848,7 +42858,7 @@
       </c>
       <c r="G292" s="4"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>116</v>
       </c>
@@ -42868,7 +42878,7 @@
       </c>
       <c r="G293" s="4"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>116</v>
       </c>
@@ -42888,7 +42898,7 @@
       </c>
       <c r="G294" s="4"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>116</v>
       </c>
@@ -42908,7 +42918,7 @@
       </c>
       <c r="G295" s="4"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>46</v>
       </c>
@@ -42928,7 +42938,7 @@
       </c>
       <c r="G296" s="4"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>46</v>
       </c>
@@ -42948,7 +42958,7 @@
       </c>
       <c r="G297" s="4"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>46</v>
       </c>
@@ -42968,7 +42978,7 @@
       </c>
       <c r="G298" s="4"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>46</v>
       </c>
@@ -42988,7 +42998,7 @@
       </c>
       <c r="G299" s="4"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>46</v>
       </c>
@@ -43008,7 +43018,7 @@
       </c>
       <c r="G300" s="4"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>46</v>
       </c>
@@ -43028,7 +43038,7 @@
       </c>
       <c r="G301" s="4"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>164</v>
       </c>
@@ -43050,7 +43060,7 @@
       </c>
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>46</v>
       </c>
@@ -43070,7 +43080,7 @@
       </c>
       <c r="G303" s="4"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>46</v>
       </c>

--- a/processeddata/shock_codes.xlsx
+++ b/processeddata/shock_codes.xlsx
@@ -33803,7 +33803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>

--- a/processeddata/shock_codes.xlsx
+++ b/processeddata/shock_codes.xlsx
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="71" r:id="rId8"/>
-    <pivotCache cacheId="77" r:id="rId9"/>
-    <pivotCache cacheId="101" r:id="rId10"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5816" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5816" uniqueCount="954">
   <si>
     <t>code</t>
   </si>
@@ -4456,6 +4456,9 @@
   </si>
   <si>
     <t>NGA2016</t>
+  </si>
+  <si>
+    <t>shk_id</t>
   </si>
 </sst>
 </file>
@@ -18550,7 +18553,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B260" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -19620,7 +19623,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AN13" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -19872,7 +19875,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E165" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -20584,7 +20587,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AC12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -21036,7 +21039,7 @@
   <dimension ref="A1:O478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21070,7 +21073,7 @@
         <v>165</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>735</v>
@@ -21117,7 +21120,7 @@
         <v>411</v>
       </c>
       <c r="G2" s="6" t="str">
-        <f>TRIM(LOWER(F2))</f>
+        <f t="shared" ref="G2:G65" si="0">TRIM(LOWER(F2))</f>
         <v>increase in prices of inputs</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -21153,7 +21156,7 @@
         <v>318</v>
       </c>
       <c r="G3" s="6" t="str">
-        <f>TRIM(LOWER(F3))</f>
+        <f t="shared" si="0"/>
         <v>increase in price of inputs</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -21189,7 +21192,7 @@
         <v>274</v>
       </c>
       <c r="G4" s="6" t="str">
-        <f>TRIM(LOWER(F4))</f>
+        <f t="shared" si="0"/>
         <v>increase in price of inputs (seed, fertilizer)</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -21223,7 +21226,7 @@
         <v>274</v>
       </c>
       <c r="G5" s="6" t="str">
-        <f>TRIM(LOWER(F5))</f>
+        <f t="shared" si="0"/>
         <v>increase in price of inputs (seed, fertilizer)</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -21259,7 +21262,7 @@
         <v>274</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f>TRIM(LOWER(F6))</f>
+        <f t="shared" si="0"/>
         <v>increase in price of inputs (seed, fertilizer)</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -21295,7 +21298,7 @@
         <v>229</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f>TRIM(LOWER(F7))</f>
+        <f t="shared" si="0"/>
         <v>unusually high costs of agricultural inputs</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -21331,7 +21334,7 @@
         <v>438</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f>TRIM(LOWER(F8))</f>
+        <f t="shared" si="0"/>
         <v>unusually high costs of
 agricultural inputs</v>
       </c>
@@ -21368,7 +21371,7 @@
         <v>438</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f>TRIM(LOWER(F9))</f>
+        <f t="shared" si="0"/>
         <v>unusually high costs of
 agricultural inputs</v>
       </c>
@@ -21403,7 +21406,7 @@
         <v>366</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f>TRIM(LOWER(F10))</f>
+        <f t="shared" si="0"/>
         <v>high prices for agricultural inputs</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -21437,7 +21440,7 @@
         <v>348</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f>TRIM(LOWER(F11))</f>
+        <f t="shared" si="0"/>
         <v>prix élevés des inputs agricoles</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -21471,7 +21474,7 @@
         <v>318</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f>TRIM(LOWER(F12))</f>
+        <f t="shared" si="0"/>
         <v>increase in price of inputs</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -21505,7 +21508,7 @@
         <v>318</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f>TRIM(LOWER(F13))</f>
+        <f t="shared" si="0"/>
         <v>increase in price of inputs</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -21539,7 +21542,7 @@
         <v>318</v>
       </c>
       <c r="G14" s="6" t="str">
-        <f>TRIM(LOWER(F14))</f>
+        <f t="shared" si="0"/>
         <v>increase in price of inputs</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -21573,7 +21576,7 @@
         <v>333</v>
       </c>
       <c r="G15" s="6" t="str">
-        <f>TRIM(LOWER(F15))</f>
+        <f t="shared" si="0"/>
         <v>large rise in agricultural input prices</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -21607,7 +21610,7 @@
         <v>333</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f>TRIM(LOWER(F16))</f>
+        <f t="shared" si="0"/>
         <v>large rise in agricultural input prices</v>
       </c>
       <c r="H16" s="9" t="s">
@@ -21641,7 +21644,7 @@
         <v>333</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f>TRIM(LOWER(F17))</f>
+        <f t="shared" si="0"/>
         <v>large rise in agricultural input prices</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -21675,7 +21678,7 @@
         <v>333</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f>TRIM(LOWER(F18))</f>
+        <f t="shared" si="0"/>
         <v>large rise in agricultural input prices</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -21709,7 +21712,7 @@
         <v>287</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f>TRIM(LOWER(F19))</f>
+        <f t="shared" si="0"/>
         <v>unusually high costs of agricultural inputs</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -21743,7 +21746,7 @@
         <v>287</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f>TRIM(LOWER(F20))</f>
+        <f t="shared" si="0"/>
         <v>unusually high costs of agricultural inputs</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -21777,7 +21780,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f>TRIM(LOWER(F21))</f>
+        <f t="shared" si="0"/>
         <v>unusually high costs of agricultural inputs</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -21811,7 +21814,7 @@
         <v>287</v>
       </c>
       <c r="G22" s="6" t="str">
-        <f>TRIM(LOWER(F22))</f>
+        <f t="shared" si="0"/>
         <v>unusually high costs of agricultural inputs</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -21847,7 +21850,7 @@
         <v>427</v>
       </c>
       <c r="G23" s="6" t="str">
-        <f>TRIM(LOWER(F23))</f>
+        <f t="shared" si="0"/>
         <v>unusually low prices for
 agricultural output</v>
       </c>
@@ -21884,7 +21887,7 @@
         <v>427</v>
       </c>
       <c r="G24" s="6" t="str">
-        <f>TRIM(LOWER(F24))</f>
+        <f t="shared" si="0"/>
         <v>unusually low prices for
 agricultural output</v>
       </c>
@@ -21921,7 +21924,7 @@
         <v>427</v>
       </c>
       <c r="G25" s="6" t="str">
-        <f>TRIM(LOWER(F25))</f>
+        <f t="shared" si="0"/>
         <v>unusually low prices for
 agricultural output</v>
       </c>
@@ -21956,7 +21959,7 @@
         <v>365</v>
       </c>
       <c r="G26" s="6" t="str">
-        <f>TRIM(LOWER(F26))</f>
+        <f t="shared" si="0"/>
         <v>large decrease in the price of agricultural products</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -21990,7 +21993,7 @@
         <v>347</v>
       </c>
       <c r="G27" s="6" t="str">
-        <f>TRIM(LOWER(F27))</f>
+        <f t="shared" si="0"/>
         <v>baisse importante des prix des produits agricoles</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -22024,7 +22027,7 @@
         <v>319</v>
       </c>
       <c r="G28" s="6" t="str">
-        <f>TRIM(LOWER(F28))</f>
+        <f t="shared" si="0"/>
         <v>fall in the price of output</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -22058,7 +22061,7 @@
         <v>319</v>
       </c>
       <c r="G29" s="6" t="str">
-        <f>TRIM(LOWER(F29))</f>
+        <f t="shared" si="0"/>
         <v>fall in the price of output</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -22092,7 +22095,7 @@
         <v>319</v>
       </c>
       <c r="G30" s="6" t="str">
-        <f>TRIM(LOWER(F30))</f>
+        <f t="shared" si="0"/>
         <v>fall in the price of output</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -22126,7 +22129,7 @@
         <v>331</v>
       </c>
       <c r="G31" s="6" t="str">
-        <f>TRIM(LOWER(F31))</f>
+        <f t="shared" si="0"/>
         <v>large fall in sale prices for crops</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -22160,7 +22163,7 @@
         <v>331</v>
       </c>
       <c r="G32" s="6" t="str">
-        <f>TRIM(LOWER(F32))</f>
+        <f t="shared" si="0"/>
         <v>large fall in sale prices for crops</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -22194,7 +22197,7 @@
         <v>331</v>
       </c>
       <c r="G33" s="6" t="str">
-        <f>TRIM(LOWER(F33))</f>
+        <f t="shared" si="0"/>
         <v>large fall in sale prices for crops</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -22228,7 +22231,7 @@
         <v>331</v>
       </c>
       <c r="G34" s="6" t="str">
-        <f>TRIM(LOWER(F34))</f>
+        <f t="shared" si="0"/>
         <v>large fall in sale prices for crops</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -22262,7 +22265,7 @@
         <v>288</v>
       </c>
       <c r="G35" s="6" t="str">
-        <f>TRIM(LOWER(F35))</f>
+        <f t="shared" si="0"/>
         <v>unusually low prices for agricultural output</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -22296,7 +22299,7 @@
         <v>288</v>
       </c>
       <c r="G36" s="6" t="str">
-        <f>TRIM(LOWER(F36))</f>
+        <f t="shared" si="0"/>
         <v>unusually low prices for agricultural output</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -22330,7 +22333,7 @@
         <v>288</v>
       </c>
       <c r="G37" s="6" t="str">
-        <f>TRIM(LOWER(F37))</f>
+        <f t="shared" si="0"/>
         <v>unusually low prices for agricultural output</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -22364,7 +22367,7 @@
         <v>288</v>
       </c>
       <c r="G38" s="6" t="str">
-        <f>TRIM(LOWER(F38))</f>
+        <f t="shared" si="0"/>
         <v>unusually low prices for agricultural output</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -22400,7 +22403,7 @@
         <v>426</v>
       </c>
       <c r="G39" s="6" t="str">
-        <f>TRIM(LOWER(F39))</f>
+        <f t="shared" si="0"/>
         <v>unusually high level of
 livestock disease</v>
       </c>
@@ -22437,7 +22440,7 @@
         <v>426</v>
       </c>
       <c r="G40" s="6" t="str">
-        <f>TRIM(LOWER(F40))</f>
+        <f t="shared" si="0"/>
         <v>unusually high level of
 livestock disease</v>
       </c>
@@ -22474,7 +22477,7 @@
         <v>426</v>
       </c>
       <c r="G41" s="6" t="str">
-        <f>TRIM(LOWER(F41))</f>
+        <f t="shared" si="0"/>
         <v>unusually high level of
 livestock disease</v>
       </c>
@@ -22509,7 +22512,7 @@
         <v>364</v>
       </c>
       <c r="G42" s="6" t="str">
-        <f>TRIM(LOWER(F42))</f>
+        <f t="shared" si="0"/>
         <v>elevated rate of animal sickness</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -22543,7 +22546,7 @@
         <v>346</v>
       </c>
       <c r="G43" s="6" t="str">
-        <f>TRIM(LOWER(F43))</f>
+        <f t="shared" si="0"/>
         <v>taux élevé de maladies des animaux</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -22577,7 +22580,7 @@
         <v>286</v>
       </c>
       <c r="G44" s="6" t="str">
-        <f>TRIM(LOWER(F44))</f>
+        <f t="shared" si="0"/>
         <v>unusually high level of livestock disease</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -22611,7 +22614,7 @@
         <v>286</v>
       </c>
       <c r="G45" s="6" t="str">
-        <f>TRIM(LOWER(F45))</f>
+        <f t="shared" si="0"/>
         <v>unusually high level of livestock disease</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -22645,7 +22648,7 @@
         <v>286</v>
       </c>
       <c r="G46" s="6" t="str">
-        <f>TRIM(LOWER(F46))</f>
+        <f t="shared" si="0"/>
         <v>unusually high level of livestock disease</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -22679,7 +22682,7 @@
         <v>286</v>
       </c>
       <c r="G47" s="6" t="str">
-        <f>TRIM(LOWER(F47))</f>
+        <f t="shared" si="0"/>
         <v>unusually high level of livestock disease</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -22715,7 +22718,7 @@
         <v>392</v>
       </c>
       <c r="G48" s="6" t="str">
-        <f>TRIM(LOWER(F48))</f>
+        <f t="shared" si="0"/>
         <v>loss of livestock due to theft</v>
       </c>
       <c r="H48" s="6" t="s">
@@ -22757,7 +22760,7 @@
         <v>218</v>
       </c>
       <c r="G49" s="6" t="str">
-        <f>TRIM(LOWER(F49))</f>
+        <f t="shared" si="0"/>
         <v>loss of livestock due to theft</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -22799,7 +22802,7 @@
         <v>390</v>
       </c>
       <c r="G50" s="6" t="str">
-        <f>TRIM(LOWER(F50))</f>
+        <f t="shared" si="0"/>
         <v>loss of livestock due to flood</v>
       </c>
       <c r="H50" s="6" t="s">
@@ -22841,7 +22844,7 @@
         <v>216</v>
       </c>
       <c r="G51" s="6" t="str">
-        <f>TRIM(LOWER(F51))</f>
+        <f t="shared" si="0"/>
         <v>loss of livestock due to flood</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -22883,7 +22886,7 @@
         <v>215</v>
       </c>
       <c r="G52" s="6" t="str">
-        <f>TRIM(LOWER(F52))</f>
+        <f t="shared" si="0"/>
         <v>livestock loss due to cyclone</v>
       </c>
       <c r="H52" s="4" t="s">
@@ -22925,7 +22928,7 @@
         <v>391</v>
       </c>
       <c r="G53" s="6" t="str">
-        <f>TRIM(LOWER(F53))</f>
+        <f t="shared" si="0"/>
         <v>loss of livestock due to death</v>
       </c>
       <c r="H53" s="6" t="s">
@@ -22961,7 +22964,7 @@
         <v>217</v>
       </c>
       <c r="G54" s="6" t="str">
-        <f>TRIM(LOWER(F54))</f>
+        <f t="shared" si="0"/>
         <v>loss of livestock due to death</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22997,7 +23000,7 @@
         <v>275</v>
       </c>
       <c r="G55" s="6" t="str">
-        <f>TRIM(LOWER(F55))</f>
+        <f t="shared" si="0"/>
         <v>great loss/death of livestock</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -23031,7 +23034,7 @@
         <v>275</v>
       </c>
       <c r="G56" s="6" t="str">
-        <f>TRIM(LOWER(F56))</f>
+        <f t="shared" si="0"/>
         <v>great loss/death of livestock</v>
       </c>
       <c r="H56" s="4" t="s">
@@ -23067,7 +23070,7 @@
         <v>275</v>
       </c>
       <c r="G57" s="6" t="str">
-        <f>TRIM(LOWER(F57))</f>
+        <f t="shared" si="0"/>
         <v>great loss/death of livestock</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -23101,7 +23104,7 @@
         <v>317</v>
       </c>
       <c r="G58" s="6" t="str">
-        <f>TRIM(LOWER(F58))</f>
+        <f t="shared" si="0"/>
         <v>death of livestock due to illness</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -23135,7 +23138,7 @@
         <v>317</v>
       </c>
       <c r="G59" s="6" t="str">
-        <f>TRIM(LOWER(F59))</f>
+        <f t="shared" si="0"/>
         <v>death of livestock due to illness</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -23169,7 +23172,7 @@
         <v>317</v>
       </c>
       <c r="G60" s="6" t="str">
-        <f>TRIM(LOWER(F60))</f>
+        <f t="shared" si="0"/>
         <v>death of livestock due to illness</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -23203,7 +23206,7 @@
         <v>328</v>
       </c>
       <c r="G61" s="6" t="str">
-        <f>TRIM(LOWER(F61))</f>
+        <f t="shared" si="0"/>
         <v>livestock died or were stolen</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -23237,7 +23240,7 @@
         <v>328</v>
       </c>
       <c r="G62" s="6" t="str">
-        <f>TRIM(LOWER(F62))</f>
+        <f t="shared" si="0"/>
         <v>livestock died or were stolen</v>
       </c>
       <c r="H62" s="9" t="s">
@@ -23271,7 +23274,7 @@
         <v>328</v>
       </c>
       <c r="G63" s="6" t="str">
-        <f>TRIM(LOWER(F63))</f>
+        <f t="shared" si="0"/>
         <v>livestock died or were stolen</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -23305,7 +23308,7 @@
         <v>328</v>
       </c>
       <c r="G64" s="6" t="str">
-        <f>TRIM(LOWER(F64))</f>
+        <f t="shared" si="0"/>
         <v>livestock died or were stolen</v>
       </c>
       <c r="H64" s="4" t="s">
@@ -23341,7 +23344,7 @@
         <v>214</v>
       </c>
       <c r="G65" s="6" t="str">
-        <f>TRIM(LOWER(F65))</f>
+        <f t="shared" si="0"/>
         <v>crop loss due to cyclone</v>
       </c>
       <c r="H65" s="4" t="s">
@@ -23383,7 +23386,7 @@
         <v>271</v>
       </c>
       <c r="G66" s="6" t="str">
-        <f>TRIM(LOWER(F66))</f>
+        <f t="shared" ref="G66:G129" si="1">TRIM(LOWER(F66))</f>
         <v>other crop damage</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -23417,7 +23420,7 @@
         <v>271</v>
       </c>
       <c r="G67" s="6" t="str">
-        <f>TRIM(LOWER(F67))</f>
+        <f t="shared" si="1"/>
         <v>other crop damage</v>
       </c>
       <c r="H67" s="4" t="s">
@@ -23453,7 +23456,7 @@
         <v>271</v>
       </c>
       <c r="G68" s="6" t="str">
-        <f>TRIM(LOWER(F68))</f>
+        <f t="shared" si="1"/>
         <v>other crop damage</v>
       </c>
       <c r="H68" s="4" t="s">
@@ -23489,7 +23492,7 @@
         <v>425</v>
       </c>
       <c r="G69" s="6" t="str">
-        <f>TRIM(LOWER(F69))</f>
+        <f t="shared" si="1"/>
         <v>unusually high level of crop
 pests or disease</v>
       </c>
@@ -23526,7 +23529,7 @@
         <v>425</v>
       </c>
       <c r="G70" s="6" t="str">
-        <f>TRIM(LOWER(F70))</f>
+        <f t="shared" si="1"/>
         <v>unusually high level of crop
 pests or disease</v>
       </c>
@@ -23563,7 +23566,7 @@
         <v>425</v>
       </c>
       <c r="G71" s="6" t="str">
-        <f>TRIM(LOWER(F71))</f>
+        <f t="shared" si="1"/>
         <v>unusually high level of crop
 pests or disease</v>
       </c>
@@ -23598,7 +23601,7 @@
         <v>363</v>
       </c>
       <c r="G72" s="6" t="str">
-        <f>TRIM(LOWER(F72))</f>
+        <f t="shared" si="1"/>
         <v>elevated rate of crop disease</v>
       </c>
       <c r="H72" s="4" t="s">
@@ -23632,7 +23635,7 @@
         <v>345</v>
       </c>
       <c r="G73" s="6" t="str">
-        <f>TRIM(LOWER(F73))</f>
+        <f t="shared" si="1"/>
         <v>taux élevé de maladies des cultures</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -23666,7 +23669,7 @@
         <v>314</v>
       </c>
       <c r="G74" s="6" t="str">
-        <f>TRIM(LOWER(F74))</f>
+        <f t="shared" si="1"/>
         <v>pest invasion that caused harvest failure or storage loss</v>
       </c>
       <c r="H74" s="4" t="s">
@@ -23700,7 +23703,7 @@
         <v>314</v>
       </c>
       <c r="G75" s="6" t="str">
-        <f>TRIM(LOWER(F75))</f>
+        <f t="shared" si="1"/>
         <v>pest invasion that caused harvest failure or storage loss</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -23734,7 +23737,7 @@
         <v>314</v>
       </c>
       <c r="G76" s="6" t="str">
-        <f>TRIM(LOWER(F76))</f>
+        <f t="shared" si="1"/>
         <v>pest invasion that caused harvest failure or storage loss</v>
       </c>
       <c r="H76" s="4" t="s">
@@ -23768,7 +23771,7 @@
         <v>327</v>
       </c>
       <c r="G77" s="6" t="str">
-        <f>TRIM(LOWER(F77))</f>
+        <f t="shared" si="1"/>
         <v>crop disease or crop pests</v>
       </c>
       <c r="H77" s="4" t="s">
@@ -23802,7 +23805,7 @@
         <v>327</v>
       </c>
       <c r="G78" s="6" t="str">
-        <f>TRIM(LOWER(F78))</f>
+        <f t="shared" si="1"/>
         <v>crop disease or crop pests</v>
       </c>
       <c r="H78" s="4" t="s">
@@ -23836,7 +23839,7 @@
         <v>327</v>
       </c>
       <c r="G79" s="6" t="str">
-        <f>TRIM(LOWER(F79))</f>
+        <f t="shared" si="1"/>
         <v>crop disease or crop pests</v>
       </c>
       <c r="H79" s="4" t="s">
@@ -23870,7 +23873,7 @@
         <v>327</v>
       </c>
       <c r="G80" s="6" t="str">
-        <f>TRIM(LOWER(F80))</f>
+        <f t="shared" si="1"/>
         <v>crop disease or crop pests</v>
       </c>
       <c r="H80" s="4" t="s">
@@ -23904,7 +23907,7 @@
         <v>285</v>
       </c>
       <c r="G81" s="6" t="str">
-        <f>TRIM(LOWER(F81))</f>
+        <f t="shared" si="1"/>
         <v>unusually high level of crop pests &amp; disease</v>
       </c>
       <c r="H81" s="4" t="s">
@@ -23938,7 +23941,7 @@
         <v>285</v>
       </c>
       <c r="G82" s="6" t="str">
-        <f>TRIM(LOWER(F82))</f>
+        <f t="shared" si="1"/>
         <v>unusually high level of crop pests &amp; disease</v>
       </c>
       <c r="H82" s="4" t="s">
@@ -23972,7 +23975,7 @@
         <v>285</v>
       </c>
       <c r="G83" s="6" t="str">
-        <f>TRIM(LOWER(F83))</f>
+        <f t="shared" si="1"/>
         <v>unusually high level of crop pests &amp; disease</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -24006,7 +24009,7 @@
         <v>285</v>
       </c>
       <c r="G84" s="6" t="str">
-        <f>TRIM(LOWER(F84))</f>
+        <f t="shared" si="1"/>
         <v>unusually high level of crop pests &amp; disease</v>
       </c>
       <c r="H84" s="4" t="s">
@@ -24040,7 +24043,7 @@
         <v>360</v>
       </c>
       <c r="G85" s="6" t="str">
-        <f>TRIM(LOWER(F85))</f>
+        <f t="shared" si="1"/>
         <v>attaques acridiennes</v>
       </c>
       <c r="H85" s="4" t="s">
@@ -24076,7 +24079,7 @@
         <v>389</v>
       </c>
       <c r="G86" s="6" t="str">
-        <f>TRIM(LOWER(F86))</f>
+        <f t="shared" si="1"/>
         <v>major loss of crops due to other reasons
 (drought, storms, pests, disease, etc.)</v>
       </c>
@@ -24119,7 +24122,7 @@
         <v>213</v>
       </c>
       <c r="G87" s="6" t="str">
-        <f>TRIM(LOWER(F87))</f>
+        <f t="shared" si="1"/>
         <v>major loss of crops due to other reasons (drought, storms, pests, disease, etc.)</v>
       </c>
       <c r="H87" s="4" t="s">
@@ -24159,7 +24162,7 @@
         <v>312</v>
       </c>
       <c r="G88" s="6" t="str">
-        <f>TRIM(LOWER(F88))</f>
+        <f t="shared" si="1"/>
         <v>poor rains that caused harvest failure</v>
       </c>
       <c r="H88" s="4" t="s">
@@ -24199,7 +24202,7 @@
         <v>312</v>
       </c>
       <c r="G89" s="6" t="str">
-        <f>TRIM(LOWER(F89))</f>
+        <f t="shared" si="1"/>
         <v>poor rains that caused harvest failure</v>
       </c>
       <c r="H89" s="4" t="s">
@@ -24239,7 +24242,7 @@
         <v>312</v>
       </c>
       <c r="G90" s="6" t="str">
-        <f>TRIM(LOWER(F90))</f>
+        <f t="shared" si="1"/>
         <v>poor rains that caused harvest failure</v>
       </c>
       <c r="H90" s="4" t="s">
@@ -24281,7 +24284,7 @@
         <v>388</v>
       </c>
       <c r="G91" s="6" t="str">
-        <f>TRIM(LOWER(F91))</f>
+        <f t="shared" si="1"/>
         <v>major loss of crops due to flood</v>
       </c>
       <c r="H91" s="4" t="s">
@@ -24323,7 +24326,7 @@
         <v>212</v>
       </c>
       <c r="G92" s="6" t="str">
-        <f>TRIM(LOWER(F92))</f>
+        <f t="shared" si="1"/>
         <v>major loss of crops due to flood</v>
       </c>
       <c r="H92" s="4" t="s">
@@ -24363,7 +24366,7 @@
         <v>313</v>
       </c>
       <c r="G93" s="6" t="str">
-        <f>TRIM(LOWER(F93))</f>
+        <f t="shared" si="1"/>
         <v>flooding that caused harvest failure</v>
       </c>
       <c r="H93" s="4" t="s">
@@ -24403,7 +24406,7 @@
         <v>313</v>
       </c>
       <c r="G94" s="6" t="str">
-        <f>TRIM(LOWER(F94))</f>
+        <f t="shared" si="1"/>
         <v>flooding that caused harvest failure</v>
       </c>
       <c r="H94" s="4" t="s">
@@ -24443,7 +24446,7 @@
         <v>313</v>
       </c>
       <c r="G95" s="6" t="str">
-        <f>TRIM(LOWER(F95))</f>
+        <f t="shared" si="1"/>
         <v>flooding that caused harvest failure</v>
       </c>
       <c r="H95" s="4" t="s">
@@ -24483,7 +24486,7 @@
         <v>310</v>
       </c>
       <c r="G96" s="6" t="str">
-        <f>TRIM(LOWER(F96))</f>
+        <f t="shared" si="1"/>
         <v>destruction of harvest by fire</v>
       </c>
       <c r="H96" s="4" t="s">
@@ -24517,7 +24520,7 @@
         <v>310</v>
       </c>
       <c r="G97" s="6" t="str">
-        <f>TRIM(LOWER(F97))</f>
+        <f t="shared" si="1"/>
         <v>destruction of harvest by fire</v>
       </c>
       <c r="H97" s="4" t="s">
@@ -24551,7 +24554,7 @@
         <v>310</v>
       </c>
       <c r="G98" s="6" t="str">
-        <f>TRIM(LOWER(F98))</f>
+        <f t="shared" si="1"/>
         <v>destruction of harvest by fire</v>
       </c>
       <c r="H98" s="4" t="s">
@@ -24587,7 +24590,7 @@
         <v>407</v>
       </c>
       <c r="G99" s="6" t="str">
-        <f>TRIM(LOWER(F99))</f>
+        <f t="shared" si="1"/>
         <v>long duration hartals/strikes/political
 unrest</v>
       </c>
@@ -24624,7 +24627,7 @@
         <v>197</v>
       </c>
       <c r="G100" s="6" t="str">
-        <f>TRIM(LOWER(F100))</f>
+        <f t="shared" si="1"/>
         <v>long duration hartals/strikes/political unrest</v>
       </c>
       <c r="H100" s="9" t="s">
@@ -24660,7 +24663,7 @@
         <v>280</v>
       </c>
       <c r="G101" s="6" t="str">
-        <f>TRIM(LOWER(F101))</f>
+        <f t="shared" si="1"/>
         <v>local unrest/violence</v>
       </c>
       <c r="H101" s="4" t="s">
@@ -24694,7 +24697,7 @@
         <v>280</v>
       </c>
       <c r="G102" s="6" t="str">
-        <f>TRIM(LOWER(F102))</f>
+        <f t="shared" si="1"/>
         <v>local unrest/violence</v>
       </c>
       <c r="H102" s="4" t="s">
@@ -24730,7 +24733,7 @@
         <v>280</v>
       </c>
       <c r="G103" s="6" t="str">
-        <f>TRIM(LOWER(F103))</f>
+        <f t="shared" si="1"/>
         <v>local unrest/violence</v>
       </c>
       <c r="H103" s="4" t="s">
@@ -24766,7 +24769,7 @@
         <v>297</v>
       </c>
       <c r="G104" s="6" t="str">
-        <f>TRIM(LOWER(F104))</f>
+        <f t="shared" si="1"/>
         <v>conflict/violence</v>
       </c>
       <c r="H104" s="9" t="s">
@@ -24802,7 +24805,7 @@
         <v>297</v>
       </c>
       <c r="G105" s="6" t="str">
-        <f>TRIM(LOWER(F105))</f>
+        <f t="shared" si="1"/>
         <v>conflict/violence</v>
       </c>
       <c r="H105" s="9" t="s">
@@ -24838,7 +24841,7 @@
         <v>297</v>
       </c>
       <c r="G106" s="6" t="str">
-        <f>TRIM(LOWER(F106))</f>
+        <f t="shared" si="1"/>
         <v>conflict/violence</v>
       </c>
       <c r="H106" s="9" t="s">
@@ -24872,7 +24875,7 @@
         <v>378</v>
       </c>
       <c r="G107" s="6" t="str">
-        <f>TRIM(LOWER(F107))</f>
+        <f t="shared" si="1"/>
         <v>conflict/violence/insecurity</v>
       </c>
       <c r="H107" s="4" t="s">
@@ -24906,7 +24909,7 @@
         <v>359</v>
       </c>
       <c r="G108" s="6" t="str">
-        <f>TRIM(LOWER(F108))</f>
+        <f t="shared" si="1"/>
         <v>conflit/violence/insécurité</v>
       </c>
       <c r="H108" s="4" t="s">
@@ -24940,7 +24943,7 @@
         <v>297</v>
       </c>
       <c r="G109" s="6" t="str">
-        <f>TRIM(LOWER(F109))</f>
+        <f t="shared" si="1"/>
         <v>conflict/violence</v>
       </c>
       <c r="H109" s="4" t="s">
@@ -24974,7 +24977,7 @@
         <v>297</v>
       </c>
       <c r="G110" s="6" t="str">
-        <f>TRIM(LOWER(F110))</f>
+        <f t="shared" si="1"/>
         <v>conflict/violence</v>
       </c>
       <c r="H110" s="4" t="s">
@@ -25008,7 +25011,7 @@
         <v>297</v>
       </c>
       <c r="G111" s="6" t="str">
-        <f>TRIM(LOWER(F111))</f>
+        <f t="shared" si="1"/>
         <v>conflict/violence</v>
       </c>
       <c r="H111" s="4" t="s">
@@ -25042,7 +25045,7 @@
         <v>297</v>
       </c>
       <c r="G112" s="6" t="str">
-        <f>TRIM(LOWER(F112))</f>
+        <f t="shared" si="1"/>
         <v>conflict/violence</v>
       </c>
       <c r="H112" s="4" t="s">
@@ -25078,7 +25081,7 @@
         <v>401</v>
       </c>
       <c r="G113" s="6" t="str">
-        <f>TRIM(LOWER(F113))</f>
+        <f t="shared" si="1"/>
         <v>family member put in prison</v>
       </c>
       <c r="H113" s="6" t="s">
@@ -25114,7 +25117,7 @@
         <v>401</v>
       </c>
       <c r="G114" s="6" t="str">
-        <f>TRIM(LOWER(F114))</f>
+        <f t="shared" si="1"/>
         <v>family member put in prison</v>
       </c>
       <c r="H114" s="9" t="s">
@@ -25148,7 +25151,7 @@
         <v>342</v>
       </c>
       <c r="G115" s="6" t="str">
-        <f>TRIM(LOWER(F115))</f>
+        <f t="shared" si="1"/>
         <v>jailed</v>
       </c>
       <c r="H115" s="4" t="s">
@@ -25182,7 +25185,7 @@
         <v>342</v>
       </c>
       <c r="G116" s="6" t="str">
-        <f>TRIM(LOWER(F116))</f>
+        <f t="shared" si="1"/>
         <v>jailed</v>
       </c>
       <c r="H116" s="4" t="s">
@@ -25216,7 +25219,7 @@
         <v>342</v>
       </c>
       <c r="G117" s="6" t="str">
-        <f>TRIM(LOWER(F117))</f>
+        <f t="shared" si="1"/>
         <v>jailed</v>
       </c>
       <c r="H117" s="4" t="s">
@@ -25252,7 +25255,7 @@
         <v>277</v>
       </c>
       <c r="G118" s="30" t="str">
-        <f>TRIM(LOWER(F118))</f>
+        <f t="shared" si="1"/>
         <v>theft/robbery and other violence</v>
       </c>
       <c r="H118" s="28" t="s">
@@ -25286,7 +25289,7 @@
         <v>277</v>
       </c>
       <c r="G119" s="30" t="str">
-        <f>TRIM(LOWER(F119))</f>
+        <f t="shared" si="1"/>
         <v>theft/robbery and other violence</v>
       </c>
       <c r="H119" s="28" t="s">
@@ -25322,7 +25325,7 @@
         <v>277</v>
       </c>
       <c r="G120" s="30" t="str">
-        <f>TRIM(LOWER(F120))</f>
+        <f t="shared" si="1"/>
         <v>theft/robbery and other violence</v>
       </c>
       <c r="H120" s="28" t="s">
@@ -25358,7 +25361,7 @@
         <v>437</v>
       </c>
       <c r="G121" s="30" t="str">
-        <f>TRIM(LOWER(F121))</f>
+        <f t="shared" si="1"/>
         <v>theft of money/valuables/assets/agricultural
 output</v>
       </c>
@@ -25395,7 +25398,7 @@
         <v>442</v>
       </c>
       <c r="G122" s="30" t="str">
-        <f>TRIM(LOWER(F122))</f>
+        <f t="shared" si="1"/>
         <v>theft of money/valuables/
 assets/agricultural output</v>
       </c>
@@ -25432,7 +25435,7 @@
         <v>437</v>
       </c>
       <c r="G123" s="30" t="str">
-        <f>TRIM(LOWER(F123))</f>
+        <f t="shared" si="1"/>
         <v>theft of money/valuables/assets/agricultural
 output</v>
       </c>
@@ -25467,7 +25470,7 @@
         <v>377</v>
       </c>
       <c r="G124" s="30" t="str">
-        <f>TRIM(LOWER(F124))</f>
+        <f t="shared" si="1"/>
         <v>theft of money, goods, harvest</v>
       </c>
       <c r="H124" s="28" t="s">
@@ -25501,7 +25504,7 @@
         <v>358</v>
       </c>
       <c r="G125" s="30" t="str">
-        <f>TRIM(LOWER(F125))</f>
+        <f t="shared" si="1"/>
         <v>vol d'argent, de biens ou de récolte</v>
       </c>
       <c r="H125" s="28" t="s">
@@ -25535,7 +25538,7 @@
         <v>309</v>
       </c>
       <c r="G126" s="30" t="str">
-        <f>TRIM(LOWER(F126))</f>
+        <f t="shared" si="1"/>
         <v>theft of crops, cash, livestock or other property</v>
       </c>
       <c r="H126" s="28" t="s">
@@ -25569,7 +25572,7 @@
         <v>309</v>
       </c>
       <c r="G127" s="30" t="str">
-        <f>TRIM(LOWER(F127))</f>
+        <f t="shared" si="1"/>
         <v>theft of crops, cash, livestock or other property</v>
       </c>
       <c r="H127" s="28" t="s">
@@ -25603,7 +25606,7 @@
         <v>309</v>
       </c>
       <c r="G128" s="30" t="str">
-        <f>TRIM(LOWER(F128))</f>
+        <f t="shared" si="1"/>
         <v>theft of crops, cash, livestock or other property</v>
       </c>
       <c r="H128" s="28" t="s">
@@ -25637,7 +25640,7 @@
         <v>296</v>
       </c>
       <c r="G129" s="30" t="str">
-        <f>TRIM(LOWER(F129))</f>
+        <f t="shared" si="1"/>
         <v>theft of agricultural assets/output (crop or livestock)</v>
       </c>
       <c r="H129" s="28" t="s">
@@ -25671,7 +25674,7 @@
         <v>295</v>
       </c>
       <c r="G130" s="30" t="str">
-        <f>TRIM(LOWER(F130))</f>
+        <f t="shared" ref="G130:G193" si="2">TRIM(LOWER(F130))</f>
         <v>theft of money/valuables/non-agricultural assets</v>
       </c>
       <c r="H130" s="28" t="s">
@@ -25705,7 +25708,7 @@
         <v>296</v>
       </c>
       <c r="G131" s="30" t="str">
-        <f>TRIM(LOWER(F131))</f>
+        <f t="shared" si="2"/>
         <v>theft of agricultural assets/output (crop or livestock)</v>
       </c>
       <c r="H131" s="28" t="s">
@@ -25739,7 +25742,7 @@
         <v>295</v>
       </c>
       <c r="G132" s="30" t="str">
-        <f>TRIM(LOWER(F132))</f>
+        <f t="shared" si="2"/>
         <v>theft of money/valuables/non-agricultural assets</v>
       </c>
       <c r="H132" s="28" t="s">
@@ -25773,7 +25776,7 @@
         <v>296</v>
       </c>
       <c r="G133" s="30" t="str">
-        <f>TRIM(LOWER(F133))</f>
+        <f t="shared" si="2"/>
         <v>theft of agricultural assets/output (crop or livestock)</v>
       </c>
       <c r="H133" s="28" t="s">
@@ -25807,7 +25810,7 @@
         <v>295</v>
       </c>
       <c r="G134" s="30" t="str">
-        <f>TRIM(LOWER(F134))</f>
+        <f t="shared" si="2"/>
         <v>theft of money/valuables/non-agricultural assets</v>
       </c>
       <c r="H134" s="28" t="s">
@@ -25841,7 +25844,7 @@
         <v>296</v>
       </c>
       <c r="G135" s="30" t="str">
-        <f>TRIM(LOWER(F135))</f>
+        <f t="shared" si="2"/>
         <v>theft of agricultural assets/output (crop or livestock)</v>
       </c>
       <c r="H135" s="28" t="s">
@@ -25875,7 +25878,7 @@
         <v>295</v>
       </c>
       <c r="G136" s="30" t="str">
-        <f>TRIM(LOWER(F136))</f>
+        <f t="shared" si="2"/>
         <v>theft of money/valuables/non-agricultural assets</v>
       </c>
       <c r="H136" s="28" t="s">
@@ -25911,7 +25914,7 @@
         <v>402</v>
       </c>
       <c r="G137" s="6" t="str">
-        <f>TRIM(LOWER(F137))</f>
+        <f t="shared" si="2"/>
         <v>household member arrested by police</v>
       </c>
       <c r="H137" s="6" t="s">
@@ -25947,7 +25950,7 @@
         <v>195</v>
       </c>
       <c r="G138" s="6" t="str">
-        <f>TRIM(LOWER(F138))</f>
+        <f t="shared" si="2"/>
         <v>household member arrested by police</v>
       </c>
       <c r="H138" s="9" t="s">
@@ -25981,7 +25984,7 @@
         <v>321</v>
       </c>
       <c r="G139" s="6" t="str">
-        <f>TRIM(LOWER(F139))</f>
+        <f t="shared" si="2"/>
         <v>kidnapping/hijacking/robbery/assault</v>
       </c>
       <c r="H139" s="4" t="s">
@@ -26015,7 +26018,7 @@
         <v>321</v>
       </c>
       <c r="G140" s="6" t="str">
-        <f>TRIM(LOWER(F140))</f>
+        <f t="shared" si="2"/>
         <v>kidnapping/hijacking/robbery/assault</v>
       </c>
       <c r="H140" s="4" t="s">
@@ -26049,7 +26052,7 @@
         <v>321</v>
       </c>
       <c r="G141" s="6" t="str">
-        <f>TRIM(LOWER(F141))</f>
+        <f t="shared" si="2"/>
         <v>kidnapping/hijacking/robbery/assault</v>
       </c>
       <c r="H141" s="4" t="s">
@@ -26083,7 +26086,7 @@
         <v>339</v>
       </c>
       <c r="G142" s="6" t="str">
-        <f>TRIM(LOWER(F142))</f>
+        <f t="shared" si="2"/>
         <v>hijacking/robbery/burglary/assault</v>
       </c>
       <c r="H142" s="4" t="s">
@@ -26117,7 +26120,7 @@
         <v>339</v>
       </c>
       <c r="G143" s="6" t="str">
-        <f>TRIM(LOWER(F143))</f>
+        <f t="shared" si="2"/>
         <v>hijacking/robbery/burglary/assault</v>
       </c>
       <c r="H143" s="4" t="s">
@@ -26151,7 +26154,7 @@
         <v>339</v>
       </c>
       <c r="G144" s="6" t="str">
-        <f>TRIM(LOWER(F144))</f>
+        <f t="shared" si="2"/>
         <v>hijacking/robbery/burglary/assault</v>
       </c>
       <c r="H144" s="4" t="s">
@@ -26185,7 +26188,7 @@
         <v>339</v>
       </c>
       <c r="G145" s="6" t="str">
-        <f>TRIM(LOWER(F145))</f>
+        <f t="shared" si="2"/>
         <v>hijacking/robbery/burglary/assault</v>
       </c>
       <c r="H145" s="4" t="s">
@@ -26221,7 +26224,7 @@
         <v>400</v>
       </c>
       <c r="G146" s="6" t="str">
-        <f>TRIM(LOWER(F146))</f>
+        <f t="shared" si="2"/>
         <v>extortion by mastans</v>
       </c>
       <c r="H146" s="6" t="s">
@@ -26257,7 +26260,7 @@
         <v>400</v>
       </c>
       <c r="G147" s="6" t="str">
-        <f>TRIM(LOWER(F147))</f>
+        <f t="shared" si="2"/>
         <v>extortion by mastans</v>
       </c>
       <c r="H147" s="9" t="s">
@@ -26293,7 +26296,7 @@
         <v>380</v>
       </c>
       <c r="G148" s="6" t="str">
-        <f>TRIM(LOWER(F148))</f>
+        <f t="shared" si="2"/>
         <v>death of main earner</v>
       </c>
       <c r="H148" s="4" t="s">
@@ -26329,7 +26332,7 @@
         <v>204</v>
       </c>
       <c r="G149" s="6" t="str">
-        <f>TRIM(LOWER(F149))</f>
+        <f t="shared" si="2"/>
         <v>death of main earner</v>
       </c>
       <c r="H149" s="4" t="s">
@@ -26365,7 +26368,7 @@
         <v>258</v>
       </c>
       <c r="G150" s="6" t="str">
-        <f>TRIM(LOWER(F150))</f>
+        <f t="shared" si="2"/>
         <v>death of household member (main bread earner)</v>
       </c>
       <c r="H150" s="4" t="s">
@@ -26399,7 +26402,7 @@
         <v>262</v>
       </c>
       <c r="G151" s="6" t="str">
-        <f>TRIM(LOWER(F151))</f>
+        <f t="shared" si="2"/>
         <v>death of household member (main bread earner)</v>
       </c>
       <c r="H151" s="4" t="s">
@@ -26435,7 +26438,7 @@
         <v>258</v>
       </c>
       <c r="G152" s="6" t="str">
-        <f>TRIM(LOWER(F152))</f>
+        <f t="shared" si="2"/>
         <v>death of household member (main bread earner)</v>
       </c>
       <c r="H152" s="4" t="s">
@@ -26471,7 +26474,7 @@
         <v>381</v>
       </c>
       <c r="G153" s="6" t="str">
-        <f>TRIM(LOWER(F153))</f>
+        <f t="shared" si="2"/>
         <v>death of other than main earner in the
 family</v>
       </c>
@@ -26508,7 +26511,7 @@
         <v>205</v>
       </c>
       <c r="G154" s="6" t="str">
-        <f>TRIM(LOWER(F154))</f>
+        <f t="shared" si="2"/>
         <v>death of other than main earner in the family</v>
       </c>
       <c r="H154" s="4" t="s">
@@ -26542,7 +26545,7 @@
         <v>264</v>
       </c>
       <c r="G155" s="6" t="str">
-        <f>TRIM(LOWER(F155))</f>
+        <f t="shared" si="2"/>
         <v>death of other household member</v>
       </c>
       <c r="H155" s="4" t="s">
@@ -26578,7 +26581,7 @@
         <v>264</v>
       </c>
       <c r="G156" s="6" t="str">
-        <f>TRIM(LOWER(F156))</f>
+        <f t="shared" si="2"/>
         <v>death of other household member</v>
       </c>
       <c r="H156" s="4" t="s">
@@ -26614,7 +26617,7 @@
         <v>259</v>
       </c>
       <c r="G157" s="6" t="str">
-        <f>TRIM(LOWER(F157))</f>
+        <f t="shared" si="2"/>
         <v>death of underfive children or abortion stillbirth</v>
       </c>
       <c r="H157" s="4" t="s">
@@ -26650,7 +26653,7 @@
         <v>293</v>
       </c>
       <c r="G158" s="6" t="str">
-        <f>TRIM(LOWER(F158))</f>
+        <f t="shared" si="2"/>
         <v>death of income earner(s)</v>
       </c>
       <c r="H158" s="4" t="s">
@@ -26686,7 +26689,7 @@
         <v>294</v>
       </c>
       <c r="G159" s="6" t="str">
-        <f>TRIM(LOWER(F159))</f>
+        <f t="shared" si="2"/>
         <v>death of other household member(s)</v>
       </c>
       <c r="H159" s="4" t="s">
@@ -26722,7 +26725,7 @@
         <v>293</v>
       </c>
       <c r="G160" s="6" t="str">
-        <f>TRIM(LOWER(F160))</f>
+        <f t="shared" si="2"/>
         <v>death of income earner(s)</v>
       </c>
       <c r="H160" s="4" t="s">
@@ -26758,7 +26761,7 @@
         <v>293</v>
       </c>
       <c r="G161" s="6" t="str">
-        <f>TRIM(LOWER(F161))</f>
+        <f t="shared" si="2"/>
         <v>death of income earner(s)</v>
       </c>
       <c r="H161" s="4" t="s">
@@ -26794,7 +26797,7 @@
         <v>294</v>
       </c>
       <c r="G162" s="6" t="str">
-        <f>TRIM(LOWER(F162))</f>
+        <f t="shared" si="2"/>
         <v>death of other household member(s)</v>
       </c>
       <c r="H162" s="4" t="s">
@@ -26830,7 +26833,7 @@
         <v>441</v>
       </c>
       <c r="G163" s="6" t="str">
-        <f>TRIM(LOWER(F163))</f>
+        <f t="shared" si="2"/>
         <v>death of other household
 member(s)</v>
       </c>
@@ -26865,7 +26868,7 @@
         <v>374</v>
       </c>
       <c r="G164" s="6" t="str">
-        <f>TRIM(LOWER(F164))</f>
+        <f t="shared" si="2"/>
         <v>death of a earning member of the household</v>
       </c>
       <c r="H164" s="4" t="s">
@@ -26899,7 +26902,7 @@
         <v>375</v>
       </c>
       <c r="G165" s="6" t="str">
-        <f>TRIM(LOWER(F165))</f>
+        <f t="shared" si="2"/>
         <v>death of another member of the household</v>
       </c>
       <c r="H165" s="4" t="s">
@@ -26933,7 +26936,7 @@
         <v>356</v>
       </c>
       <c r="G166" s="6" t="str">
-        <f>TRIM(LOWER(F166))</f>
+        <f t="shared" si="2"/>
         <v>décès d'un autre membre du ménage</v>
       </c>
       <c r="H166" s="4" t="s">
@@ -26967,7 +26970,7 @@
         <v>355</v>
       </c>
       <c r="G167" s="6" t="str">
-        <f>TRIM(LOWER(F167))</f>
+        <f t="shared" si="2"/>
         <v>décès d'un membre actif du ménage</v>
       </c>
       <c r="H167" s="4" t="s">
@@ -27001,7 +27004,7 @@
         <v>302</v>
       </c>
       <c r="G168" s="6" t="str">
-        <f>TRIM(LOWER(F168))</f>
+        <f t="shared" si="2"/>
         <v>death of someone who sends remittances to the household</v>
       </c>
       <c r="H168" s="4" t="s">
@@ -27035,7 +27038,7 @@
         <v>323</v>
       </c>
       <c r="G169" s="6" t="str">
-        <f>TRIM(LOWER(F169))</f>
+        <f t="shared" si="2"/>
         <v>death or disability of an adult working member of the household</v>
       </c>
       <c r="H169" s="4" t="s">
@@ -27069,7 +27072,7 @@
         <v>302</v>
       </c>
       <c r="G170" s="6" t="str">
-        <f>TRIM(LOWER(F170))</f>
+        <f t="shared" si="2"/>
         <v>death of someone who sends remittances to the household</v>
       </c>
       <c r="H170" s="4" t="s">
@@ -27103,7 +27106,7 @@
         <v>323</v>
       </c>
       <c r="G171" s="6" t="str">
-        <f>TRIM(LOWER(F171))</f>
+        <f t="shared" si="2"/>
         <v>death or disability of an adult working member of the household</v>
       </c>
       <c r="H171" s="4" t="s">
@@ -27137,7 +27140,7 @@
         <v>302</v>
       </c>
       <c r="G172" s="6" t="str">
-        <f>TRIM(LOWER(F172))</f>
+        <f t="shared" si="2"/>
         <v>death of someone who sends remittances to the household</v>
       </c>
       <c r="H172" s="4" t="s">
@@ -27171,7 +27174,7 @@
         <v>301</v>
       </c>
       <c r="G173" s="6" t="str">
-        <f>TRIM(LOWER(F173))</f>
+        <f t="shared" si="2"/>
         <v>death or disability of an adult working member of the
 household</v>
       </c>
@@ -27206,7 +27209,7 @@
         <v>109</v>
       </c>
       <c r="G174" s="6" t="str">
-        <f>TRIM(LOWER(F174))</f>
+        <f t="shared" si="2"/>
         <v>death of a member of household</v>
       </c>
       <c r="H174" s="4" t="s">
@@ -27240,7 +27243,7 @@
         <v>337</v>
       </c>
       <c r="G175" s="6" t="str">
-        <f>TRIM(LOWER(F175))</f>
+        <f t="shared" si="2"/>
         <v>death of other family member</v>
       </c>
       <c r="H175" s="4" t="s">
@@ -27274,7 +27277,7 @@
         <v>336</v>
       </c>
       <c r="G176" s="6" t="str">
-        <f>TRIM(LOWER(F176))</f>
+        <f t="shared" si="2"/>
         <v>death of a member of household</v>
       </c>
       <c r="H176" s="9" t="s">
@@ -27308,7 +27311,7 @@
         <v>337</v>
       </c>
       <c r="G177" s="6" t="str">
-        <f>TRIM(LOWER(F177))</f>
+        <f t="shared" si="2"/>
         <v>death of other family member</v>
       </c>
       <c r="H177" s="4" t="s">
@@ -27342,7 +27345,7 @@
         <v>336</v>
       </c>
       <c r="G178" s="6" t="str">
-        <f>TRIM(LOWER(F178))</f>
+        <f t="shared" si="2"/>
         <v>death of a member of household</v>
       </c>
       <c r="H178" s="4" t="s">
@@ -27376,7 +27379,7 @@
         <v>337</v>
       </c>
       <c r="G179" s="6" t="str">
-        <f>TRIM(LOWER(F179))</f>
+        <f t="shared" si="2"/>
         <v>death of other family member</v>
       </c>
       <c r="H179" s="4" t="s">
@@ -27410,7 +27413,7 @@
         <v>336</v>
       </c>
       <c r="G180" s="6" t="str">
-        <f>TRIM(LOWER(F180))</f>
+        <f t="shared" si="2"/>
         <v>death of a member of household</v>
       </c>
       <c r="H180" s="4" t="s">
@@ -27444,7 +27447,7 @@
         <v>337</v>
       </c>
       <c r="G181" s="6" t="str">
-        <f>TRIM(LOWER(F181))</f>
+        <f t="shared" si="2"/>
         <v>death of other family member</v>
       </c>
       <c r="H181" s="4" t="s">
@@ -27478,7 +27481,7 @@
         <v>293</v>
       </c>
       <c r="G182" s="6" t="str">
-        <f>TRIM(LOWER(F182))</f>
+        <f t="shared" si="2"/>
         <v>death of income earner(s)</v>
       </c>
       <c r="H182" s="4" t="s">
@@ -27512,7 +27515,7 @@
         <v>294</v>
       </c>
       <c r="G183" s="6" t="str">
-        <f>TRIM(LOWER(F183))</f>
+        <f t="shared" si="2"/>
         <v>death of other household member(s)</v>
       </c>
       <c r="H183" s="4" t="s">
@@ -27546,7 +27549,7 @@
         <v>293</v>
       </c>
       <c r="G184" s="6" t="str">
-        <f>TRIM(LOWER(F184))</f>
+        <f t="shared" si="2"/>
         <v>death of income earner(s)</v>
       </c>
       <c r="H184" s="4" t="s">
@@ -27580,7 +27583,7 @@
         <v>294</v>
       </c>
       <c r="G185" s="6" t="str">
-        <f>TRIM(LOWER(F185))</f>
+        <f t="shared" si="2"/>
         <v>death of other household member(s)</v>
       </c>
       <c r="H185" s="4" t="s">
@@ -27614,7 +27617,7 @@
         <v>293</v>
       </c>
       <c r="G186" s="6" t="str">
-        <f>TRIM(LOWER(F186))</f>
+        <f t="shared" si="2"/>
         <v>death of income earner(s)</v>
       </c>
       <c r="H186" s="4" t="s">
@@ -27648,7 +27651,7 @@
         <v>294</v>
       </c>
       <c r="G187" s="6" t="str">
-        <f>TRIM(LOWER(F187))</f>
+        <f t="shared" si="2"/>
         <v>death of other household member(s)</v>
       </c>
       <c r="H187" s="4" t="s">
@@ -27682,7 +27685,7 @@
         <v>293</v>
       </c>
       <c r="G188" s="6" t="str">
-        <f>TRIM(LOWER(F188))</f>
+        <f t="shared" si="2"/>
         <v>death of income earner(s)</v>
       </c>
       <c r="H188" s="4" t="s">
@@ -27716,7 +27719,7 @@
         <v>294</v>
       </c>
       <c r="G189" s="6" t="str">
-        <f>TRIM(LOWER(F189))</f>
+        <f t="shared" si="2"/>
         <v>death of other household member(s)</v>
       </c>
       <c r="H189" s="4" t="s">
@@ -27752,7 +27755,7 @@
         <v>384</v>
       </c>
       <c r="G190" s="6" t="str">
-        <f>TRIM(LOWER(F190))</f>
+        <f t="shared" si="2"/>
         <v>loss of a regular job of a household
 member</v>
       </c>
@@ -27789,7 +27792,7 @@
         <v>208</v>
       </c>
       <c r="G191" s="6" t="str">
-        <f>TRIM(LOWER(F191))</f>
+        <f t="shared" si="2"/>
         <v>loss of a regular job of a household member</v>
       </c>
       <c r="H191" s="4" t="s">
@@ -27825,7 +27828,7 @@
         <v>260</v>
       </c>
       <c r="G192" s="6" t="str">
-        <f>TRIM(LOWER(F192))</f>
+        <f t="shared" si="2"/>
         <v>loss of non-farm jobs of household member</v>
       </c>
       <c r="H192" s="6" t="s">
@@ -27859,7 +27862,7 @@
         <v>266</v>
       </c>
       <c r="G193" s="6" t="str">
-        <f>TRIM(LOWER(F193))</f>
+        <f t="shared" si="2"/>
         <v>loss of non-farm jobs of household member</v>
       </c>
       <c r="H193" s="6" t="s">
@@ -27895,7 +27898,7 @@
         <v>260</v>
       </c>
       <c r="G194" s="6" t="str">
-        <f>TRIM(LOWER(F194))</f>
+        <f t="shared" ref="G194:G257" si="3">TRIM(LOWER(F194))</f>
         <v>loss of non-farm jobs of household member</v>
       </c>
       <c r="H194" s="6" t="s">
@@ -27931,7 +27934,7 @@
         <v>433</v>
       </c>
       <c r="G195" s="6" t="str">
-        <f>TRIM(LOWER(F195))</f>
+        <f t="shared" si="3"/>
         <v>loss of employment of previously salaried
 household member(s)
 (not due to illness or accident)</v>
@@ -27969,7 +27972,7 @@
         <v>430</v>
       </c>
       <c r="G196" s="6" t="str">
-        <f>TRIM(LOWER(F196))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings from household
 (non-agricultural) business
 (not due to illness or accident)</v>
@@ -28007,7 +28010,7 @@
         <v>432</v>
       </c>
       <c r="G197" s="6" t="str">
-        <f>TRIM(LOWER(F197))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings of currently
 salaried household member(s) (not due to illness or accident)</v>
       </c>
@@ -28044,7 +28047,7 @@
         <v>433</v>
       </c>
       <c r="G198" s="6" t="str">
-        <f>TRIM(LOWER(F198))</f>
+        <f t="shared" si="3"/>
         <v>loss of employment of previously salaried
 household member(s)
 (not due to illness or accident)</v>
@@ -28082,7 +28085,7 @@
         <v>440</v>
       </c>
       <c r="G199" s="6" t="str">
-        <f>TRIM(LOWER(F199))</f>
+        <f t="shared" si="3"/>
         <v>loss of employment of previously
 salaried</v>
       </c>
@@ -28119,7 +28122,7 @@
         <v>452</v>
       </c>
       <c r="G200" s="6" t="str">
-        <f>TRIM(LOWER(F200))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings from household</v>
       </c>
       <c r="H200" s="9" t="s">
@@ -28155,7 +28158,7 @@
         <v>451</v>
       </c>
       <c r="G201" s="6" t="str">
-        <f>TRIM(LOWER(F201))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings from household (non-agricultural) business
 (not due to illness or accident)</v>
       </c>
@@ -28192,7 +28195,7 @@
         <v>449</v>
       </c>
       <c r="G202" s="6" t="str">
-        <f>TRIM(LOWER(F202))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings of currently (off-farm) employed household member(s)</v>
       </c>
       <c r="H202" s="9" t="s">
@@ -28228,7 +28231,7 @@
         <v>432</v>
       </c>
       <c r="G203" s="6" t="str">
-        <f>TRIM(LOWER(F203))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings of currently
 salaried household member(s) (not due to illness or accident)</v>
       </c>
@@ -28263,7 +28266,7 @@
         <v>369</v>
       </c>
       <c r="G204" s="6" t="str">
-        <f>TRIM(LOWER(F204))</f>
+        <f t="shared" si="3"/>
         <v>large loss of non agricultural household revenue
 (other than from accident or sickness)</v>
       </c>
@@ -28298,7 +28301,7 @@
         <v>371</v>
       </c>
       <c r="G205" s="6" t="str">
-        <f>TRIM(LOWER(F205))</f>
+        <f t="shared" si="3"/>
         <v>large loss of wage revenues (other than from an accident or sickness)</v>
       </c>
       <c r="H205" s="4" t="s">
@@ -28332,7 +28335,7 @@
         <v>372</v>
       </c>
       <c r="G206" s="6" t="str">
-        <f>TRIM(LOWER(F206))</f>
+        <f t="shared" si="3"/>
         <v>loss of a wage earning household member</v>
       </c>
       <c r="H206" s="4" t="s">
@@ -28366,7 +28369,7 @@
         <v>450</v>
       </c>
       <c r="G207" s="6" t="str">
-        <f>TRIM(LOWER(F207))</f>
+        <f t="shared" si="3"/>
         <v>perte d'emploi salarié d'un membre du ménage</v>
       </c>
       <c r="H207" s="4" t="s">
@@ -28400,7 +28403,7 @@
         <v>353</v>
       </c>
       <c r="G208" s="6" t="str">
-        <f>TRIM(LOWER(F208))</f>
+        <f t="shared" si="3"/>
         <v>perte importante de revenus salariaux (autre que du fait d'un accident ou d'une maladie)</v>
       </c>
       <c r="H208" s="4" t="s">
@@ -28434,7 +28437,7 @@
         <v>351</v>
       </c>
       <c r="G209" s="6" t="str">
-        <f>TRIM(LOWER(F209))</f>
+        <f t="shared" si="3"/>
         <v>perte importante du revenu non agricole du ménage
 (autre que du fait d'un accident ou d'une maladie)</v>
       </c>
@@ -28469,7 +28472,7 @@
         <v>305</v>
       </c>
       <c r="G210" s="6" t="str">
-        <f>TRIM(LOWER(F210))</f>
+        <f t="shared" si="3"/>
         <v>job loss</v>
       </c>
       <c r="H210" s="4" t="s">
@@ -28503,7 +28506,7 @@
         <v>305</v>
       </c>
       <c r="G211" s="6" t="str">
-        <f>TRIM(LOWER(F211))</f>
+        <f t="shared" si="3"/>
         <v>job loss</v>
       </c>
       <c r="H211" s="4" t="s">
@@ -28537,7 +28540,7 @@
         <v>305</v>
       </c>
       <c r="G212" s="6" t="str">
-        <f>TRIM(LOWER(F212))</f>
+        <f t="shared" si="3"/>
         <v>job loss</v>
       </c>
       <c r="H212" s="4" t="s">
@@ -28571,7 +28574,7 @@
         <v>330</v>
       </c>
       <c r="G213" s="6" t="str">
-        <f>TRIM(LOWER(F213))</f>
+        <f t="shared" si="3"/>
         <v>loss of salaried employment or non-payment of salary</v>
       </c>
       <c r="H213" s="6" t="s">
@@ -28605,7 +28608,7 @@
         <v>330</v>
       </c>
       <c r="G214" s="6" t="str">
-        <f>TRIM(LOWER(F214))</f>
+        <f t="shared" si="3"/>
         <v>loss of salaried employment or non-payment of salary</v>
       </c>
       <c r="H214" s="6" t="s">
@@ -28639,7 +28642,7 @@
         <v>330</v>
       </c>
       <c r="G215" s="6" t="str">
-        <f>TRIM(LOWER(F215))</f>
+        <f t="shared" si="3"/>
         <v>loss of salaried employment or non-payment of salary</v>
       </c>
       <c r="H215" s="6" t="s">
@@ -28673,7 +28676,7 @@
         <v>330</v>
       </c>
       <c r="G216" s="6" t="str">
-        <f>TRIM(LOWER(F216))</f>
+        <f t="shared" si="3"/>
         <v>loss of salaried employment or non-payment of salary</v>
       </c>
       <c r="H216" s="6" t="s">
@@ -28707,7 +28710,7 @@
         <v>290</v>
       </c>
       <c r="G217" s="6" t="str">
-        <f>TRIM(LOWER(F217))</f>
+        <f t="shared" si="3"/>
         <v>loss of employment of previously employed household
 member(s) (not due to illness or accident)</v>
       </c>
@@ -28742,7 +28745,7 @@
         <v>289</v>
       </c>
       <c r="G218" s="6" t="str">
-        <f>TRIM(LOWER(F218))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings of currently (off-farm) employed
 household member(s)</v>
       </c>
@@ -28777,7 +28780,7 @@
         <v>290</v>
       </c>
       <c r="G219" s="6" t="str">
-        <f>TRIM(LOWER(F219))</f>
+        <f t="shared" si="3"/>
         <v>loss of employment of previously employed household
 member(s) (not due to illness or accident)</v>
       </c>
@@ -28812,7 +28815,7 @@
         <v>289</v>
       </c>
       <c r="G220" s="6" t="str">
-        <f>TRIM(LOWER(F220))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings of currently (off-farm) employed
 household member(s)</v>
       </c>
@@ -28847,7 +28850,7 @@
         <v>290</v>
       </c>
       <c r="G221" s="6" t="str">
-        <f>TRIM(LOWER(F221))</f>
+        <f t="shared" si="3"/>
         <v>loss of employment of previously employed household
 member(s) (not due to illness or accident)</v>
       </c>
@@ -28882,7 +28885,7 @@
         <v>289</v>
       </c>
       <c r="G222" s="6" t="str">
-        <f>TRIM(LOWER(F222))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings of currently (off-farm) employed
 household member(s)</v>
       </c>
@@ -28917,7 +28920,7 @@
         <v>290</v>
       </c>
       <c r="G223" s="6" t="str">
-        <f>TRIM(LOWER(F223))</f>
+        <f t="shared" si="3"/>
         <v>loss of employment of previously employed household
 member(s) (not due to illness or accident)</v>
       </c>
@@ -28952,7 +28955,7 @@
         <v>289</v>
       </c>
       <c r="G224" s="6" t="str">
-        <f>TRIM(LOWER(F224))</f>
+        <f t="shared" si="3"/>
         <v>reduction in the earnings of currently (off-farm) employed
 household member(s)</v>
       </c>
@@ -28989,7 +28992,7 @@
         <v>408</v>
       </c>
       <c r="G225" s="6" t="str">
-        <f>TRIM(LOWER(F225))</f>
+        <f t="shared" si="3"/>
         <v>cut-off or decrease of regular
 remittances to household</v>
       </c>
@@ -29026,7 +29029,7 @@
         <v>198</v>
       </c>
       <c r="G226" s="6" t="str">
-        <f>TRIM(LOWER(F226))</f>
+        <f t="shared" si="3"/>
         <v>cut-off or decrease of regular remittances to household</v>
       </c>
       <c r="H226" s="9" t="s">
@@ -29062,7 +29065,7 @@
         <v>429</v>
       </c>
       <c r="G227" s="6" t="str">
-        <f>TRIM(LOWER(F227))</f>
+        <f t="shared" si="3"/>
         <v>end of regular assistance/aid/ remittances from outside household</v>
       </c>
       <c r="H227" s="9" t="s">
@@ -29098,7 +29101,7 @@
         <v>429</v>
       </c>
       <c r="G228" s="6" t="str">
-        <f>TRIM(LOWER(F228))</f>
+        <f t="shared" si="3"/>
         <v>end of regular assistance/aid/ remittances from outside household</v>
       </c>
       <c r="H228" s="9" t="s">
@@ -29134,7 +29137,7 @@
         <v>439</v>
       </c>
       <c r="G229" s="6" t="str">
-        <f>TRIM(LOWER(F229))</f>
+        <f t="shared" si="3"/>
         <v>end of regular assistance/aid/
 remittances from outside</v>
       </c>
@@ -29169,7 +29172,7 @@
         <v>350</v>
       </c>
       <c r="G230" s="6" t="str">
-        <f>TRIM(LOWER(F230))</f>
+        <f t="shared" si="3"/>
         <v>fin de transferts réguliers provenant d'autres ménages</v>
       </c>
       <c r="H230" s="4" t="s">
@@ -29203,7 +29206,7 @@
         <v>368</v>
       </c>
       <c r="G231" s="6" t="str">
-        <f>TRIM(LOWER(F231))</f>
+        <f t="shared" si="3"/>
         <v>loss of regular transfers from other households</v>
       </c>
       <c r="H231" s="6" t="s">
@@ -29239,7 +29242,7 @@
         <v>399</v>
       </c>
       <c r="G232" s="6" t="str">
-        <f>TRIM(LOWER(F232))</f>
+        <f t="shared" si="3"/>
         <v>failure or bankruptcy of business</v>
       </c>
       <c r="H232" s="6" t="s">
@@ -29275,7 +29278,7 @@
         <v>221</v>
       </c>
       <c r="G233" s="6" t="str">
-        <f>TRIM(LOWER(F233))</f>
+        <f t="shared" si="3"/>
         <v>failure or bankruptcy of business</v>
       </c>
       <c r="H233" s="9" t="s">
@@ -29311,7 +29314,7 @@
         <v>431</v>
       </c>
       <c r="G234" s="6" t="str">
-        <f>TRIM(LOWER(F234))</f>
+        <f t="shared" si="3"/>
         <v>household (non-agricultural) business
 failure (not due to illness or accident)</v>
       </c>
@@ -29348,7 +29351,7 @@
         <v>522</v>
       </c>
       <c r="G235" s="6" t="str">
-        <f>TRIM(LOWER(F235))</f>
+        <f t="shared" si="3"/>
         <v>household (non-agricultural) business</v>
       </c>
       <c r="H235" s="9" t="s">
@@ -29384,7 +29387,7 @@
         <v>431</v>
       </c>
       <c r="G236" s="6" t="str">
-        <f>TRIM(LOWER(F236))</f>
+        <f t="shared" si="3"/>
         <v>household (non-agricultural) business
 failure (not due to illness or accident)</v>
       </c>
@@ -29419,7 +29422,7 @@
         <v>370</v>
       </c>
       <c r="G237" s="6" t="str">
-        <f>TRIM(LOWER(F237))</f>
+        <f t="shared" si="3"/>
         <v>bankruptcy of a household non agricultural enterprise</v>
       </c>
       <c r="H237" s="4" t="s">
@@ -29453,7 +29456,7 @@
         <v>352</v>
       </c>
       <c r="G238" s="6" t="str">
-        <f>TRIM(LOWER(F238))</f>
+        <f t="shared" si="3"/>
         <v>faillitte d'une entreprise non agricole du ménage</v>
       </c>
       <c r="H238" s="4" t="s">
@@ -29487,7 +29490,7 @@
         <v>308</v>
       </c>
       <c r="G239" s="6" t="str">
-        <f>TRIM(LOWER(F239))</f>
+        <f t="shared" si="3"/>
         <v>nonfarm business failure</v>
       </c>
       <c r="H239" s="4" t="s">
@@ -29521,7 +29524,7 @@
         <v>308</v>
       </c>
       <c r="G240" s="6" t="str">
-        <f>TRIM(LOWER(F240))</f>
+        <f t="shared" si="3"/>
         <v>nonfarm business failure</v>
       </c>
       <c r="H240" s="4" t="s">
@@ -29555,7 +29558,7 @@
         <v>308</v>
       </c>
       <c r="G241" s="6" t="str">
-        <f>TRIM(LOWER(F241))</f>
+        <f t="shared" si="3"/>
         <v>nonfarm business failure</v>
       </c>
       <c r="H241" s="4" t="s">
@@ -29589,7 +29592,7 @@
         <v>329</v>
       </c>
       <c r="G242" s="6" t="str">
-        <f>TRIM(LOWER(F242))</f>
+        <f t="shared" si="3"/>
         <v>household business failure, non-agricultural</v>
       </c>
       <c r="H242" s="9" t="s">
@@ -29623,7 +29626,7 @@
         <v>329</v>
       </c>
       <c r="G243" s="6" t="str">
-        <f>TRIM(LOWER(F243))</f>
+        <f t="shared" si="3"/>
         <v>household business failure, non-agricultural</v>
       </c>
       <c r="H243" s="9" t="s">
@@ -29657,7 +29660,7 @@
         <v>329</v>
       </c>
       <c r="G244" s="6" t="str">
-        <f>TRIM(LOWER(F244))</f>
+        <f t="shared" si="3"/>
         <v>household business failure, non-agricultural</v>
       </c>
       <c r="H244" s="9" t="s">
@@ -29691,7 +29694,7 @@
         <v>329</v>
       </c>
       <c r="G245" s="6" t="str">
-        <f>TRIM(LOWER(F245))</f>
+        <f t="shared" si="3"/>
         <v>household business failure, non-agricultural</v>
       </c>
       <c r="H245" s="9" t="s">
@@ -29727,7 +29730,7 @@
         <v>404</v>
       </c>
       <c r="G246" s="6" t="str">
-        <f>TRIM(LOWER(F246))</f>
+        <f t="shared" si="3"/>
         <v>cost of court case</v>
       </c>
       <c r="H246" s="6" t="s">
@@ -29763,7 +29766,7 @@
         <v>404</v>
       </c>
       <c r="G247" s="6" t="str">
-        <f>TRIM(LOWER(F247))</f>
+        <f t="shared" si="3"/>
         <v>cost of court case</v>
       </c>
       <c r="H247" s="9" t="s">
@@ -29799,7 +29802,7 @@
         <v>398</v>
       </c>
       <c r="G248" s="6" t="str">
-        <f>TRIM(LOWER(F248))</f>
+        <f t="shared" si="3"/>
         <v>other costs of wedding</v>
       </c>
       <c r="H248" s="6" t="s">
@@ -29835,7 +29838,7 @@
         <v>403</v>
       </c>
       <c r="G249" s="6" t="str">
-        <f>TRIM(LOWER(F249))</f>
+        <f t="shared" si="3"/>
         <v>paid a big bribe</v>
       </c>
       <c r="H249" s="6" t="s">
@@ -29871,7 +29874,7 @@
         <v>406</v>
       </c>
       <c r="G250" s="6" t="str">
-        <f>TRIM(LOWER(F250))</f>
+        <f t="shared" si="3"/>
         <v>reparations for victim of crime
 committed by household member</v>
       </c>
@@ -29908,7 +29911,7 @@
         <v>403</v>
       </c>
       <c r="G251" s="6" t="str">
-        <f>TRIM(LOWER(F251))</f>
+        <f t="shared" si="3"/>
         <v>paid a big bribe</v>
       </c>
       <c r="H251" s="9" t="s">
@@ -29944,7 +29947,7 @@
         <v>196</v>
       </c>
       <c r="G252" s="6" t="str">
-        <f>TRIM(LOWER(F252))</f>
+        <f t="shared" si="3"/>
         <v>reparations for victim of crime committed by household member</v>
       </c>
       <c r="H252" s="9" t="s">
@@ -29980,7 +29983,7 @@
         <v>396</v>
       </c>
       <c r="G253" s="6" t="str">
-        <f>TRIM(LOWER(F253))</f>
+        <f t="shared" si="3"/>
         <v>loss of consumption assets (personal)
 due to factors other than floods</v>
       </c>
@@ -30017,7 +30020,7 @@
         <v>405</v>
       </c>
       <c r="G254" s="6" t="str">
-        <f>TRIM(LOWER(F254))</f>
+        <f t="shared" si="3"/>
         <v>losses due to court case</v>
       </c>
       <c r="H254" s="6" t="s">
@@ -30053,7 +30056,7 @@
         <v>409</v>
       </c>
       <c r="G255" s="6" t="str">
-        <f>TRIM(LOWER(F255))</f>
+        <f t="shared" si="3"/>
         <v>withdrawal of ngo assistance</v>
       </c>
       <c r="H255" s="6" t="s">
@@ -30089,7 +30092,7 @@
         <v>194</v>
       </c>
       <c r="G256" s="6" t="str">
-        <f>TRIM(LOWER(F256))</f>
+        <f t="shared" si="3"/>
         <v>loss of consumption assets (personal) due to factors other than floods</v>
       </c>
       <c r="H256" s="9" t="s">
@@ -30125,7 +30128,7 @@
         <v>405</v>
       </c>
       <c r="G257" s="6" t="str">
-        <f>TRIM(LOWER(F257))</f>
+        <f t="shared" si="3"/>
         <v>losses due to court case</v>
       </c>
       <c r="H257" s="6" t="s">
@@ -30161,7 +30164,7 @@
         <v>199</v>
       </c>
       <c r="G258" s="6" t="str">
-        <f>TRIM(LOWER(F258))</f>
+        <f t="shared" ref="G258:G321" si="4">TRIM(LOWER(F258))</f>
         <v>withdrawal of ngo assistance</v>
       </c>
       <c r="H258" s="9" t="s">
@@ -30197,7 +30200,7 @@
         <v>220</v>
       </c>
       <c r="G259" s="6" t="str">
-        <f>TRIM(LOWER(F259))</f>
+        <f t="shared" si="4"/>
         <v>loss of productive assets due to other reasons (theft, fire, river erosion, storms, etc.)</v>
       </c>
       <c r="H259" s="6" t="s">
@@ -30231,7 +30234,7 @@
         <v>324</v>
       </c>
       <c r="G260" s="6" t="str">
-        <f>TRIM(LOWER(F260))</f>
+        <f t="shared" si="4"/>
         <v>departure of income earning member of the household due to 
 separation or divorce</v>
       </c>
@@ -30266,7 +30269,7 @@
         <v>325</v>
       </c>
       <c r="G261" s="6" t="str">
-        <f>TRIM(LOWER(F261))</f>
+        <f t="shared" si="4"/>
         <v>departure of income earning member of the household due to 
 marriage</v>
       </c>
@@ -30301,7 +30304,7 @@
         <v>324</v>
       </c>
       <c r="G262" s="6" t="str">
-        <f>TRIM(LOWER(F262))</f>
+        <f t="shared" si="4"/>
         <v>departure of income earning member of the household due to 
 separation or divorce</v>
       </c>
@@ -30336,7 +30339,7 @@
         <v>307</v>
       </c>
       <c r="G263" s="6" t="str">
-        <f>TRIM(LOWER(F263))</f>
+        <f t="shared" si="4"/>
         <v>departure of income earning member of the household due
 to marriage</v>
       </c>
@@ -30371,7 +30374,7 @@
         <v>306</v>
       </c>
       <c r="G264" s="6" t="str">
-        <f>TRIM(LOWER(F264))</f>
+        <f t="shared" si="4"/>
         <v>departure of income earning member of the household due
 to separation or divorce</v>
       </c>
@@ -30406,7 +30409,7 @@
         <v>316</v>
       </c>
       <c r="G265" s="6" t="str">
-        <f>TRIM(LOWER(F265))</f>
+        <f t="shared" si="4"/>
         <v>loss of land</v>
       </c>
       <c r="H265" s="6" t="s">
@@ -30440,7 +30443,7 @@
         <v>316</v>
       </c>
       <c r="G266" s="6" t="str">
-        <f>TRIM(LOWER(F266))</f>
+        <f t="shared" si="4"/>
         <v>loss of land</v>
       </c>
       <c r="H266" s="6" t="s">
@@ -30474,7 +30477,7 @@
         <v>316</v>
       </c>
       <c r="G267" s="6" t="str">
-        <f>TRIM(LOWER(F267))</f>
+        <f t="shared" si="4"/>
         <v>loss of land</v>
       </c>
       <c r="H267" s="6" t="s">
@@ -30508,7 +30511,7 @@
         <v>316</v>
       </c>
       <c r="G268" s="6" t="str">
-        <f>TRIM(LOWER(F268))</f>
+        <f t="shared" si="4"/>
         <v>loss of land</v>
       </c>
       <c r="H268" s="6" t="s">
@@ -30542,7 +30545,7 @@
         <v>316</v>
       </c>
       <c r="G269" s="6" t="str">
-        <f>TRIM(LOWER(F269))</f>
+        <f t="shared" si="4"/>
         <v>loss of land</v>
       </c>
       <c r="H269" s="6" t="s">
@@ -30576,7 +30579,7 @@
         <v>316</v>
       </c>
       <c r="G270" s="6" t="str">
-        <f>TRIM(LOWER(F270))</f>
+        <f t="shared" si="4"/>
         <v>loss of land</v>
       </c>
       <c r="H270" s="6" t="s">
@@ -30610,7 +30613,7 @@
         <v>316</v>
       </c>
       <c r="G271" s="6" t="str">
-        <f>TRIM(LOWER(F271))</f>
+        <f t="shared" si="4"/>
         <v>loss of land</v>
       </c>
       <c r="H271" s="6" t="s">
@@ -30646,7 +30649,7 @@
         <v>385</v>
       </c>
       <c r="G272" s="6" t="str">
-        <f>TRIM(LOWER(F272))</f>
+        <f t="shared" si="4"/>
         <v>lost home due to river errosion</v>
       </c>
       <c r="H272" s="6" t="s">
@@ -30688,7 +30691,7 @@
         <v>209</v>
       </c>
       <c r="G273" s="6" t="str">
-        <f>TRIM(LOWER(F273))</f>
+        <f t="shared" si="4"/>
         <v>lost home due to river errosion</v>
       </c>
       <c r="H273" s="6" t="s">
@@ -30728,7 +30731,7 @@
         <v>278</v>
       </c>
       <c r="G274" s="6" t="str">
-        <f>TRIM(LOWER(F274))</f>
+        <f t="shared" si="4"/>
         <v>involuntary loss of house/land</v>
       </c>
       <c r="H274" s="4" t="s">
@@ -30764,7 +30767,7 @@
         <v>447</v>
       </c>
       <c r="G275" s="6" t="str">
-        <f>TRIM(LOWER(F275))</f>
+        <f t="shared" si="4"/>
         <v>division of father's property</v>
       </c>
       <c r="H275" s="9" t="s">
@@ -30800,7 +30803,7 @@
         <v>422</v>
       </c>
       <c r="G276" s="6" t="str">
-        <f>TRIM(LOWER(F276))</f>
+        <f t="shared" si="4"/>
         <v>division of father’s property</v>
       </c>
       <c r="H276" s="9" t="s">
@@ -30836,7 +30839,7 @@
         <v>278</v>
       </c>
       <c r="G277" s="6" t="str">
-        <f>TRIM(LOWER(F277))</f>
+        <f t="shared" si="4"/>
         <v>involuntary loss of house/land</v>
       </c>
       <c r="H277" s="4" t="s">
@@ -30872,7 +30875,7 @@
         <v>278</v>
       </c>
       <c r="G278" s="6" t="str">
-        <f>TRIM(LOWER(F278))</f>
+        <f t="shared" si="4"/>
         <v>involuntary loss of house/land</v>
       </c>
       <c r="H278" s="4" t="s">
@@ -30908,7 +30911,7 @@
         <v>386</v>
       </c>
       <c r="G279" s="6" t="str">
-        <f>TRIM(LOWER(F279))</f>
+        <f t="shared" si="4"/>
         <v>eviction from previous residence for any
 other reason</v>
       </c>
@@ -30945,7 +30948,7 @@
         <v>210</v>
       </c>
       <c r="G280" s="6" t="str">
-        <f>TRIM(LOWER(F280))</f>
+        <f t="shared" si="4"/>
         <v>eviction from previous residence for any other reason</v>
       </c>
       <c r="H280" s="6" t="s">
@@ -30981,7 +30984,7 @@
         <v>261</v>
       </c>
       <c r="G281" s="6" t="str">
-        <f>TRIM(LOWER(F281))</f>
+        <f t="shared" si="4"/>
         <v>displacement (due to government development projects)</v>
       </c>
       <c r="H281" s="6" t="s">
@@ -31015,7 +31018,7 @@
         <v>279</v>
       </c>
       <c r="G282" s="6" t="str">
-        <f>TRIM(LOWER(F282))</f>
+        <f t="shared" si="4"/>
         <v>displacement (due to government development projects)</v>
       </c>
       <c r="H282" s="6" t="s">
@@ -31051,7 +31054,7 @@
         <v>261</v>
       </c>
       <c r="G283" s="6" t="str">
-        <f>TRIM(LOWER(F283))</f>
+        <f t="shared" si="4"/>
         <v>displacement (due to government development projects)</v>
       </c>
       <c r="H283" s="6" t="s">
@@ -31085,7 +31088,7 @@
         <v>311</v>
       </c>
       <c r="G284" s="6" t="str">
-        <f>TRIM(LOWER(F284))</f>
+        <f t="shared" si="4"/>
         <v>dwelling damaged/demolished</v>
       </c>
       <c r="H284" s="6" t="s">
@@ -31119,7 +31122,7 @@
         <v>311</v>
       </c>
       <c r="G285" s="6" t="str">
-        <f>TRIM(LOWER(F285))</f>
+        <f t="shared" si="4"/>
         <v>dwelling damaged/demolished</v>
       </c>
       <c r="H285" s="6" t="s">
@@ -31153,7 +31156,7 @@
         <v>311</v>
       </c>
       <c r="G286" s="6" t="str">
-        <f>TRIM(LOWER(F286))</f>
+        <f t="shared" si="4"/>
         <v>dwelling damaged/demolished</v>
       </c>
       <c r="H286" s="6" t="s">
@@ -31187,7 +31190,7 @@
         <v>340</v>
       </c>
       <c r="G287" s="6" t="str">
-        <f>TRIM(LOWER(F287))</f>
+        <f t="shared" si="4"/>
         <v>dwelling damaged, destroyed</v>
       </c>
       <c r="H287" s="6" t="s">
@@ -31221,7 +31224,7 @@
         <v>340</v>
       </c>
       <c r="G288" s="6" t="str">
-        <f>TRIM(LOWER(F288))</f>
+        <f t="shared" si="4"/>
         <v>dwelling damaged, destroyed</v>
       </c>
       <c r="H288" s="6" t="s">
@@ -31255,7 +31258,7 @@
         <v>340</v>
       </c>
       <c r="G289" s="6" t="str">
-        <f>TRIM(LOWER(F289))</f>
+        <f t="shared" si="4"/>
         <v>dwelling damaged, destroyed</v>
       </c>
       <c r="H289" s="6" t="s">
@@ -31289,7 +31292,7 @@
         <v>340</v>
       </c>
       <c r="G290" s="6" t="str">
-        <f>TRIM(LOWER(F290))</f>
+        <f t="shared" si="4"/>
         <v>dwelling damaged, destroyed</v>
       </c>
       <c r="H290" s="6" t="s">
@@ -31325,7 +31328,7 @@
         <v>394</v>
       </c>
       <c r="G291" s="6" t="str">
-        <f>TRIM(LOWER(F291))</f>
+        <f t="shared" si="4"/>
         <v>loss of productive assets due to other
 reasons (theft, fire, river erosion, storms, etc.)</v>
       </c>
@@ -31366,7 +31369,7 @@
         <v>315</v>
       </c>
       <c r="G292" s="6" t="str">
-        <f>TRIM(LOWER(F292))</f>
+        <f t="shared" si="4"/>
         <v>loss of property due to fire or flood</v>
       </c>
       <c r="H292" s="6" t="s">
@@ -31406,7 +31409,7 @@
         <v>315</v>
       </c>
       <c r="G293" s="6" t="str">
-        <f>TRIM(LOWER(F293))</f>
+        <f t="shared" si="4"/>
         <v>loss of property due to fire or flood</v>
       </c>
       <c r="H293" s="6" t="s">
@@ -31446,7 +31449,7 @@
         <v>315</v>
       </c>
       <c r="G294" s="6" t="str">
-        <f>TRIM(LOWER(F294))</f>
+        <f t="shared" si="4"/>
         <v>loss of property due to fire or flood</v>
       </c>
       <c r="H294" s="6" t="s">
@@ -31488,7 +31491,7 @@
         <v>393</v>
       </c>
       <c r="G295" s="6" t="str">
-        <f>TRIM(LOWER(F295))</f>
+        <f t="shared" si="4"/>
         <v>loss of productive assets due to floods</v>
       </c>
       <c r="H295" s="6" t="s">
@@ -31530,7 +31533,7 @@
         <v>395</v>
       </c>
       <c r="G296" s="6" t="str">
-        <f>TRIM(LOWER(F296))</f>
+        <f t="shared" si="4"/>
         <v>loss or destruction of other consumption assets (personal) due to floods</v>
       </c>
       <c r="H296" s="6" t="s">
@@ -31572,7 +31575,7 @@
         <v>202</v>
       </c>
       <c r="G297" s="6" t="str">
-        <f>TRIM(LOWER(F297))</f>
+        <f t="shared" si="4"/>
         <v>loss or destruction of other consumption assets (personal) due to floods</v>
       </c>
       <c r="H297" s="6" t="s">
@@ -31614,7 +31617,7 @@
         <v>219</v>
       </c>
       <c r="G298" s="6" t="str">
-        <f>TRIM(LOWER(F298))</f>
+        <f t="shared" si="4"/>
         <v>loss of productive assets due to floods</v>
       </c>
       <c r="H298" s="6" t="s">
@@ -31656,7 +31659,7 @@
         <v>203</v>
       </c>
       <c r="G299" s="6" t="str">
-        <f>TRIM(LOWER(F299))</f>
+        <f t="shared" si="4"/>
         <v>productive asset loss due to cyclone</v>
       </c>
       <c r="H299" s="6" t="s">
@@ -31698,7 +31701,7 @@
         <v>398</v>
       </c>
       <c r="G300" s="6" t="str">
-        <f>TRIM(LOWER(F300))</f>
+        <f t="shared" si="4"/>
         <v>other costs of wedding</v>
       </c>
       <c r="H300" s="9" t="s">
@@ -31732,7 +31735,7 @@
         <v>325</v>
       </c>
       <c r="G301" s="6" t="str">
-        <f>TRIM(LOWER(F301))</f>
+        <f t="shared" si="4"/>
         <v>departure of income earning member of the household due to 
 marriage</v>
       </c>
@@ -31769,7 +31772,7 @@
         <v>397</v>
       </c>
       <c r="G302" s="6" t="str">
-        <f>TRIM(LOWER(F302))</f>
+        <f t="shared" si="4"/>
         <v>dowry payment</v>
       </c>
       <c r="H302" s="6" t="s">
@@ -31805,7 +31808,7 @@
         <v>226</v>
       </c>
       <c r="G303" s="6" t="str">
-        <f>TRIM(LOWER(F303))</f>
+        <f t="shared" si="4"/>
         <v>gain from business activities, specify</v>
       </c>
       <c r="H303" s="9" t="s">
@@ -31841,7 +31844,7 @@
         <v>414</v>
       </c>
       <c r="G304" s="6" t="str">
-        <f>TRIM(LOWER(F304))</f>
+        <f t="shared" si="4"/>
         <v>inheritance</v>
       </c>
       <c r="H304" s="9" t="s">
@@ -31877,7 +31880,7 @@
         <v>415</v>
       </c>
       <c r="G305" s="6" t="str">
-        <f>TRIM(LOWER(F305))</f>
+        <f t="shared" si="4"/>
         <v>large gift/lottery winnings</v>
       </c>
       <c r="H305" s="9" t="s">
@@ -31913,7 +31916,7 @@
         <v>201</v>
       </c>
       <c r="G306" s="6" t="str">
-        <f>TRIM(LOWER(F306))</f>
+        <f t="shared" si="4"/>
         <v>new or increased remittances</v>
       </c>
       <c r="H306" s="9" t="s">
@@ -31949,7 +31952,7 @@
         <v>200</v>
       </c>
       <c r="G307" s="6" t="str">
-        <f>TRIM(LOWER(F307))</f>
+        <f t="shared" si="4"/>
         <v>new regular job for household member</v>
       </c>
       <c r="H307" s="9" t="s">
@@ -31985,7 +31988,7 @@
         <v>223</v>
       </c>
       <c r="G308" s="6" t="str">
-        <f>TRIM(LOWER(F308))</f>
+        <f t="shared" si="4"/>
         <v>primary education stipend (100 taka)</v>
       </c>
       <c r="H308" s="9" t="s">
@@ -32021,7 +32024,7 @@
         <v>416</v>
       </c>
       <c r="G309" s="6" t="str">
-        <f>TRIM(LOWER(F309))</f>
+        <f t="shared" si="4"/>
         <v>receipt of dowry</v>
       </c>
       <c r="H309" s="9" t="s">
@@ -32057,7 +32060,7 @@
         <v>224</v>
       </c>
       <c r="G310" s="6" t="str">
-        <f>TRIM(LOWER(F310))</f>
+        <f t="shared" si="4"/>
         <v>scholarship for child's education</v>
       </c>
       <c r="H310" s="9" t="s">
@@ -32093,7 +32096,7 @@
         <v>418</v>
       </c>
       <c r="G311" s="6" t="str">
-        <f>TRIM(LOWER(F311))</f>
+        <f t="shared" si="4"/>
         <v>secondary school stipend</v>
       </c>
       <c r="H311" s="9" t="s">
@@ -32129,7 +32132,7 @@
         <v>397</v>
       </c>
       <c r="G312" s="6" t="str">
-        <f>TRIM(LOWER(F312))</f>
+        <f t="shared" si="4"/>
         <v>dowry payment</v>
       </c>
       <c r="H312" s="6" t="s">
@@ -32165,7 +32168,7 @@
         <v>226</v>
       </c>
       <c r="G313" s="6" t="str">
-        <f>TRIM(LOWER(F313))</f>
+        <f t="shared" si="4"/>
         <v>gain from business activities, specify</v>
       </c>
       <c r="H313" s="9" t="s">
@@ -32201,7 +32204,7 @@
         <v>222</v>
       </c>
       <c r="G314" s="6" t="str">
-        <f>TRIM(LOWER(F314))</f>
+        <f t="shared" si="4"/>
         <v>inheritance</v>
       </c>
       <c r="H314" s="9" t="s">
@@ -32237,7 +32240,7 @@
         <v>415</v>
       </c>
       <c r="G315" s="6" t="str">
-        <f>TRIM(LOWER(F315))</f>
+        <f t="shared" si="4"/>
         <v>large gift/lottery winnings</v>
       </c>
       <c r="H315" s="9" t="s">
@@ -32273,7 +32276,7 @@
         <v>201</v>
       </c>
       <c r="G316" s="6" t="str">
-        <f>TRIM(LOWER(F316))</f>
+        <f t="shared" si="4"/>
         <v>new or increased remittances</v>
       </c>
       <c r="H316" s="9" t="s">
@@ -32309,7 +32312,7 @@
         <v>200</v>
       </c>
       <c r="G317" s="6" t="str">
-        <f>TRIM(LOWER(F317))</f>
+        <f t="shared" si="4"/>
         <v>new regular job for household member</v>
       </c>
       <c r="H317" s="9" t="s">
@@ -32345,7 +32348,7 @@
         <v>223</v>
       </c>
       <c r="G318" s="6" t="str">
-        <f>TRIM(LOWER(F318))</f>
+        <f t="shared" si="4"/>
         <v>primary education stipend (100 taka)</v>
       </c>
       <c r="H318" s="9" t="s">
@@ -32381,7 +32384,7 @@
         <v>416</v>
       </c>
       <c r="G319" s="6" t="str">
-        <f>TRIM(LOWER(F319))</f>
+        <f t="shared" si="4"/>
         <v>receipt of dowry</v>
       </c>
       <c r="H319" s="9" t="s">
@@ -32417,7 +32420,7 @@
         <v>225</v>
       </c>
       <c r="G320" s="6" t="str">
-        <f>TRIM(LOWER(F320))</f>
+        <f t="shared" si="4"/>
         <v>scholarship for child’s education</v>
       </c>
       <c r="H320" s="9" t="s">
@@ -32453,7 +32456,7 @@
         <v>418</v>
       </c>
       <c r="G321" s="6" t="str">
-        <f>TRIM(LOWER(F321))</f>
+        <f t="shared" si="4"/>
         <v>secondary school stipend</v>
       </c>
       <c r="H321" s="9" t="s">
@@ -32489,7 +32492,7 @@
         <v>410</v>
       </c>
       <c r="G322" s="6" t="str">
-        <f>TRIM(LOWER(F322))</f>
+        <f t="shared" ref="G322:G385" si="5">TRIM(LOWER(F322))</f>
         <v>increase in food prices</v>
       </c>
       <c r="H322" s="6" t="s">
@@ -32525,7 +32528,7 @@
         <v>410</v>
       </c>
       <c r="G323" s="6" t="str">
-        <f>TRIM(LOWER(F323))</f>
+        <f t="shared" si="5"/>
         <v>increase in food prices</v>
       </c>
       <c r="H323" s="9" t="s">
@@ -32561,7 +32564,7 @@
         <v>273</v>
       </c>
       <c r="G324" s="6" t="str">
-        <f>TRIM(LOWER(F324))</f>
+        <f t="shared" si="5"/>
         <v>price rise of food items</v>
       </c>
       <c r="H324" s="4" t="s">
@@ -32595,7 +32598,7 @@
         <v>273</v>
       </c>
       <c r="G325" s="6" t="str">
-        <f>TRIM(LOWER(F325))</f>
+        <f t="shared" si="5"/>
         <v>price rise of food items</v>
       </c>
       <c r="H325" s="4" t="s">
@@ -32631,7 +32634,7 @@
         <v>273</v>
       </c>
       <c r="G326" s="6" t="str">
-        <f>TRIM(LOWER(F326))</f>
+        <f t="shared" si="5"/>
         <v>price rise of food items</v>
       </c>
       <c r="H326" s="4" t="s">
@@ -32667,7 +32670,7 @@
         <v>428</v>
       </c>
       <c r="G327" s="6" t="str">
-        <f>TRIM(LOWER(F327))</f>
+        <f t="shared" si="5"/>
         <v>unusually high prices for food</v>
       </c>
       <c r="H327" s="9" t="s">
@@ -32703,7 +32706,7 @@
         <v>428</v>
       </c>
       <c r="G328" s="6" t="str">
-        <f>TRIM(LOWER(F328))</f>
+        <f t="shared" si="5"/>
         <v>unusually high prices for food</v>
       </c>
       <c r="H328" s="9" t="s">
@@ -32739,7 +32742,7 @@
         <v>428</v>
       </c>
       <c r="G329" s="6" t="str">
-        <f>TRIM(LOWER(F329))</f>
+        <f t="shared" si="5"/>
         <v>unusually high prices for food</v>
       </c>
       <c r="H329" s="9" t="s">
@@ -32773,7 +32776,7 @@
         <v>367</v>
       </c>
       <c r="G330" s="6" t="str">
-        <f>TRIM(LOWER(F330))</f>
+        <f t="shared" si="5"/>
         <v>high prices for food products</v>
       </c>
       <c r="H330" s="4" t="s">
@@ -32807,7 +32810,7 @@
         <v>349</v>
       </c>
       <c r="G331" s="6" t="str">
-        <f>TRIM(LOWER(F331))</f>
+        <f t="shared" si="5"/>
         <v>prix élevés des produits alimentaires</v>
       </c>
       <c r="H331" s="4" t="s">
@@ -32841,7 +32844,7 @@
         <v>320</v>
       </c>
       <c r="G332" s="6" t="str">
-        <f>TRIM(LOWER(F332))</f>
+        <f t="shared" si="5"/>
         <v>increase in price of major food items consumed</v>
       </c>
       <c r="H332" s="4" t="s">
@@ -32875,7 +32878,7 @@
         <v>320</v>
       </c>
       <c r="G333" s="6" t="str">
-        <f>TRIM(LOWER(F333))</f>
+        <f t="shared" si="5"/>
         <v>increase in price of major food items consumed</v>
       </c>
       <c r="H333" s="4" t="s">
@@ -32909,7 +32912,7 @@
         <v>320</v>
       </c>
       <c r="G334" s="6" t="str">
-        <f>TRIM(LOWER(F334))</f>
+        <f t="shared" si="5"/>
         <v>increase in price of major food items consumed</v>
       </c>
       <c r="H334" s="4" t="s">
@@ -32943,7 +32946,7 @@
         <v>332</v>
       </c>
       <c r="G335" s="6" t="str">
-        <f>TRIM(LOWER(F335))</f>
+        <f t="shared" si="5"/>
         <v>large rise in price of food</v>
       </c>
       <c r="H335" s="4" t="s">
@@ -32977,7 +32980,7 @@
         <v>332</v>
       </c>
       <c r="G336" s="6" t="str">
-        <f>TRIM(LOWER(F336))</f>
+        <f t="shared" si="5"/>
         <v>large rise in price of food</v>
       </c>
       <c r="H336" s="9" t="s">
@@ -33011,7 +33014,7 @@
         <v>332</v>
       </c>
       <c r="G337" s="6" t="str">
-        <f>TRIM(LOWER(F337))</f>
+        <f t="shared" si="5"/>
         <v>large rise in price of food</v>
       </c>
       <c r="H337" s="4" t="s">
@@ -33045,7 +33048,7 @@
         <v>332</v>
       </c>
       <c r="G338" s="6" t="str">
-        <f>TRIM(LOWER(F338))</f>
+        <f t="shared" si="5"/>
         <v>large rise in price of food</v>
       </c>
       <c r="H338" s="4" t="s">
@@ -33081,7 +33084,7 @@
         <v>272</v>
       </c>
       <c r="G339" s="6" t="str">
-        <f>TRIM(LOWER(F339))</f>
+        <f t="shared" si="5"/>
         <v>price fall of food items</v>
       </c>
       <c r="H339" s="4" t="s">
@@ -33115,7 +33118,7 @@
         <v>272</v>
       </c>
       <c r="G340" s="6" t="str">
-        <f>TRIM(LOWER(F340))</f>
+        <f t="shared" si="5"/>
         <v>price fall of food items</v>
       </c>
       <c r="H340" s="4" t="s">
@@ -33151,7 +33154,7 @@
         <v>272</v>
       </c>
       <c r="G341" s="6" t="str">
-        <f>TRIM(LOWER(F341))</f>
+        <f t="shared" si="5"/>
         <v>price fall of food items</v>
       </c>
       <c r="H341" s="4" t="s">
@@ -33187,7 +33190,7 @@
         <v>268</v>
       </c>
       <c r="G342" s="6" t="str">
-        <f>TRIM(LOWER(F342))</f>
+        <f t="shared" si="5"/>
         <v>flood</v>
       </c>
       <c r="H342" s="4" t="s">
@@ -33223,7 +33226,7 @@
         <v>270</v>
       </c>
       <c r="G343" s="6" t="str">
-        <f>TRIM(LOWER(F343))</f>
+        <f t="shared" si="5"/>
         <v>heavy rains preventing work</v>
       </c>
       <c r="H343" s="4" t="s">
@@ -33259,7 +33262,7 @@
         <v>256</v>
       </c>
       <c r="G344" s="6" t="str">
-        <f>TRIM(LOWER(F344))</f>
+        <f t="shared" si="5"/>
         <v>landslides/ avalanches</v>
       </c>
       <c r="H344" s="4" t="s">
@@ -33293,7 +33296,7 @@
         <v>268</v>
       </c>
       <c r="G345" s="6" t="str">
-        <f>TRIM(LOWER(F345))</f>
+        <f t="shared" si="5"/>
         <v>flood</v>
       </c>
       <c r="H345" s="4" t="s">
@@ -33327,7 +33330,7 @@
         <v>270</v>
       </c>
       <c r="G346" s="6" t="str">
-        <f>TRIM(LOWER(F346))</f>
+        <f t="shared" si="5"/>
         <v>heavy rains preventing work</v>
       </c>
       <c r="H346" s="4" t="s">
@@ -33361,7 +33364,7 @@
         <v>269</v>
       </c>
       <c r="G347" s="6" t="str">
-        <f>TRIM(LOWER(F347))</f>
+        <f t="shared" si="5"/>
         <v>landslides/ avalanches</v>
       </c>
       <c r="H347" s="4" t="s">
@@ -33397,7 +33400,7 @@
         <v>268</v>
       </c>
       <c r="G348" s="6" t="str">
-        <f>TRIM(LOWER(F348))</f>
+        <f t="shared" si="5"/>
         <v>flood</v>
       </c>
       <c r="H348" s="4" t="s">
@@ -33433,7 +33436,7 @@
         <v>270</v>
       </c>
       <c r="G349" s="6" t="str">
-        <f>TRIM(LOWER(F349))</f>
+        <f t="shared" si="5"/>
         <v>heavy rains preventing work</v>
       </c>
       <c r="H349" s="4" t="s">
@@ -33469,7 +33472,7 @@
         <v>256</v>
       </c>
       <c r="G350" s="6" t="str">
-        <f>TRIM(LOWER(F350))</f>
+        <f t="shared" si="5"/>
         <v>landslides/ avalanches</v>
       </c>
       <c r="H350" s="4" t="s">
@@ -33505,7 +33508,7 @@
         <v>423</v>
       </c>
       <c r="G351" s="6" t="str">
-        <f>TRIM(LOWER(F351))</f>
+        <f t="shared" si="5"/>
         <v>floods/landslides</v>
       </c>
       <c r="H351" s="4" t="s">
@@ -33541,7 +33544,7 @@
         <v>283</v>
       </c>
       <c r="G352" s="6" t="str">
-        <f>TRIM(LOWER(F352))</f>
+        <f t="shared" si="5"/>
         <v>floods</v>
       </c>
       <c r="H352" s="4" t="s">
@@ -33577,7 +33580,7 @@
         <v>283</v>
       </c>
       <c r="G353" s="6" t="str">
-        <f>TRIM(LOWER(F353))</f>
+        <f t="shared" si="5"/>
         <v>floods</v>
       </c>
       <c r="H353" s="4" t="s">
@@ -33613,7 +33616,7 @@
         <v>299</v>
       </c>
       <c r="G354" s="6" t="str">
-        <f>TRIM(LOWER(F354))</f>
+        <f t="shared" si="5"/>
         <v>landslides</v>
       </c>
       <c r="H354" s="4" t="s">
@@ -33649,7 +33652,7 @@
         <v>299</v>
       </c>
       <c r="G355" s="6" t="str">
-        <f>TRIM(LOWER(F355))</f>
+        <f t="shared" si="5"/>
         <v>landslides</v>
       </c>
       <c r="H355" s="4" t="s">
@@ -33683,7 +33686,7 @@
         <v>283</v>
       </c>
       <c r="G356" s="6" t="str">
-        <f>TRIM(LOWER(F356))</f>
+        <f t="shared" si="5"/>
         <v>floods</v>
       </c>
       <c r="H356" s="4" t="s">
@@ -33717,7 +33720,7 @@
         <v>344</v>
       </c>
       <c r="G357" s="6" t="str">
-        <f>TRIM(LOWER(F357))</f>
+        <f t="shared" si="5"/>
         <v>inondations</v>
       </c>
       <c r="H357" s="4" t="s">
@@ -33751,7 +33754,7 @@
         <v>283</v>
       </c>
       <c r="G358" s="6" t="str">
-        <f>TRIM(LOWER(F358))</f>
+        <f t="shared" si="5"/>
         <v>floods</v>
       </c>
       <c r="H358" s="4" t="s">
@@ -33785,7 +33788,7 @@
         <v>284</v>
       </c>
       <c r="G359" s="6" t="str">
-        <f>TRIM(LOWER(F359))</f>
+        <f t="shared" si="5"/>
         <v>landslides/erosion</v>
       </c>
       <c r="H359" s="4" t="s">
@@ -33819,7 +33822,7 @@
         <v>283</v>
       </c>
       <c r="G360" s="6" t="str">
-        <f>TRIM(LOWER(F360))</f>
+        <f t="shared" si="5"/>
         <v>floods</v>
       </c>
       <c r="H360" s="4" t="s">
@@ -33853,7 +33856,7 @@
         <v>284</v>
       </c>
       <c r="G361" s="6" t="str">
-        <f>TRIM(LOWER(F361))</f>
+        <f t="shared" si="5"/>
         <v>landslides/erosion</v>
       </c>
       <c r="H361" s="4" t="s">
@@ -33887,7 +33890,7 @@
         <v>283</v>
       </c>
       <c r="G362" s="6" t="str">
-        <f>TRIM(LOWER(F362))</f>
+        <f t="shared" si="5"/>
         <v>floods</v>
       </c>
       <c r="H362" s="4" t="s">
@@ -33921,7 +33924,7 @@
         <v>284</v>
       </c>
       <c r="G363" s="6" t="str">
-        <f>TRIM(LOWER(F363))</f>
+        <f t="shared" si="5"/>
         <v>landslides/erosion</v>
       </c>
       <c r="H363" s="4" t="s">
@@ -33955,7 +33958,7 @@
         <v>283</v>
       </c>
       <c r="G364" s="6" t="str">
-        <f>TRIM(LOWER(F364))</f>
+        <f t="shared" si="5"/>
         <v>floods</v>
       </c>
       <c r="H364" s="4" t="s">
@@ -33991,7 +33994,7 @@
         <v>267</v>
       </c>
       <c r="G365" s="6" t="str">
-        <f>TRIM(LOWER(F365))</f>
+        <f t="shared" si="5"/>
         <v>drought</v>
       </c>
       <c r="H365" s="9" t="s">
@@ -34026,7 +34029,7 @@
         <v>267</v>
       </c>
       <c r="G366" s="6" t="str">
-        <f>TRIM(LOWER(F366))</f>
+        <f t="shared" si="5"/>
         <v>drought</v>
       </c>
       <c r="H366" s="9" t="s">
@@ -34063,7 +34066,7 @@
         <v>267</v>
       </c>
       <c r="G367" s="6" t="str">
-        <f>TRIM(LOWER(F367))</f>
+        <f t="shared" si="5"/>
         <v>drought</v>
       </c>
       <c r="H367" s="9" t="s">
@@ -34100,7 +34103,7 @@
         <v>282</v>
       </c>
       <c r="G368" s="6" t="str">
-        <f>TRIM(LOWER(F368))</f>
+        <f t="shared" si="5"/>
         <v>drought/irregular rains</v>
       </c>
       <c r="H368" s="9" t="s">
@@ -34137,7 +34140,7 @@
         <v>267</v>
       </c>
       <c r="G369" s="6" t="str">
-        <f>TRIM(LOWER(F369))</f>
+        <f t="shared" si="5"/>
         <v>drought</v>
       </c>
       <c r="H369" s="9" t="s">
@@ -34174,7 +34177,7 @@
         <v>267</v>
       </c>
       <c r="G370" s="6" t="str">
-        <f>TRIM(LOWER(F370))</f>
+        <f t="shared" si="5"/>
         <v>drought</v>
       </c>
       <c r="H370" s="9" t="s">
@@ -34211,7 +34214,7 @@
         <v>298</v>
       </c>
       <c r="G371" s="6" t="str">
-        <f>TRIM(LOWER(F371))</f>
+        <f t="shared" si="5"/>
         <v>irregular rains</v>
       </c>
       <c r="H371" s="9" t="s">
@@ -34248,7 +34251,7 @@
         <v>298</v>
       </c>
       <c r="G372" s="6" t="str">
-        <f>TRIM(LOWER(F372))</f>
+        <f t="shared" si="5"/>
         <v>irregular rains</v>
       </c>
       <c r="H372" s="9" t="s">
@@ -34283,7 +34286,7 @@
         <v>362</v>
       </c>
       <c r="G373" s="6" t="str">
-        <f>TRIM(LOWER(F373))</f>
+        <f t="shared" si="5"/>
         <v>drought/irregular rain</v>
       </c>
       <c r="H373" s="9" t="s">
@@ -34318,7 +34321,7 @@
         <v>379</v>
       </c>
       <c r="G374" s="6" t="str">
-        <f>TRIM(LOWER(F374))</f>
+        <f t="shared" si="5"/>
         <v>sécheresse/pluies irrégulières</v>
       </c>
       <c r="H374" s="4" t="s">
@@ -34353,7 +34356,7 @@
         <v>334</v>
       </c>
       <c r="G375" s="6" t="str">
-        <f>TRIM(LOWER(F375))</f>
+        <f t="shared" si="5"/>
         <v>severe water shortage</v>
       </c>
       <c r="H375" s="4" t="s">
@@ -34388,7 +34391,7 @@
         <v>334</v>
       </c>
       <c r="G376" s="6" t="str">
-        <f>TRIM(LOWER(F376))</f>
+        <f t="shared" si="5"/>
         <v>severe water shortage</v>
       </c>
       <c r="H376" s="9" t="s">
@@ -34423,7 +34426,7 @@
         <v>334</v>
       </c>
       <c r="G377" s="6" t="str">
-        <f>TRIM(LOWER(F377))</f>
+        <f t="shared" si="5"/>
         <v>severe water shortage</v>
       </c>
       <c r="H377" s="4" t="s">
@@ -34458,7 +34461,7 @@
         <v>334</v>
       </c>
       <c r="G378" s="6" t="str">
-        <f>TRIM(LOWER(F378))</f>
+        <f t="shared" si="5"/>
         <v>severe water shortage</v>
       </c>
       <c r="H378" s="4" t="s">
@@ -34492,7 +34495,7 @@
         <v>282</v>
       </c>
       <c r="G379" s="6" t="str">
-        <f>TRIM(LOWER(F379))</f>
+        <f t="shared" si="5"/>
         <v>drought/irregular rains</v>
       </c>
       <c r="H379" s="9" t="s">
@@ -34526,7 +34529,7 @@
         <v>282</v>
       </c>
       <c r="G380" s="6" t="str">
-        <f>TRIM(LOWER(F380))</f>
+        <f t="shared" si="5"/>
         <v>drought/irregular rains</v>
       </c>
       <c r="H380" s="9" t="s">
@@ -34560,7 +34563,7 @@
         <v>282</v>
       </c>
       <c r="G381" s="6" t="str">
-        <f>TRIM(LOWER(F381))</f>
+        <f t="shared" si="5"/>
         <v>drought/irregular rains</v>
       </c>
       <c r="H381" s="9" t="s">
@@ -34594,7 +34597,7 @@
         <v>267</v>
       </c>
       <c r="G382" s="6" t="str">
-        <f>TRIM(LOWER(F382))</f>
+        <f t="shared" si="5"/>
         <v>drought</v>
       </c>
       <c r="H382" s="9" t="s">
@@ -34628,7 +34631,7 @@
         <v>298</v>
       </c>
       <c r="G383" s="6" t="str">
-        <f>TRIM(LOWER(F383))</f>
+        <f t="shared" si="5"/>
         <v>irregular rains</v>
       </c>
       <c r="H383" s="4" t="s">
@@ -34662,7 +34665,7 @@
         <v>299</v>
       </c>
       <c r="G384" s="6" t="str">
-        <f>TRIM(LOWER(F384))</f>
+        <f t="shared" si="5"/>
         <v>landslides</v>
       </c>
       <c r="H384" s="4" t="s">
@@ -34696,7 +34699,7 @@
         <v>326</v>
       </c>
       <c r="G385" s="6" t="str">
-        <f>TRIM(LOWER(F385))</f>
+        <f t="shared" si="5"/>
         <v>drought or floods</v>
       </c>
       <c r="H385" s="9" t="s">
@@ -34730,7 +34733,7 @@
         <v>326</v>
       </c>
       <c r="G386" s="6" t="str">
-        <f>TRIM(LOWER(F386))</f>
+        <f t="shared" ref="G386:G449" si="6">TRIM(LOWER(F386))</f>
         <v>drought or floods</v>
       </c>
       <c r="H386" s="9" t="s">
@@ -34764,7 +34767,7 @@
         <v>326</v>
       </c>
       <c r="G387" s="6" t="str">
-        <f>TRIM(LOWER(F387))</f>
+        <f t="shared" si="6"/>
         <v>drought or floods</v>
       </c>
       <c r="H387" s="9" t="s">
@@ -34798,7 +34801,7 @@
         <v>326</v>
       </c>
       <c r="G388" s="6" t="str">
-        <f>TRIM(LOWER(F388))</f>
+        <f t="shared" si="6"/>
         <v>drought or floods</v>
       </c>
       <c r="H388" s="9" t="s">
@@ -34834,7 +34837,7 @@
         <v>276</v>
       </c>
       <c r="G389" s="6" t="str">
-        <f>TRIM(LOWER(F389))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H389" s="4" t="s">
@@ -34868,7 +34871,7 @@
         <v>276</v>
       </c>
       <c r="G390" s="6" t="str">
-        <f>TRIM(LOWER(F390))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H390" s="4" t="s">
@@ -34904,7 +34907,7 @@
         <v>276</v>
       </c>
       <c r="G391" s="6" t="str">
-        <f>TRIM(LOWER(F391))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H391" s="4" t="s">
@@ -34940,7 +34943,7 @@
         <v>424</v>
       </c>
       <c r="G392" s="6" t="str">
-        <f>TRIM(LOWER(F392))</f>
+        <f t="shared" si="6"/>
         <v>earthquakes</v>
       </c>
       <c r="H392" s="9" t="s">
@@ -34976,7 +34979,7 @@
         <v>424</v>
       </c>
       <c r="G393" s="6" t="str">
-        <f>TRIM(LOWER(F393))</f>
+        <f t="shared" si="6"/>
         <v>earthquakes</v>
       </c>
       <c r="H393" s="9" t="s">
@@ -35012,7 +35015,7 @@
         <v>424</v>
       </c>
       <c r="G394" s="6" t="str">
-        <f>TRIM(LOWER(F394))</f>
+        <f t="shared" si="6"/>
         <v>earthquakes</v>
       </c>
       <c r="H394" s="9" t="s">
@@ -35046,7 +35049,7 @@
         <v>276</v>
       </c>
       <c r="G395" s="6" t="str">
-        <f>TRIM(LOWER(F395))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H395" s="4" t="s">
@@ -35080,7 +35083,7 @@
         <v>276</v>
       </c>
       <c r="G396" s="6" t="str">
-        <f>TRIM(LOWER(F396))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H396" s="4" t="s">
@@ -35114,7 +35117,7 @@
         <v>276</v>
       </c>
       <c r="G397" s="6" t="str">
-        <f>TRIM(LOWER(F397))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H397" s="4" t="s">
@@ -35148,7 +35151,7 @@
         <v>276</v>
       </c>
       <c r="G398" s="6" t="str">
-        <f>TRIM(LOWER(F398))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H398" s="4" t="s">
@@ -35182,7 +35185,7 @@
         <v>276</v>
       </c>
       <c r="G399" s="6" t="str">
-        <f>TRIM(LOWER(F399))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H399" s="4" t="s">
@@ -35216,7 +35219,7 @@
         <v>276</v>
       </c>
       <c r="G400" s="6" t="str">
-        <f>TRIM(LOWER(F400))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H400" s="4" t="s">
@@ -35250,7 +35253,7 @@
         <v>300</v>
       </c>
       <c r="G401" s="6" t="str">
-        <f>TRIM(LOWER(F401))</f>
+        <f t="shared" si="6"/>
         <v>erosion</v>
       </c>
       <c r="H401" s="4" t="s">
@@ -35284,7 +35287,7 @@
         <v>276</v>
       </c>
       <c r="G402" s="6" t="str">
-        <f>TRIM(LOWER(F402))</f>
+        <f t="shared" si="6"/>
         <v>fire</v>
       </c>
       <c r="H402" s="4" t="s">
@@ -35320,7 +35323,7 @@
         <v>265</v>
       </c>
       <c r="G403" s="6" t="str">
-        <f>TRIM(LOWER(F403))</f>
+        <f t="shared" si="6"/>
         <v>illness of household member</v>
       </c>
       <c r="H403" s="4" t="s">
@@ -35354,7 +35357,7 @@
         <v>265</v>
       </c>
       <c r="G404" s="6" t="str">
-        <f>TRIM(LOWER(F404))</f>
+        <f t="shared" si="6"/>
         <v>illness of household member</v>
       </c>
       <c r="H404" s="4" t="s">
@@ -35390,7 +35393,7 @@
         <v>265</v>
       </c>
       <c r="G405" s="6" t="str">
-        <f>TRIM(LOWER(F405))</f>
+        <f t="shared" si="6"/>
         <v>illness of household member</v>
       </c>
       <c r="H405" s="4" t="s">
@@ -35426,7 +35429,7 @@
         <v>467</v>
       </c>
       <c r="G406" s="6" t="str">
-        <f>TRIM(LOWER(F406))</f>
+        <f t="shared" si="6"/>
         <v>serious ilness or accident of household member(s)</v>
       </c>
       <c r="H406" s="4" t="s">
@@ -35462,7 +35465,7 @@
         <v>467</v>
       </c>
       <c r="G407" s="6" t="str">
-        <f>TRIM(LOWER(F407))</f>
+        <f t="shared" si="6"/>
         <v>serious ilness or accident of household member(s)</v>
       </c>
       <c r="H407" s="4" t="s">
@@ -35498,7 +35501,7 @@
         <v>434</v>
       </c>
       <c r="G408" s="6" t="str">
-        <f>TRIM(LOWER(F408))</f>
+        <f t="shared" si="6"/>
         <v>serious ilness or accident of
 household member(s)</v>
       </c>
@@ -35533,7 +35536,7 @@
         <v>373</v>
       </c>
       <c r="G409" s="6" t="str">
-        <f>TRIM(LOWER(F409))</f>
+        <f t="shared" si="6"/>
         <v>grave sickness or accident of a household member</v>
       </c>
       <c r="H409" s="4" t="s">
@@ -35567,7 +35570,7 @@
         <v>354</v>
       </c>
       <c r="G410" s="6" t="str">
-        <f>TRIM(LOWER(F410))</f>
+        <f t="shared" si="6"/>
         <v>maladie grave ou accident d'un membre du ménage</v>
       </c>
       <c r="H410" s="4" t="s">
@@ -35601,7 +35604,7 @@
         <v>335</v>
       </c>
       <c r="G411" s="6" t="str">
-        <f>TRIM(LOWER(F411))</f>
+        <f t="shared" si="6"/>
         <v>chronic/severe illness or accident of household member</v>
       </c>
       <c r="H411" s="4" t="s">
@@ -35635,7 +35638,7 @@
         <v>335</v>
       </c>
       <c r="G412" s="6" t="str">
-        <f>TRIM(LOWER(F412))</f>
+        <f t="shared" si="6"/>
         <v>chronic/severe illness or accident of household member</v>
       </c>
       <c r="H412" s="9" t="s">
@@ -35669,7 +35672,7 @@
         <v>343</v>
       </c>
       <c r="G413" s="6" t="str">
-        <f>TRIM(LOWER(F413))</f>
+        <f t="shared" si="6"/>
         <v>chronic/severe illness or accident of household member</v>
       </c>
       <c r="H413" s="4" t="s">
@@ -35703,7 +35706,7 @@
         <v>335</v>
       </c>
       <c r="G414" s="6" t="str">
-        <f>TRIM(LOWER(F414))</f>
+        <f t="shared" si="6"/>
         <v>chronic/severe illness or accident of household member</v>
       </c>
       <c r="H414" s="4" t="s">
@@ -35737,7 +35740,7 @@
         <v>292</v>
       </c>
       <c r="G415" s="6" t="str">
-        <f>TRIM(LOWER(F415))</f>
+        <f t="shared" si="6"/>
         <v>serious illness or accident of other household member(s)</v>
       </c>
       <c r="H415" s="4" t="s">
@@ -35771,7 +35774,7 @@
         <v>292</v>
       </c>
       <c r="G416" s="6" t="str">
-        <f>TRIM(LOWER(F416))</f>
+        <f t="shared" si="6"/>
         <v>serious illness or accident of other household member(s)</v>
       </c>
       <c r="H416" s="4" t="s">
@@ -35805,7 +35808,7 @@
         <v>292</v>
       </c>
       <c r="G417" s="6" t="str">
-        <f>TRIM(LOWER(F417))</f>
+        <f t="shared" si="6"/>
         <v>serious illness or accident of other household member(s)</v>
       </c>
       <c r="H417" s="4" t="s">
@@ -35839,7 +35842,7 @@
         <v>292</v>
       </c>
       <c r="G418" s="6" t="str">
-        <f>TRIM(LOWER(F418))</f>
+        <f t="shared" si="6"/>
         <v>serious illness or accident of other household member(s)</v>
       </c>
       <c r="H418" s="4" t="s">
@@ -35875,7 +35878,7 @@
         <v>303</v>
       </c>
       <c r="G419" s="6" t="str">
-        <f>TRIM(LOWER(F419))</f>
+        <f t="shared" si="6"/>
         <v>illness of income earning member of the household</v>
       </c>
       <c r="H419" s="4" t="s">
@@ -35909,7 +35912,7 @@
         <v>303</v>
       </c>
       <c r="G420" s="6" t="str">
-        <f>TRIM(LOWER(F420))</f>
+        <f t="shared" si="6"/>
         <v>illness of income earning member of the household</v>
       </c>
       <c r="H420" s="4" t="s">
@@ -35943,7 +35946,7 @@
         <v>303</v>
       </c>
       <c r="G421" s="6" t="str">
-        <f>TRIM(LOWER(F421))</f>
+        <f t="shared" si="6"/>
         <v>illness of income earning member of the household</v>
       </c>
       <c r="H421" s="4" t="s">
@@ -35977,7 +35980,7 @@
         <v>291</v>
       </c>
       <c r="G422" s="6" t="str">
-        <f>TRIM(LOWER(F422))</f>
+        <f t="shared" si="6"/>
         <v>serious illness or accident of income earner(s)</v>
       </c>
       <c r="H422" s="4" t="s">
@@ -36011,7 +36014,7 @@
         <v>291</v>
       </c>
       <c r="G423" s="6" t="str">
-        <f>TRIM(LOWER(F423))</f>
+        <f t="shared" si="6"/>
         <v>serious illness or accident of income earner(s)</v>
       </c>
       <c r="H423" s="4" t="s">
@@ -36045,7 +36048,7 @@
         <v>291</v>
       </c>
       <c r="G424" s="6" t="str">
-        <f>TRIM(LOWER(F424))</f>
+        <f t="shared" si="6"/>
         <v>serious illness or accident of income earner(s)</v>
       </c>
       <c r="H424" s="4" t="s">
@@ -36079,7 +36082,7 @@
         <v>291</v>
       </c>
       <c r="G425" s="6" t="str">
-        <f>TRIM(LOWER(F425))</f>
+        <f t="shared" si="6"/>
         <v>serious illness or accident of income earner(s)</v>
       </c>
       <c r="H425" s="4" t="s">
@@ -36115,7 +36118,7 @@
         <v>383</v>
       </c>
       <c r="G426" s="30" t="str">
-        <f>TRIM(LOWER(F426))</f>
+        <f t="shared" si="6"/>
         <v>medical expenses due to illness or injury</v>
       </c>
       <c r="H426" s="30" t="s">
@@ -36157,7 +36160,7 @@
         <v>207</v>
       </c>
       <c r="G427" s="30" t="str">
-        <f>TRIM(LOWER(F427))</f>
+        <f t="shared" si="6"/>
         <v>medical expenses due to illness or injury</v>
       </c>
       <c r="H427" s="28" t="s">
@@ -36199,7 +36202,7 @@
         <v>206</v>
       </c>
       <c r="G428" s="30" t="str">
-        <f>TRIM(LOWER(F428))</f>
+        <f t="shared" si="6"/>
         <v>loss of income due to illness or injury of household member</v>
       </c>
       <c r="H428" s="28" t="s">
@@ -36241,7 +36244,7 @@
         <v>382</v>
       </c>
       <c r="G429" s="30" t="str">
-        <f>TRIM(LOWER(F429))</f>
+        <f t="shared" si="6"/>
         <v>loss of income due to illness or injury
 of household member</v>
       </c>
@@ -36284,7 +36287,7 @@
         <v>419</v>
       </c>
       <c r="G430" s="6" t="str">
-        <f>TRIM(LOWER(F430))</f>
+        <f t="shared" si="6"/>
         <v>other 1 (specify)</v>
       </c>
       <c r="H430" s="4" t="s">
@@ -36320,7 +36323,7 @@
         <v>412</v>
       </c>
       <c r="G431" s="6" t="str">
-        <f>TRIM(LOWER(F431))</f>
+        <f t="shared" si="6"/>
         <v>other -1 (specify)</v>
       </c>
       <c r="H431" s="4" t="s">
@@ -36356,7 +36359,7 @@
         <v>420</v>
       </c>
       <c r="G432" s="6" t="str">
-        <f>TRIM(LOWER(F432))</f>
+        <f t="shared" si="6"/>
         <v>other 2 (specify)</v>
       </c>
       <c r="H432" s="4" t="s">
@@ -36392,7 +36395,7 @@
         <v>413</v>
       </c>
       <c r="G433" s="6" t="str">
-        <f>TRIM(LOWER(F433))</f>
+        <f t="shared" si="6"/>
         <v>other -2(specify)</v>
       </c>
       <c r="H433" s="4" t="s">
@@ -36428,7 +36431,7 @@
         <v>421</v>
       </c>
       <c r="G434" s="6" t="str">
-        <f>TRIM(LOWER(F434))</f>
+        <f t="shared" si="6"/>
         <v>other 3 (specify)</v>
       </c>
       <c r="H434" s="4" t="s">
@@ -36464,7 +36467,7 @@
         <v>419</v>
       </c>
       <c r="G435" s="6" t="str">
-        <f>TRIM(LOWER(F435))</f>
+        <f t="shared" si="6"/>
         <v>other 1 (specify)</v>
       </c>
       <c r="H435" s="4" t="s">
@@ -36500,7 +36503,7 @@
         <v>412</v>
       </c>
       <c r="G436" s="6" t="str">
-        <f>TRIM(LOWER(F436))</f>
+        <f t="shared" si="6"/>
         <v>other -1 (specify)</v>
       </c>
       <c r="H436" s="4" t="s">
@@ -36536,7 +36539,7 @@
         <v>420</v>
       </c>
       <c r="G437" s="6" t="str">
-        <f>TRIM(LOWER(F437))</f>
+        <f t="shared" si="6"/>
         <v>other 2 (specify)</v>
       </c>
       <c r="H437" s="4" t="s">
@@ -36572,7 +36575,7 @@
         <v>413</v>
       </c>
       <c r="G438" s="6" t="str">
-        <f>TRIM(LOWER(F438))</f>
+        <f t="shared" si="6"/>
         <v>other -2(specify)</v>
       </c>
       <c r="H438" s="4" t="s">
@@ -36608,7 +36611,7 @@
         <v>421</v>
       </c>
       <c r="G439" s="6" t="str">
-        <f>TRIM(LOWER(F439))</f>
+        <f t="shared" si="6"/>
         <v>other 3 (specify)</v>
       </c>
       <c r="H439" s="4" t="s">
@@ -36644,7 +36647,7 @@
         <v>281</v>
       </c>
       <c r="G440" s="6" t="str">
-        <f>TRIM(LOWER(F440))</f>
+        <f t="shared" si="6"/>
         <v>other (specify)</v>
       </c>
       <c r="H440" s="4" t="s">
@@ -36678,7 +36681,7 @@
         <v>281</v>
       </c>
       <c r="G441" s="6" t="str">
-        <f>TRIM(LOWER(F441))</f>
+        <f t="shared" si="6"/>
         <v>other (specify)</v>
       </c>
       <c r="H441" s="4" t="s">
@@ -36714,7 +36717,7 @@
         <v>281</v>
       </c>
       <c r="G442" s="6" t="str">
-        <f>TRIM(LOWER(F442))</f>
+        <f t="shared" si="6"/>
         <v>other (specify)</v>
       </c>
       <c r="H442" s="4" t="s">
@@ -36750,7 +36753,7 @@
         <v>281</v>
       </c>
       <c r="G443" s="6" t="str">
-        <f>TRIM(LOWER(F443))</f>
+        <f t="shared" si="6"/>
         <v>other (specify)</v>
       </c>
       <c r="H443" s="4" t="s">
@@ -36786,7 +36789,7 @@
         <v>281</v>
       </c>
       <c r="G444" s="6" t="str">
-        <f>TRIM(LOWER(F444))</f>
+        <f t="shared" si="6"/>
         <v>other (specify)</v>
       </c>
       <c r="H444" s="4" t="s">
@@ -36822,7 +36825,7 @@
         <v>281</v>
       </c>
       <c r="G445" s="6" t="str">
-        <f>TRIM(LOWER(F445))</f>
+        <f t="shared" si="6"/>
         <v>other (specify)</v>
       </c>
       <c r="H445" s="4" t="s">
@@ -36856,7 +36859,7 @@
         <v>322</v>
       </c>
       <c r="G446" s="6" t="str">
-        <f>TRIM(LOWER(F446))</f>
+        <f t="shared" si="6"/>
         <v>other (specify)</v>
       </c>
       <c r="H446" s="4" t="s">
@@ -36890,7 +36893,7 @@
         <v>361</v>
       </c>
       <c r="G447" s="6" t="str">
-        <f>TRIM(LOWER(F447))</f>
+        <f t="shared" si="6"/>
         <v>autre (à préciser)</v>
       </c>
       <c r="H447" s="4" t="s">
@@ -36924,7 +36927,7 @@
         <v>322</v>
       </c>
       <c r="G448" s="6" t="str">
-        <f>TRIM(LOWER(F448))</f>
+        <f t="shared" si="6"/>
         <v>other (specify)</v>
       </c>
       <c r="H448" s="4" t="s">
@@ -36958,7 +36961,7 @@
         <v>322</v>
       </c>
       <c r="G449" s="6" t="str">
-        <f>TRIM(LOWER(F449))</f>
+        <f t="shared" si="6"/>
         <v>other (specify)</v>
       </c>
       <c r="H449" s="4" t="s">
@@ -36992,7 +36995,7 @@
         <v>322</v>
       </c>
       <c r="G450" s="6" t="str">
-        <f>TRIM(LOWER(F450))</f>
+        <f t="shared" ref="G450:G513" si="7">TRIM(LOWER(F450))</f>
         <v>other (specify)</v>
       </c>
       <c r="H450" s="4" t="s">
@@ -37026,7 +37029,7 @@
         <v>341</v>
       </c>
       <c r="G451" s="6" t="str">
-        <f>TRIM(LOWER(F451))</f>
+        <f t="shared" si="7"/>
         <v>other                                  </v>
       </c>
       <c r="H451" s="4" t="s">
@@ -37060,7 +37063,7 @@
         <v>341</v>
       </c>
       <c r="G452" s="6" t="str">
-        <f>TRIM(LOWER(F452))</f>
+        <f t="shared" si="7"/>
         <v>other                                  </v>
       </c>
       <c r="H452" s="4" t="s">
@@ -37094,7 +37097,7 @@
         <v>341</v>
       </c>
       <c r="G453" s="6" t="str">
-        <f>TRIM(LOWER(F453))</f>
+        <f t="shared" si="7"/>
         <v>other                                  </v>
       </c>
       <c r="H453" s="4" t="s">
@@ -37128,7 +37131,7 @@
         <v>341</v>
       </c>
       <c r="G454" s="6" t="str">
-        <f>TRIM(LOWER(F454))</f>
+        <f t="shared" si="7"/>
         <v>other                                  </v>
       </c>
       <c r="H454" s="4" t="s">
@@ -37162,7 +37165,7 @@
         <v>281</v>
       </c>
       <c r="G455" s="6" t="str">
-        <f>TRIM(LOWER(F455))</f>
+        <f t="shared" si="7"/>
         <v>other (specify)</v>
       </c>
       <c r="H455" s="4" t="s">
@@ -37196,7 +37199,7 @@
         <v>281</v>
       </c>
       <c r="G456" s="6" t="str">
-        <f>TRIM(LOWER(F456))</f>
+        <f t="shared" si="7"/>
         <v>other (specify)</v>
       </c>
       <c r="H456" s="4" t="s">
@@ -37230,7 +37233,7 @@
         <v>281</v>
       </c>
       <c r="G457" s="6" t="str">
-        <f>TRIM(LOWER(F457))</f>
+        <f t="shared" si="7"/>
         <v>other (specify)</v>
       </c>
       <c r="H457" s="4" t="s">
@@ -37264,7 +37267,7 @@
         <v>281</v>
       </c>
       <c r="G458" s="6" t="str">
-        <f>TRIM(LOWER(F458))</f>
+        <f t="shared" si="7"/>
         <v>other (specify)</v>
       </c>
       <c r="H458" s="4" t="s">
@@ -37298,7 +37301,7 @@
         <v>304</v>
       </c>
       <c r="G459" s="6" t="str">
-        <f>TRIM(LOWER(F459))</f>
+        <f t="shared" si="7"/>
         <v>loss of an important contact</v>
       </c>
       <c r="H459" s="4" t="s">
@@ -37332,7 +37335,7 @@
         <v>304</v>
       </c>
       <c r="G460" s="6" t="str">
-        <f>TRIM(LOWER(F460))</f>
+        <f t="shared" si="7"/>
         <v>loss of an important contact</v>
       </c>
       <c r="H460" s="4" t="s">
@@ -37366,7 +37369,7 @@
         <v>304</v>
       </c>
       <c r="G461" s="6" t="str">
-        <f>TRIM(LOWER(F461))</f>
+        <f t="shared" si="7"/>
         <v>loss of an important contact</v>
       </c>
       <c r="H461" s="4" t="s">
@@ -37402,7 +37405,7 @@
         <v>435</v>
       </c>
       <c r="G462" s="6" t="str">
-        <f>TRIM(LOWER(F462))</f>
+        <f t="shared" si="7"/>
         <v>birth in the household</v>
       </c>
       <c r="H462" s="9" t="s">
@@ -37438,7 +37441,7 @@
         <v>436</v>
       </c>
       <c r="G463" s="6" t="str">
-        <f>TRIM(LOWER(F463))</f>
+        <f t="shared" si="7"/>
         <v>break-up of household</v>
       </c>
       <c r="H463" s="9" t="s">
@@ -37474,7 +37477,7 @@
         <v>435</v>
       </c>
       <c r="G464" s="6" t="str">
-        <f>TRIM(LOWER(F464))</f>
+        <f t="shared" si="7"/>
         <v>birth in the household</v>
       </c>
       <c r="H464" s="9" t="s">
@@ -37510,7 +37513,7 @@
         <v>435</v>
       </c>
       <c r="G465" s="6" t="str">
-        <f>TRIM(LOWER(F465))</f>
+        <f t="shared" si="7"/>
         <v>birth in the household</v>
       </c>
       <c r="H465" s="9" t="s">
@@ -37546,7 +37549,7 @@
         <v>436</v>
       </c>
       <c r="G466" s="6" t="str">
-        <f>TRIM(LOWER(F466))</f>
+        <f t="shared" si="7"/>
         <v>break-up of household</v>
       </c>
       <c r="H466" s="9" t="s">
@@ -37582,7 +37585,7 @@
         <v>436</v>
       </c>
       <c r="G467" s="6" t="str">
-        <f>TRIM(LOWER(F467))</f>
+        <f t="shared" si="7"/>
         <v>break-up of household</v>
       </c>
       <c r="H467" s="9" t="s">
@@ -37616,7 +37619,7 @@
         <v>338</v>
       </c>
       <c r="G468" s="6" t="str">
-        <f>TRIM(LOWER(F468))</f>
+        <f t="shared" si="7"/>
         <v>break-up of the household</v>
       </c>
       <c r="H468" s="4" t="s">
@@ -37650,7 +37653,7 @@
         <v>338</v>
       </c>
       <c r="G469" s="6" t="str">
-        <f>TRIM(LOWER(F469))</f>
+        <f t="shared" si="7"/>
         <v>break-up of the household</v>
       </c>
       <c r="H469" s="9" t="s">
@@ -37684,7 +37687,7 @@
         <v>338</v>
       </c>
       <c r="G470" s="6" t="str">
-        <f>TRIM(LOWER(F470))</f>
+        <f t="shared" si="7"/>
         <v>break-up of the household</v>
       </c>
       <c r="H470" s="9" t="s">
@@ -37718,7 +37721,7 @@
         <v>338</v>
       </c>
       <c r="G471" s="6" t="str">
-        <f>TRIM(LOWER(F471))</f>
+        <f t="shared" si="7"/>
         <v>break-up of the household</v>
       </c>
       <c r="H471" s="9" t="s">
@@ -37754,7 +37757,7 @@
         <v>387</v>
       </c>
       <c r="G472" s="6" t="str">
-        <f>TRIM(LOWER(F472))</f>
+        <f t="shared" si="7"/>
         <v>divorce or abandonment</v>
       </c>
       <c r="H472" s="6" t="s">
@@ -37790,7 +37793,7 @@
         <v>211</v>
       </c>
       <c r="G473" s="6" t="str">
-        <f>TRIM(LOWER(F473))</f>
+        <f t="shared" si="7"/>
         <v>divorce or abandonment</v>
       </c>
       <c r="H473" s="4" t="s">
@@ -37824,7 +37827,7 @@
         <v>376</v>
       </c>
       <c r="G474" s="6" t="str">
-        <f>TRIM(LOWER(F474))</f>
+        <f t="shared" si="7"/>
         <v>divorce, separation</v>
       </c>
       <c r="H474" s="4" t="s">
@@ -37858,7 +37861,7 @@
         <v>357</v>
       </c>
       <c r="G475" s="6" t="str">
-        <f>TRIM(LOWER(F475))</f>
+        <f t="shared" si="7"/>
         <v>divorce, séparation</v>
       </c>
       <c r="H475" s="4" t="s">
@@ -37894,7 +37897,7 @@
         <v>417</v>
       </c>
       <c r="G476" s="6" t="str">
-        <f>TRIM(LOWER(F476))</f>
+        <f t="shared" si="7"/>
         <v>new ngo iga starts</v>
       </c>
       <c r="H476" s="9" t="s">
@@ -37930,7 +37933,7 @@
         <v>417</v>
       </c>
       <c r="G477" s="6" t="str">
-        <f>TRIM(LOWER(F477))</f>
+        <f t="shared" si="7"/>
         <v>new ngo iga starts</v>
       </c>
       <c r="H477" s="9" t="s">
@@ -43512,7 +43515,7 @@
         <v>171</v>
       </c>
       <c r="F2" s="9" t="str">
-        <f>TRIM(LOWER(E2))</f>
+        <f t="shared" ref="F2:F65" si="0">TRIM(LOWER(E2))</f>
         <v>mortgaged productive asset (specify)</v>
       </c>
       <c r="G2" s="4">
@@ -43540,7 +43543,7 @@
         <v>59</v>
       </c>
       <c r="F3" s="9" t="str">
-        <f>TRIM(LOWER(E3))</f>
+        <f t="shared" si="0"/>
         <v>sold harvest in advance</v>
       </c>
       <c r="G3" s="4">
@@ -43568,7 +43571,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f>TRIM(LOWER(E4))</f>
+        <f t="shared" si="0"/>
         <v>sold harvest in advance</v>
       </c>
       <c r="G4" s="4">
@@ -43596,7 +43599,7 @@
         <v>59</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f>TRIM(LOWER(E5))</f>
+        <f t="shared" si="0"/>
         <v>sold harvest in advance</v>
       </c>
       <c r="G5" s="4">
@@ -43626,7 +43629,7 @@
         <v>188</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f>TRIM(LOWER(E6))</f>
+        <f t="shared" si="0"/>
         <v>took help from others</v>
       </c>
       <c r="G6" s="4">
@@ -43654,7 +43657,7 @@
         <v>124</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f>TRIM(LOWER(E7))</f>
+        <f t="shared" si="0"/>
         <v>les enfants de moins de 15 ans ont été amenés à travailler</v>
       </c>
       <c r="G7" s="4"/>
@@ -43682,7 +43685,7 @@
         <v>186</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f>TRIM(LOWER(E8))</f>
+        <f t="shared" si="0"/>
         <v>moved to less expensive housing</v>
       </c>
       <c r="G8" s="4">
@@ -43710,7 +43713,7 @@
         <v>155</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f>TRIM(LOWER(E9))</f>
+        <f t="shared" si="0"/>
         <v>sale of food stocks</v>
       </c>
       <c r="G9" s="4">
@@ -43738,7 +43741,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f>TRIM(LOWER(E10))</f>
+        <f t="shared" si="0"/>
         <v>vente du stock de vivres</v>
       </c>
       <c r="G10" s="4">
@@ -43766,7 +43769,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f>TRIM(LOWER(E11))</f>
+        <f t="shared" si="0"/>
         <v>sale of land/furniture/dwellings</v>
       </c>
       <c r="G11" s="4">
@@ -43794,7 +43797,7 @@
         <v>147</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f>TRIM(LOWER(E12))</f>
+        <f t="shared" si="0"/>
         <v>children less than 15 have been asked to work</v>
       </c>
       <c r="G12" s="4">
@@ -43824,7 +43827,7 @@
         <v>183</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f>TRIM(LOWER(E13))</f>
+        <f t="shared" si="0"/>
         <v>sent children into domestic service</v>
       </c>
       <c r="G13" s="4">
@@ -43854,7 +43857,7 @@
         <v>191</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f>TRIM(LOWER(E14))</f>
+        <f t="shared" si="0"/>
         <v>sent children to work somewhere other than domestic service</v>
       </c>
       <c r="G14" s="4">
@@ -43884,7 +43887,7 @@
         <v>180</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f>TRIM(LOWER(E15))</f>
+        <f t="shared" si="0"/>
         <v>adult household member took job elsewhere temporarily</v>
       </c>
       <c r="G15" s="4">
@@ -43914,7 +43917,7 @@
         <v>185</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f>TRIM(LOWER(E16))</f>
+        <f t="shared" si="0"/>
         <v>forced to change occupation</v>
       </c>
       <c r="G16" s="4">
@@ -43942,7 +43945,7 @@
         <v>58</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f>TRIM(LOWER(E17))</f>
+        <f t="shared" si="0"/>
         <v>delayed payment obligations</v>
       </c>
       <c r="G17" s="4">
@@ -43970,7 +43973,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f>TRIM(LOWER(E18))</f>
+        <f t="shared" si="0"/>
         <v>delayed payment obligations</v>
       </c>
       <c r="G18" s="4">
@@ -43998,7 +44001,7 @@
         <v>58</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f>TRIM(LOWER(E19))</f>
+        <f t="shared" si="0"/>
         <v>delayed payment obligations</v>
       </c>
       <c r="G19" s="4">
@@ -44026,7 +44029,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f>TRIM(LOWER(E20))</f>
+        <f t="shared" si="0"/>
         <v>sale of other property</v>
       </c>
       <c r="G20" s="4">
@@ -44054,7 +44057,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f>TRIM(LOWER(E21))</f>
+        <f t="shared" si="0"/>
         <v>rented out land/building</v>
       </c>
       <c r="G21" s="4">
@@ -44084,7 +44087,7 @@
         <v>173</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f>TRIM(LOWER(E22))</f>
+        <f t="shared" si="0"/>
         <v>mortgaged consumption asset (specify)</v>
       </c>
       <c r="G22" s="4">
@@ -44112,7 +44115,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f>TRIM(LOWER(E23))</f>
+        <f t="shared" si="0"/>
         <v>relied on savings</v>
       </c>
       <c r="G23" s="4">
@@ -44140,7 +44143,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f>TRIM(LOWER(E24))</f>
+        <f t="shared" si="0"/>
         <v>relied on savings</v>
       </c>
       <c r="G24" s="4">
@@ -44168,7 +44171,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f>TRIM(LOWER(E25))</f>
+        <f t="shared" si="0"/>
         <v>relied on savings</v>
       </c>
       <c r="G25" s="4">
@@ -44196,7 +44199,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f>TRIM(LOWER(E26))</f>
+        <f t="shared" si="0"/>
         <v>relied on savings</v>
       </c>
       <c r="G26" s="4">
@@ -44224,7 +44227,7 @@
         <v>140</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f>TRIM(LOWER(E27))</f>
+        <f t="shared" si="0"/>
         <v>use of savings</v>
       </c>
       <c r="G27" s="4">
@@ -44252,7 +44255,7 @@
         <v>116</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f>TRIM(LOWER(E28))</f>
+        <f t="shared" si="0"/>
         <v>utilisation de son épargne</v>
       </c>
       <c r="G28" s="4">
@@ -44280,7 +44283,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f>TRIM(LOWER(E29))</f>
+        <f t="shared" si="0"/>
         <v>relied on own savings</v>
       </c>
       <c r="G29" s="4">
@@ -44310,7 +44313,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f>TRIM(LOWER(E30))</f>
+        <f t="shared" si="0"/>
         <v>relied on own savings</v>
       </c>
       <c r="G30" s="4">
@@ -44340,7 +44343,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="9" t="str">
-        <f>TRIM(LOWER(E31))</f>
+        <f t="shared" si="0"/>
         <v>relied on own savings</v>
       </c>
       <c r="G31" s="4">
@@ -44370,7 +44373,7 @@
         <v>101</v>
       </c>
       <c r="F32" s="9" t="str">
-        <f>TRIM(LOWER(E32))</f>
+        <f t="shared" si="0"/>
         <v>relied on own-savings</v>
       </c>
       <c r="G32" s="4">
@@ -44400,7 +44403,7 @@
         <v>101</v>
       </c>
       <c r="F33" s="9" t="str">
-        <f>TRIM(LOWER(E33))</f>
+        <f t="shared" si="0"/>
         <v>relied on own-savings</v>
       </c>
       <c r="G33" s="4">
@@ -44428,7 +44431,7 @@
         <v>101</v>
       </c>
       <c r="F34" s="9" t="str">
-        <f>TRIM(LOWER(E34))</f>
+        <f t="shared" si="0"/>
         <v>relied on own-savings</v>
       </c>
       <c r="G34" s="4">
@@ -44456,7 +44459,7 @@
         <v>101</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f>TRIM(LOWER(E35))</f>
+        <f t="shared" si="0"/>
         <v>relied on own-savings</v>
       </c>
       <c r="G35" s="4">
@@ -44484,7 +44487,7 @@
         <v>62</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f>TRIM(LOWER(E36))</f>
+        <f t="shared" si="0"/>
         <v>relied on savings</v>
       </c>
       <c r="G36" s="4">
@@ -44512,7 +44515,7 @@
         <v>83</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f>TRIM(LOWER(E37))</f>
+        <f t="shared" si="0"/>
         <v>relied on savings</v>
       </c>
       <c r="G37" s="4">
@@ -44540,7 +44543,7 @@
         <v>62</v>
       </c>
       <c r="F38" s="9" t="str">
-        <f>TRIM(LOWER(E38))</f>
+        <f t="shared" si="0"/>
         <v>relied on savings</v>
       </c>
       <c r="G38" s="4">
@@ -44568,7 +44571,7 @@
         <v>117</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f>TRIM(LOWER(E39))</f>
+        <f t="shared" si="0"/>
         <v>aide de parents ou d'amis</v>
       </c>
       <c r="G39" s="4">
@@ -44596,7 +44599,7 @@
         <v>141</v>
       </c>
       <c r="F40" s="9" t="str">
-        <f>TRIM(LOWER(E40))</f>
+        <f t="shared" si="0"/>
         <v>help from relatives or friends</v>
       </c>
       <c r="G40" s="4">
@@ -44624,7 +44627,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="9" t="str">
-        <f>TRIM(LOWER(E41))</f>
+        <f t="shared" si="0"/>
         <v>unconditional help provided by relatives/friends</v>
       </c>
       <c r="G41" s="4">
@@ -44652,7 +44655,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="9" t="str">
-        <f>TRIM(LOWER(E42))</f>
+        <f t="shared" si="0"/>
         <v>unconditional help provided by relatives/friends</v>
       </c>
       <c r="G42" s="4">
@@ -44680,7 +44683,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="9" t="str">
-        <f>TRIM(LOWER(E43))</f>
+        <f t="shared" si="0"/>
         <v>unconditional help provided by relatives/friends</v>
       </c>
       <c r="G43" s="4">
@@ -44708,7 +44711,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="9" t="str">
-        <f>TRIM(LOWER(E44))</f>
+        <f t="shared" si="0"/>
         <v>unconditional help provided by relatives/friends</v>
       </c>
       <c r="G44" s="4">
@@ -44736,7 +44739,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="9" t="str">
-        <f>TRIM(LOWER(E45))</f>
+        <f t="shared" si="0"/>
         <v>borrowed from friends &amp; family</v>
       </c>
       <c r="G45" s="4">
@@ -44764,7 +44767,7 @@
         <v>75</v>
       </c>
       <c r="F46" s="9" t="str">
-        <f>TRIM(LOWER(E46))</f>
+        <f t="shared" si="0"/>
         <v>borrowed from friends &amp; family</v>
       </c>
       <c r="G46" s="4">
@@ -44792,7 +44795,7 @@
         <v>54</v>
       </c>
       <c r="F47" s="9" t="str">
-        <f>TRIM(LOWER(E47))</f>
+        <f t="shared" si="0"/>
         <v>borrowed from friends &amp; family</v>
       </c>
       <c r="G47" s="4">
@@ -44822,7 +44825,7 @@
         <v>192</v>
       </c>
       <c r="F48" s="9" t="str">
-        <f>TRIM(LOWER(E48))</f>
+        <f t="shared" si="0"/>
         <v>emergency receipt of remittance from migrant family member</v>
       </c>
       <c r="G48" s="4">
@@ -44850,7 +44853,7 @@
         <v>53</v>
       </c>
       <c r="F49" s="9" t="str">
-        <f>TRIM(LOWER(E49))</f>
+        <f t="shared" si="0"/>
         <v>received assistance from friends &amp; family</v>
       </c>
       <c r="G49" s="4">
@@ -44878,7 +44881,7 @@
         <v>74</v>
       </c>
       <c r="F50" s="9" t="str">
-        <f>TRIM(LOWER(E50))</f>
+        <f t="shared" si="0"/>
         <v>received assistance from friends &amp; family</v>
       </c>
       <c r="G50" s="4">
@@ -44906,7 +44909,7 @@
         <v>53</v>
       </c>
       <c r="F51" s="9" t="str">
-        <f>TRIM(LOWER(E51))</f>
+        <f t="shared" si="0"/>
         <v>received assistance from friends &amp; family</v>
       </c>
       <c r="G51" s="4">
@@ -44934,7 +44937,7 @@
         <v>102</v>
       </c>
       <c r="F52" s="9" t="str">
-        <f>TRIM(LOWER(E52))</f>
+        <f t="shared" si="0"/>
         <v>received unconditional help from relatives/friends</v>
       </c>
       <c r="G52" s="4">
@@ -44962,7 +44965,7 @@
         <v>27</v>
       </c>
       <c r="F53" s="9" t="str">
-        <f>TRIM(LOWER(E53))</f>
+        <f t="shared" si="0"/>
         <v>received unconditional help from relatives/friends</v>
       </c>
       <c r="G53" s="4">
@@ -44992,7 +44995,7 @@
         <v>27</v>
       </c>
       <c r="F54" s="9" t="str">
-        <f>TRIM(LOWER(E54))</f>
+        <f t="shared" si="0"/>
         <v>received unconditional help from relatives/friends</v>
       </c>
       <c r="G54" s="4">
@@ -45022,7 +45025,7 @@
         <v>27</v>
       </c>
       <c r="F55" s="9" t="str">
-        <f>TRIM(LOWER(E55))</f>
+        <f t="shared" si="0"/>
         <v>received unconditional help from relatives/friends</v>
       </c>
       <c r="G55" s="4">
@@ -45052,7 +45055,7 @@
         <v>27</v>
       </c>
       <c r="F56" s="9" t="str">
-        <f>TRIM(LOWER(E56))</f>
+        <f t="shared" si="0"/>
         <v>received unconditional help from relatives/friends</v>
       </c>
       <c r="G56" s="4">
@@ -45082,7 +45085,7 @@
         <v>27</v>
       </c>
       <c r="F57" s="9" t="str">
-        <f>TRIM(LOWER(E57))</f>
+        <f t="shared" si="0"/>
         <v>received unconditional help from relatives/friends</v>
       </c>
       <c r="G57" s="4">
@@ -45110,7 +45113,7 @@
         <v>27</v>
       </c>
       <c r="F58" s="9" t="str">
-        <f>TRIM(LOWER(E58))</f>
+        <f t="shared" si="0"/>
         <v>received unconditional help from relatives/friends</v>
       </c>
       <c r="G58" s="4">
@@ -45138,7 +45141,7 @@
         <v>118</v>
       </c>
       <c r="F59" s="9" t="str">
-        <f>TRIM(LOWER(E59))</f>
+        <f t="shared" si="0"/>
         <v>aide du gouvernement/l'etat</v>
       </c>
       <c r="G59" s="4">
@@ -45166,7 +45169,7 @@
         <v>142</v>
       </c>
       <c r="F60" s="9" t="str">
-        <f>TRIM(LOWER(E60))</f>
+        <f t="shared" si="0"/>
         <v>government/state aid</v>
       </c>
       <c r="G60" s="4">
@@ -45196,7 +45199,7 @@
         <v>444</v>
       </c>
       <c r="F61" s="9" t="str">
-        <f>TRIM(LOWER(E61))</f>
+        <f t="shared" si="0"/>
         <v>help from government</v>
       </c>
       <c r="G61" s="4">
@@ -45224,7 +45227,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="9" t="str">
-        <f>TRIM(LOWER(E62))</f>
+        <f t="shared" si="0"/>
         <v>unconditional help provided by local government</v>
       </c>
       <c r="G62" s="4">
@@ -45252,7 +45255,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="9" t="str">
-        <f>TRIM(LOWER(E63))</f>
+        <f t="shared" si="0"/>
         <v>unconditional help provided by local government</v>
       </c>
       <c r="G63" s="4">
@@ -45280,7 +45283,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="9" t="str">
-        <f>TRIM(LOWER(E64))</f>
+        <f t="shared" si="0"/>
         <v>unconditional help provided by local government</v>
       </c>
       <c r="G64" s="4">
@@ -45308,7 +45311,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="9" t="str">
-        <f>TRIM(LOWER(E65))</f>
+        <f t="shared" si="0"/>
         <v>unconditional help provided by local government</v>
       </c>
       <c r="G65" s="4">
@@ -45336,7 +45339,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="9" t="str">
-        <f>TRIM(LOWER(E66))</f>
+        <f t="shared" ref="F66:F129" si="1">TRIM(LOWER(E66))</f>
         <v>received assistance from government</v>
       </c>
       <c r="G66" s="4">
@@ -45364,7 +45367,7 @@
         <v>86</v>
       </c>
       <c r="F67" s="9" t="str">
-        <f>TRIM(LOWER(E67))</f>
+        <f t="shared" si="1"/>
         <v>received assistance from government</v>
       </c>
       <c r="G67" s="4">
@@ -45392,7 +45395,7 @@
         <v>65</v>
       </c>
       <c r="F68" s="9" t="str">
-        <f>TRIM(LOWER(E68))</f>
+        <f t="shared" si="1"/>
         <v>received assistance from government</v>
       </c>
       <c r="G68" s="4">
@@ -45420,7 +45423,7 @@
         <v>103</v>
       </c>
       <c r="F69" s="9" t="str">
-        <f>TRIM(LOWER(E69))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from government</v>
       </c>
       <c r="G69" s="4">
@@ -45448,7 +45451,7 @@
         <v>39</v>
       </c>
       <c r="F70" s="9" t="str">
-        <f>TRIM(LOWER(E70))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from government</v>
       </c>
       <c r="G70" s="4">
@@ -45478,7 +45481,7 @@
         <v>39</v>
       </c>
       <c r="F71" s="9" t="str">
-        <f>TRIM(LOWER(E71))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from government</v>
       </c>
       <c r="G71" s="4">
@@ -45508,7 +45511,7 @@
         <v>39</v>
       </c>
       <c r="F72" s="9" t="str">
-        <f>TRIM(LOWER(E72))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from government</v>
       </c>
       <c r="G72" s="4">
@@ -45538,7 +45541,7 @@
         <v>39</v>
       </c>
       <c r="F73" s="9" t="str">
-        <f>TRIM(LOWER(E73))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from government</v>
       </c>
       <c r="G73" s="4">
@@ -45566,7 +45569,7 @@
         <v>39</v>
       </c>
       <c r="F74" s="9" t="str">
-        <f>TRIM(LOWER(E74))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from government</v>
       </c>
       <c r="G74" s="4">
@@ -45594,7 +45597,7 @@
         <v>533</v>
       </c>
       <c r="F75" s="9" t="str">
-        <f>TRIM(LOWER(E75))</f>
+        <f t="shared" si="1"/>
         <v>aid from religious organizations or ongs</v>
       </c>
       <c r="G75" s="4">
@@ -45622,7 +45625,7 @@
         <v>119</v>
       </c>
       <c r="F76" s="9" t="str">
-        <f>TRIM(LOWER(E76))</f>
+        <f t="shared" si="1"/>
         <v>aide d'organisations religieuses ou d'ong</v>
       </c>
       <c r="G76" s="4">
@@ -45650,7 +45653,7 @@
         <v>63</v>
       </c>
       <c r="F77" s="9" t="str">
-        <f>TRIM(LOWER(E77))</f>
+        <f t="shared" si="1"/>
         <v>received assistance from ngo</v>
       </c>
       <c r="G77" s="4">
@@ -45678,7 +45681,7 @@
         <v>84</v>
       </c>
       <c r="F78" s="9" t="str">
-        <f>TRIM(LOWER(E78))</f>
+        <f t="shared" si="1"/>
         <v>received assistance from ngo</v>
       </c>
       <c r="G78" s="4">
@@ -45706,7 +45709,7 @@
         <v>63</v>
       </c>
       <c r="F79" s="9" t="str">
-        <f>TRIM(LOWER(E79))</f>
+        <f t="shared" si="1"/>
         <v>received assistance from ngo</v>
       </c>
       <c r="G79" s="4">
@@ -45734,7 +45737,7 @@
         <v>232</v>
       </c>
       <c r="F80" s="9" t="str">
-        <f>TRIM(LOWER(E80))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from ngo/religious institution</v>
       </c>
       <c r="G80" s="4">
@@ -45764,7 +45767,7 @@
         <v>232</v>
       </c>
       <c r="F81" s="9" t="str">
-        <f>TRIM(LOWER(E81))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from ngo/religious institution</v>
       </c>
       <c r="G81" s="4">
@@ -45794,7 +45797,7 @@
         <v>232</v>
       </c>
       <c r="F82" s="9" t="str">
-        <f>TRIM(LOWER(E82))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from ngo/religious institution</v>
       </c>
       <c r="G82" s="4">
@@ -45824,7 +45827,7 @@
         <v>232</v>
       </c>
       <c r="F83" s="9" t="str">
-        <f>TRIM(LOWER(E83))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from ngo/religious institution</v>
       </c>
       <c r="G83" s="4">
@@ -45854,7 +45857,7 @@
         <v>232</v>
       </c>
       <c r="F84" s="9" t="str">
-        <f>TRIM(LOWER(E84))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from ngo/religious institution</v>
       </c>
       <c r="G84" s="4">
@@ -45882,7 +45885,7 @@
         <v>110</v>
       </c>
       <c r="F85" s="9" t="str">
-        <f>TRIM(LOWER(E85))</f>
+        <f t="shared" si="1"/>
         <v>received unconditional help from ngo/religiousinstitution</v>
       </c>
       <c r="G85" s="4">
@@ -45910,7 +45913,7 @@
         <v>144</v>
       </c>
       <c r="F86" s="9" t="str">
-        <f>TRIM(LOWER(E86))</f>
+        <f t="shared" si="1"/>
         <v>change consumption habits (purchase less expensive food, reduce number of meals per day, reduce quantities eaten, etc</v>
       </c>
       <c r="G86" s="4">
@@ -45938,7 +45941,7 @@
         <v>12</v>
       </c>
       <c r="F87" s="9" t="str">
-        <f>TRIM(LOWER(E87))</f>
+        <f t="shared" si="1"/>
         <v>changed dietary patterns involuntarily (relied on less preferred food options, reduced the proportion or number of meals per day, skipped days without eating, etc…)</v>
       </c>
       <c r="G87" s="4">
@@ -45966,7 +45969,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="9" t="str">
-        <f>TRIM(LOWER(E88))</f>
+        <f t="shared" si="1"/>
         <v>changed dietary patterns involuntarily (relied on less preferred food options, reduced the proportion or number of meals per day, skipped days without eating, etc…)</v>
       </c>
       <c r="G88" s="4">
@@ -45994,7 +45997,7 @@
         <v>12</v>
       </c>
       <c r="F89" s="9" t="str">
-        <f>TRIM(LOWER(E89))</f>
+        <f t="shared" si="1"/>
         <v>changed dietary patterns involuntarily (relied on less preferred food options, reduced the proportion or number of meals per day, skipped days without eating, etc…)</v>
       </c>
       <c r="G89" s="4">
@@ -46022,7 +46025,7 @@
         <v>121</v>
       </c>
       <c r="F90" s="9" t="str">
-        <f>TRIM(LOWER(E90))</f>
+        <f t="shared" si="1"/>
         <v>changement des habitudes de consommation (achat d'aliments moins chers, réduction du nombre de repas par jour, réduction des quantités consommées, etc</v>
       </c>
       <c r="G90" s="4">
@@ -46052,7 +46055,7 @@
         <v>176</v>
       </c>
       <c r="F91" s="9" t="str">
-        <f>TRIM(LOWER(E91))</f>
+        <f t="shared" si="1"/>
         <v>ate less food to reduce expenses</v>
       </c>
       <c r="G91" s="4">
@@ -46082,7 +46085,7 @@
         <v>177</v>
       </c>
       <c r="F92" s="9" t="str">
-        <f>TRIM(LOWER(E92))</f>
+        <f t="shared" si="1"/>
         <v>ate lower quality food to reduce expenses</v>
       </c>
       <c r="G92" s="4">
@@ -46110,7 +46113,7 @@
         <v>532</v>
       </c>
       <c r="F93" s="9" t="str">
-        <f>TRIM(LOWER(E93))</f>
+        <f t="shared" si="1"/>
         <v>changed dietary patterns involuntarily (relied on less preferred food options, reduced the proportion or number of meals per day, skipped days without eating, etc…)</v>
       </c>
       <c r="G93" s="4">
@@ -46138,7 +46141,7 @@
         <v>104</v>
       </c>
       <c r="F94" s="9" t="str">
-        <f>TRIM(LOWER(E94))</f>
+        <f t="shared" si="1"/>
         <v>changed eating patterns (relied on less preferred food options, reduced the proportion or number of meals per day, or household members skipped days of eating, etc)</v>
       </c>
       <c r="G94" s="4">
@@ -46166,7 +46169,7 @@
         <v>38</v>
       </c>
       <c r="F95" s="9" t="str">
-        <f>TRIM(LOWER(E95))</f>
+        <f t="shared" si="1"/>
         <v>changed eating patterns (relied on less preferred food options, reduced the proportion or meals per day, or household members skipped days of eating, etc</v>
       </c>
       <c r="G95" s="4">
@@ -46196,7 +46199,7 @@
         <v>38</v>
       </c>
       <c r="F96" s="9" t="str">
-        <f>TRIM(LOWER(E96))</f>
+        <f t="shared" si="1"/>
         <v>changed eating patterns (relied on less preferred food options, reduced the proportion or meals per day, or household members skipped days of eating, etc</v>
       </c>
       <c r="G96" s="4">
@@ -46226,7 +46229,7 @@
         <v>38</v>
       </c>
       <c r="F97" s="9" t="str">
-        <f>TRIM(LOWER(E97))</f>
+        <f t="shared" si="1"/>
         <v>changed eating patterns (relied on less preferred food options, reduced the proportion or meals per day, or household members skipped days of eating, etc</v>
       </c>
       <c r="G97" s="4">
@@ -46256,7 +46259,7 @@
         <v>236</v>
       </c>
       <c r="F98" s="9" t="str">
-        <f>TRIM(LOWER(E98))</f>
+        <f t="shared" si="1"/>
         <v>changed eating patterns (relied on less preferred food options, reduced the proportion or number of meals per day, or household members skipped days of eating, etc</v>
       </c>
       <c r="G98" s="4">
@@ -46286,7 +46289,7 @@
         <v>230</v>
       </c>
       <c r="F99" s="9" t="str">
-        <f>TRIM(LOWER(E99))</f>
+        <f t="shared" si="1"/>
         <v>changed eating patterns (relied on less preferred food options, reduced the proportion or number of meals per day, or household members skipped days of eating, etc)</v>
       </c>
       <c r="G99" s="4">
@@ -46314,7 +46317,7 @@
         <v>111</v>
       </c>
       <c r="F100" s="9" t="str">
-        <f>TRIM(LOWER(E100))</f>
+        <f t="shared" si="1"/>
         <v>changed eating patterns (relied on less preferredfood options, reduced theproportion or number of meals per day, or householdmembers skipped days of eating, etc</v>
       </c>
       <c r="G100" s="4">
@@ -46342,7 +46345,7 @@
         <v>81</v>
       </c>
       <c r="F101" s="9" t="str">
-        <f>TRIM(LOWER(E101))</f>
+        <f t="shared" si="1"/>
         <v>reduced food consumption</v>
       </c>
       <c r="G101" s="4">
@@ -46370,7 +46373,7 @@
         <v>60</v>
       </c>
       <c r="F102" s="9" t="str">
-        <f>TRIM(LOWER(E102))</f>
+        <f t="shared" si="1"/>
         <v>reduced food consumption</v>
       </c>
       <c r="G102" s="4">
@@ -46398,7 +46401,7 @@
         <v>60</v>
       </c>
       <c r="F103" s="9" t="str">
-        <f>TRIM(LOWER(E103))</f>
+        <f t="shared" si="1"/>
         <v>reduced food consumption</v>
       </c>
       <c r="G103" s="4">
@@ -46426,7 +46429,7 @@
         <v>15</v>
       </c>
       <c r="F104" s="9" t="str">
-        <f>TRIM(LOWER(E104))</f>
+        <f t="shared" si="1"/>
         <v>household member(s) took on more farm wage employment</v>
       </c>
       <c r="G104" s="4">
@@ -46454,7 +46457,7 @@
         <v>15</v>
       </c>
       <c r="F105" s="9" t="str">
-        <f>TRIM(LOWER(E105))</f>
+        <f t="shared" si="1"/>
         <v>household member(s) took on more farm wage employment</v>
       </c>
       <c r="G105" s="4">
@@ -46482,7 +46485,7 @@
         <v>15</v>
       </c>
       <c r="F106" s="9" t="str">
-        <f>TRIM(LOWER(E106))</f>
+        <f t="shared" si="1"/>
         <v>household member(s) took on more farm wage employment</v>
       </c>
       <c r="G106" s="4">
@@ -46510,7 +46513,7 @@
         <v>15</v>
       </c>
       <c r="F107" s="9" t="str">
-        <f>TRIM(LOWER(E107))</f>
+        <f t="shared" si="1"/>
         <v>household member(s) took on more farm wage employment</v>
       </c>
       <c r="G107" s="4">
@@ -46538,7 +46541,7 @@
         <v>14</v>
       </c>
       <c r="F108" s="9" t="str">
-        <f>TRIM(LOWER(E108))</f>
+        <f t="shared" si="1"/>
         <v>household member(s) took on more non-farm (wage- or self-) employment</v>
       </c>
       <c r="G108" s="4">
@@ -46566,7 +46569,7 @@
         <v>14</v>
       </c>
       <c r="F109" s="9" t="str">
-        <f>TRIM(LOWER(E109))</f>
+        <f t="shared" si="1"/>
         <v>household member(s) took on more non-farm (wage- or self-) employment</v>
       </c>
       <c r="G109" s="4">
@@ -46594,7 +46597,7 @@
         <v>14</v>
       </c>
       <c r="F110" s="9" t="str">
-        <f>TRIM(LOWER(E110))</f>
+        <f t="shared" si="1"/>
         <v>household member(s) took on more non-farm (wage- or self-) employment</v>
       </c>
       <c r="G110" s="4">
@@ -46622,7 +46625,7 @@
         <v>14</v>
       </c>
       <c r="F111" s="9" t="str">
-        <f>TRIM(LOWER(E111))</f>
+        <f t="shared" si="1"/>
         <v>household member(s) took on more non-farm (wage- or self-) employment</v>
       </c>
       <c r="G111" s="4">
@@ -46650,7 +46653,7 @@
         <v>122</v>
       </c>
       <c r="F112" s="9" t="str">
-        <f>TRIM(LOWER(E112))</f>
+        <f t="shared" si="1"/>
         <v>les membres actifs occupés du ménages ont pris des emplois supplémentaires</v>
       </c>
       <c r="G112" s="4">
@@ -46678,7 +46681,7 @@
         <v>145</v>
       </c>
       <c r="F113" s="9" t="str">
-        <f>TRIM(LOWER(E113))</f>
+        <f t="shared" si="1"/>
         <v>working household members have taken supplementary work</v>
       </c>
       <c r="G113" s="4">
@@ -46706,7 +46709,7 @@
         <v>105</v>
       </c>
       <c r="F114" s="9" t="str">
-        <f>TRIM(LOWER(E114))</f>
+        <f t="shared" si="1"/>
         <v>employed household members took on more employment</v>
       </c>
       <c r="G114" s="4">
@@ -46734,7 +46737,7 @@
         <v>112</v>
       </c>
       <c r="F115" s="9" t="str">
-        <f>TRIM(LOWER(E115))</f>
+        <f t="shared" si="1"/>
         <v>employed household members took on more employment</v>
       </c>
       <c r="G115" s="4">
@@ -46764,7 +46767,7 @@
         <v>112</v>
       </c>
       <c r="F116" s="9" t="str">
-        <f>TRIM(LOWER(E116))</f>
+        <f t="shared" si="1"/>
         <v>employed household members took on more employment</v>
       </c>
       <c r="G116" s="4">
@@ -46794,7 +46797,7 @@
         <v>112</v>
       </c>
       <c r="F117" s="9" t="str">
-        <f>TRIM(LOWER(E117))</f>
+        <f t="shared" si="1"/>
         <v>employed household members took on more employment</v>
       </c>
       <c r="G117" s="4">
@@ -46824,7 +46827,7 @@
         <v>112</v>
       </c>
       <c r="F118" s="9" t="str">
-        <f>TRIM(LOWER(E118))</f>
+        <f t="shared" si="1"/>
         <v>employed household members took on more employment</v>
       </c>
       <c r="G118" s="4">
@@ -46854,7 +46857,7 @@
         <v>112</v>
       </c>
       <c r="F119" s="9" t="str">
-        <f>TRIM(LOWER(E119))</f>
+        <f t="shared" si="1"/>
         <v>employed household members took on more employment</v>
       </c>
       <c r="G119" s="4">
@@ -46882,7 +46885,7 @@
         <v>112</v>
       </c>
       <c r="F120" s="9" t="str">
-        <f>TRIM(LOWER(E120))</f>
+        <f t="shared" si="1"/>
         <v>employed household members took on more employment</v>
       </c>
       <c r="G120" s="4">
@@ -46910,7 +46913,7 @@
         <v>73</v>
       </c>
       <c r="F121" s="9" t="str">
-        <f>TRIM(LOWER(E121))</f>
+        <f t="shared" si="1"/>
         <v>engaged in additional income generating activities</v>
       </c>
       <c r="G121" s="4">
@@ -46938,7 +46941,7 @@
         <v>98</v>
       </c>
       <c r="F122" s="9" t="str">
-        <f>TRIM(LOWER(E122))</f>
+        <f t="shared" si="1"/>
         <v>engaged in additional income generating activities</v>
       </c>
       <c r="G122" s="4">
@@ -46966,7 +46969,7 @@
         <v>52</v>
       </c>
       <c r="F123" s="9" t="str">
-        <f>TRIM(LOWER(E123))</f>
+        <f t="shared" si="1"/>
         <v>engaged in additionalincome generating activities</v>
       </c>
       <c r="G123" s="4">
@@ -46994,7 +46997,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="9" t="str">
-        <f>TRIM(LOWER(E124))</f>
+        <f t="shared" si="1"/>
         <v>les membres adultes (au moins 15 ans) inactifs ou chômeurs ont pris des emplois</v>
       </c>
       <c r="G124" s="4">
@@ -47022,7 +47025,7 @@
         <v>146</v>
       </c>
       <c r="F125" s="9" t="str">
-        <f>TRIM(LOWER(E125))</f>
+        <f t="shared" si="1"/>
         <v>non working or unemployed adult members (at least 15 years old) have gotten work</v>
       </c>
       <c r="G125" s="4">
@@ -47050,7 +47053,7 @@
         <v>106</v>
       </c>
       <c r="F126" s="9" t="str">
-        <f>TRIM(LOWER(E126))</f>
+        <f t="shared" si="1"/>
         <v>adult household members who were previously not working had to find work</v>
       </c>
       <c r="G126" s="4">
@@ -47078,7 +47081,7 @@
         <v>40</v>
       </c>
       <c r="F127" s="9" t="str">
-        <f>TRIM(LOWER(E127))</f>
+        <f t="shared" si="1"/>
         <v>adult household members who were previously not working had to find work</v>
       </c>
       <c r="G127" s="4">
@@ -47108,7 +47111,7 @@
         <v>40</v>
       </c>
       <c r="F128" s="9" t="str">
-        <f>TRIM(LOWER(E128))</f>
+        <f t="shared" si="1"/>
         <v>adult household members who were previously not working had to find work</v>
       </c>
       <c r="G128" s="4">
@@ -47138,7 +47141,7 @@
         <v>40</v>
       </c>
       <c r="F129" s="9" t="str">
-        <f>TRIM(LOWER(E129))</f>
+        <f t="shared" si="1"/>
         <v>adult household members who were previously not working had to find work</v>
       </c>
       <c r="G129" s="4">
@@ -47168,7 +47171,7 @@
         <v>40</v>
       </c>
       <c r="F130" s="9" t="str">
-        <f>TRIM(LOWER(E130))</f>
+        <f t="shared" ref="F130:F193" si="2">TRIM(LOWER(E130))</f>
         <v>adult household members who were previously not working had to find work</v>
       </c>
       <c r="G130" s="4">
@@ -47198,7 +47201,7 @@
         <v>40</v>
       </c>
       <c r="F131" s="9" t="str">
-        <f>TRIM(LOWER(E131))</f>
+        <f t="shared" si="2"/>
         <v>adult household members who were previously not working had to find work</v>
       </c>
       <c r="G131" s="4">
@@ -47226,7 +47229,7 @@
         <v>40</v>
       </c>
       <c r="F132" s="9" t="str">
-        <f>TRIM(LOWER(E132))</f>
+        <f t="shared" si="2"/>
         <v>adult household members who were previously not working had to find work</v>
       </c>
       <c r="G132" s="4">
@@ -47256,7 +47259,7 @@
         <v>187</v>
       </c>
       <c r="F133" s="9" t="str">
-        <f>TRIM(LOWER(E133))</f>
+        <f t="shared" si="2"/>
         <v>sent non-working household member to work</v>
       </c>
       <c r="G133" s="4">
@@ -47284,7 +47287,7 @@
         <v>16</v>
       </c>
       <c r="F134" s="9" t="str">
-        <f>TRIM(LOWER(E134))</f>
+        <f t="shared" si="2"/>
         <v>household member(s) migrated</v>
       </c>
       <c r="G134" s="4">
@@ -47312,7 +47315,7 @@
         <v>16</v>
       </c>
       <c r="F135" s="9" t="str">
-        <f>TRIM(LOWER(E135))</f>
+        <f t="shared" si="2"/>
         <v>household member(s) migrated</v>
       </c>
       <c r="G135" s="4">
@@ -47340,7 +47343,7 @@
         <v>16</v>
       </c>
       <c r="F136" s="9" t="str">
-        <f>TRIM(LOWER(E136))</f>
+        <f t="shared" si="2"/>
         <v>household member(s) migrated</v>
       </c>
       <c r="G136" s="4">
@@ -47368,7 +47371,7 @@
         <v>16</v>
       </c>
       <c r="F137" s="9" t="str">
-        <f>TRIM(LOWER(E137))</f>
+        <f t="shared" si="2"/>
         <v>household member(s) migrated</v>
       </c>
       <c r="G137" s="4">
@@ -47396,7 +47399,7 @@
         <v>126</v>
       </c>
       <c r="F138" s="9" t="str">
-        <f>TRIM(LOWER(E138))</f>
+        <f t="shared" si="2"/>
         <v>migration d'un ou plusieurs membres du ménage</v>
       </c>
       <c r="G138" s="4">
@@ -47424,7 +47427,7 @@
         <v>149</v>
       </c>
       <c r="F139" s="9" t="str">
-        <f>TRIM(LOWER(E139))</f>
+        <f t="shared" si="2"/>
         <v>migration of one or more members of household</v>
       </c>
       <c r="G139" s="4">
@@ -47452,7 +47455,7 @@
         <v>41</v>
       </c>
       <c r="F140" s="9" t="str">
-        <f>TRIM(LOWER(E140))</f>
+        <f t="shared" si="2"/>
         <v>household members migrated</v>
       </c>
       <c r="G140" s="4">
@@ -47482,7 +47485,7 @@
         <v>41</v>
       </c>
       <c r="F141" s="9" t="str">
-        <f>TRIM(LOWER(E141))</f>
+        <f t="shared" si="2"/>
         <v>household members migrated</v>
       </c>
       <c r="G141" s="4">
@@ -47512,7 +47515,7 @@
         <v>41</v>
       </c>
       <c r="F142" s="9" t="str">
-        <f>TRIM(LOWER(E142))</f>
+        <f t="shared" si="2"/>
         <v>household members migrated</v>
       </c>
       <c r="G142" s="4">
@@ -47542,7 +47545,7 @@
         <v>41</v>
       </c>
       <c r="F143" s="9" t="str">
-        <f>TRIM(LOWER(E143))</f>
+        <f t="shared" si="2"/>
         <v>household members migrated</v>
       </c>
       <c r="G143" s="4">
@@ -47572,7 +47575,7 @@
         <v>41</v>
       </c>
       <c r="F144" s="9" t="str">
-        <f>TRIM(LOWER(E144))</f>
+        <f t="shared" si="2"/>
         <v>household members migrated</v>
       </c>
       <c r="G144" s="4">
@@ -47600,7 +47603,7 @@
         <v>41</v>
       </c>
       <c r="F145" s="9" t="str">
-        <f>TRIM(LOWER(E145))</f>
+        <f t="shared" si="2"/>
         <v>household members migrated</v>
       </c>
       <c r="G145" s="4">
@@ -47628,7 +47631,7 @@
         <v>56</v>
       </c>
       <c r="F146" s="9" t="str">
-        <f>TRIM(LOWER(E146))</f>
+        <f t="shared" si="2"/>
         <v>members of the household migrated for work</v>
       </c>
       <c r="G146" s="4">
@@ -47656,7 +47659,7 @@
         <v>77</v>
       </c>
       <c r="F147" s="9" t="str">
-        <f>TRIM(LOWER(E147))</f>
+        <f t="shared" si="2"/>
         <v>members of the household migrated for work</v>
       </c>
       <c r="G147" s="4">
@@ -47684,7 +47687,7 @@
         <v>56</v>
       </c>
       <c r="F148" s="9" t="str">
-        <f>TRIM(LOWER(E148))</f>
+        <f t="shared" si="2"/>
         <v>members of the household migrated for work</v>
       </c>
       <c r="G148" s="4">
@@ -47714,7 +47717,7 @@
         <v>181</v>
       </c>
       <c r="F149" s="9" t="str">
-        <f>TRIM(LOWER(E149))</f>
+        <f t="shared" si="2"/>
         <v>sent household member away permanently</v>
       </c>
       <c r="G149" s="4">
@@ -47744,7 +47747,7 @@
         <v>184</v>
       </c>
       <c r="F150" s="9" t="str">
-        <f>TRIM(LOWER(E150))</f>
+        <f t="shared" si="2"/>
         <v>sent wife and children to her parental home</v>
       </c>
       <c r="G150" s="4">
@@ -47772,7 +47775,7 @@
         <v>148</v>
       </c>
       <c r="F151" s="9" t="str">
-        <f>TRIM(LOWER(E151))</f>
+        <f t="shared" si="2"/>
         <v>children taken out of school</v>
       </c>
       <c r="G151" s="4">
@@ -47800,7 +47803,7 @@
         <v>125</v>
       </c>
       <c r="F152" s="9" t="str">
-        <f>TRIM(LOWER(E152))</f>
+        <f t="shared" si="2"/>
         <v>les enfants ont été déscolarisés</v>
       </c>
       <c r="G152" s="4">
@@ -47828,7 +47831,7 @@
         <v>24</v>
       </c>
       <c r="F153" s="9" t="str">
-        <f>TRIM(LOWER(E153))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and education</v>
       </c>
       <c r="G153" s="4">
@@ -47856,7 +47859,7 @@
         <v>24</v>
       </c>
       <c r="F154" s="9" t="str">
-        <f>TRIM(LOWER(E154))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and education</v>
       </c>
       <c r="G154" s="4">
@@ -47884,7 +47887,7 @@
         <v>24</v>
       </c>
       <c r="F155" s="9" t="str">
-        <f>TRIM(LOWER(E155))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and education</v>
       </c>
       <c r="G155" s="4">
@@ -47912,7 +47915,7 @@
         <v>24</v>
       </c>
       <c r="F156" s="9" t="str">
-        <f>TRIM(LOWER(E156))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and education</v>
       </c>
       <c r="G156" s="4">
@@ -47940,7 +47943,7 @@
         <v>127</v>
       </c>
       <c r="F157" s="9" t="str">
-        <f>TRIM(LOWER(E157))</f>
+        <f t="shared" si="2"/>
         <v>réduction des dépenses de santé/d'éducation</v>
       </c>
       <c r="G157" s="4">
@@ -47968,7 +47971,7 @@
         <v>150</v>
       </c>
       <c r="F158" s="9" t="str">
-        <f>TRIM(LOWER(E158))</f>
+        <f t="shared" si="2"/>
         <v>reduction of expenses in health/education</v>
       </c>
       <c r="G158" s="4">
@@ -47996,7 +47999,7 @@
         <v>42</v>
       </c>
       <c r="F159" s="9" t="str">
-        <f>TRIM(LOWER(E159))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and/or education</v>
       </c>
       <c r="G159" s="4">
@@ -48026,7 +48029,7 @@
         <v>42</v>
       </c>
       <c r="F160" s="9" t="str">
-        <f>TRIM(LOWER(E160))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and/or education</v>
       </c>
       <c r="G160" s="4">
@@ -48056,7 +48059,7 @@
         <v>42</v>
       </c>
       <c r="F161" s="9" t="str">
-        <f>TRIM(LOWER(E161))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and/or education</v>
       </c>
       <c r="G161" s="4">
@@ -48086,7 +48089,7 @@
         <v>42</v>
       </c>
       <c r="F162" s="9" t="str">
-        <f>TRIM(LOWER(E162))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and/or education</v>
       </c>
       <c r="G162" s="4">
@@ -48116,7 +48119,7 @@
         <v>42</v>
       </c>
       <c r="F163" s="9" t="str">
-        <f>TRIM(LOWER(E163))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and/or education</v>
       </c>
       <c r="G163" s="4">
@@ -48144,7 +48147,7 @@
         <v>113</v>
       </c>
       <c r="F164" s="9" t="str">
-        <f>TRIM(LOWER(E164))</f>
+        <f t="shared" si="2"/>
         <v>reduced expenditures on health and/oreducation</v>
       </c>
       <c r="G164" s="4">
@@ -48174,7 +48177,7 @@
         <v>178</v>
       </c>
       <c r="F165" s="9" t="str">
-        <f>TRIM(LOWER(E165))</f>
+        <f t="shared" si="2"/>
         <v>took children out of school</v>
       </c>
       <c r="G165" s="4">
@@ -48204,7 +48207,7 @@
         <v>179</v>
       </c>
       <c r="F166" s="9" t="str">
-        <f>TRIM(LOWER(E166))</f>
+        <f t="shared" si="2"/>
         <v>transferred children to less expensive school</v>
       </c>
       <c r="G166" s="4">
@@ -48232,7 +48235,7 @@
         <v>51</v>
       </c>
       <c r="F167" s="9" t="str">
-        <f>TRIM(LOWER(E167))</f>
+        <f t="shared" si="2"/>
         <v>withdrew children from school</v>
       </c>
       <c r="G167" s="4">
@@ -48260,7 +48263,7 @@
         <v>72</v>
       </c>
       <c r="F168" s="9" t="str">
-        <f>TRIM(LOWER(E168))</f>
+        <f t="shared" si="2"/>
         <v>withdrew children from school</v>
       </c>
       <c r="G168" s="4">
@@ -48288,7 +48291,7 @@
         <v>51</v>
       </c>
       <c r="F169" s="9" t="str">
-        <f>TRIM(LOWER(E169))</f>
+        <f t="shared" si="2"/>
         <v>withdrew children from school</v>
       </c>
       <c r="G169" s="4">
@@ -48316,7 +48319,7 @@
         <v>151</v>
       </c>
       <c r="F170" s="9" t="str">
-        <f>TRIM(LOWER(E170))</f>
+        <f t="shared" si="2"/>
         <v>obtain credit</v>
       </c>
       <c r="G170" s="4">
@@ -48344,7 +48347,7 @@
         <v>18</v>
       </c>
       <c r="F171" s="9" t="str">
-        <f>TRIM(LOWER(E171))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G171" s="4">
@@ -48372,7 +48375,7 @@
         <v>18</v>
       </c>
       <c r="F172" s="9" t="str">
-        <f>TRIM(LOWER(E172))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G172" s="4">
@@ -48400,7 +48403,7 @@
         <v>18</v>
       </c>
       <c r="F173" s="9" t="str">
-        <f>TRIM(LOWER(E173))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G173" s="4">
@@ -48428,7 +48431,7 @@
         <v>18</v>
       </c>
       <c r="F174" s="9" t="str">
-        <f>TRIM(LOWER(E174))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G174" s="4">
@@ -48456,7 +48459,7 @@
         <v>128</v>
       </c>
       <c r="F175" s="9" t="str">
-        <f>TRIM(LOWER(E175))</f>
+        <f t="shared" si="2"/>
         <v>obtention d'un crédit</v>
       </c>
       <c r="G175" s="4">
@@ -48484,7 +48487,7 @@
         <v>57</v>
       </c>
       <c r="F176" s="9" t="str">
-        <f>TRIM(LOWER(E176))</f>
+        <f t="shared" si="2"/>
         <v>credited purchases</v>
       </c>
       <c r="G176" s="4">
@@ -48512,7 +48515,7 @@
         <v>78</v>
       </c>
       <c r="F177" s="9" t="str">
-        <f>TRIM(LOWER(E177))</f>
+        <f t="shared" si="2"/>
         <v>credited purchases</v>
       </c>
       <c r="G177" s="4">
@@ -48540,7 +48543,7 @@
         <v>57</v>
       </c>
       <c r="F178" s="9" t="str">
-        <f>TRIM(LOWER(E178))</f>
+        <f t="shared" si="2"/>
         <v>credited purchases</v>
       </c>
       <c r="G178" s="4">
@@ -48568,7 +48571,7 @@
         <v>28</v>
       </c>
       <c r="F179" s="9" t="str">
-        <f>TRIM(LOWER(E179))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G179" s="4">
@@ -48598,7 +48601,7 @@
         <v>28</v>
       </c>
       <c r="F180" s="9" t="str">
-        <f>TRIM(LOWER(E180))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G180" s="4">
@@ -48628,7 +48631,7 @@
         <v>28</v>
       </c>
       <c r="F181" s="9" t="str">
-        <f>TRIM(LOWER(E181))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G181" s="4">
@@ -48658,7 +48661,7 @@
         <v>28</v>
       </c>
       <c r="F182" s="9" t="str">
-        <f>TRIM(LOWER(E182))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G182" s="4">
@@ -48688,7 +48691,7 @@
         <v>28</v>
       </c>
       <c r="F183" s="9" t="str">
-        <f>TRIM(LOWER(E183))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G183" s="4">
@@ -48716,7 +48719,7 @@
         <v>28</v>
       </c>
       <c r="F184" s="9" t="str">
-        <f>TRIM(LOWER(E184))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G184" s="4">
@@ -48744,7 +48747,7 @@
         <v>28</v>
       </c>
       <c r="F185" s="9" t="str">
-        <f>TRIM(LOWER(E185))</f>
+        <f t="shared" si="2"/>
         <v>obtained credit</v>
       </c>
       <c r="G185" s="4">
@@ -48772,7 +48775,7 @@
         <v>55</v>
       </c>
       <c r="F186" s="9" t="str">
-        <f>TRIM(LOWER(E186))</f>
+        <f t="shared" si="2"/>
         <v>took a loan from a financial institution</v>
       </c>
       <c r="G186" s="4">
@@ -48800,7 +48803,7 @@
         <v>76</v>
       </c>
       <c r="F187" s="9" t="str">
-        <f>TRIM(LOWER(E187))</f>
+        <f t="shared" si="2"/>
         <v>took a loan from a financial institution</v>
       </c>
       <c r="G187" s="4">
@@ -48828,7 +48831,7 @@
         <v>55</v>
       </c>
       <c r="F188" s="9" t="str">
-        <f>TRIM(LOWER(E188))</f>
+        <f t="shared" si="2"/>
         <v>took a loan from a financial institution</v>
       </c>
       <c r="G188" s="4">
@@ -48856,7 +48859,7 @@
         <v>64</v>
       </c>
       <c r="F189" s="9" t="str">
-        <f>TRIM(LOWER(E189))</f>
+        <f t="shared" si="2"/>
         <v>took advanced payment from employer</v>
       </c>
       <c r="G189" s="4">
@@ -48884,7 +48887,7 @@
         <v>85</v>
       </c>
       <c r="F190" s="9" t="str">
-        <f>TRIM(LOWER(E190))</f>
+        <f t="shared" si="2"/>
         <v>took advanced payment from employer</v>
       </c>
       <c r="G190" s="4">
@@ -48912,7 +48915,7 @@
         <v>64</v>
       </c>
       <c r="F191" s="9" t="str">
-        <f>TRIM(LOWER(E191))</f>
+        <f t="shared" si="2"/>
         <v>took advanced payment from employer</v>
       </c>
       <c r="G191" s="4">
@@ -48942,7 +48945,7 @@
         <v>175</v>
       </c>
       <c r="F192" s="9" t="str">
-        <f>TRIM(LOWER(E192))</f>
+        <f t="shared" si="2"/>
         <v>took loan from mahajan/non-institutional source</v>
       </c>
       <c r="G192" s="4">
@@ -48972,7 +48975,7 @@
         <v>174</v>
       </c>
       <c r="F193" s="9" t="str">
-        <f>TRIM(LOWER(E193))</f>
+        <f t="shared" si="2"/>
         <v>took loan from ngo/institution</v>
       </c>
       <c r="G193" s="4">
@@ -49000,7 +49003,7 @@
         <v>152</v>
       </c>
       <c r="F194" s="9" t="str">
-        <f>TRIM(LOWER(E194))</f>
+        <f t="shared" ref="F194:F257" si="3">TRIM(LOWER(E194))</f>
         <v>sale of agricultural tools</v>
       </c>
       <c r="G194" s="4">
@@ -49028,7 +49031,7 @@
         <v>129</v>
       </c>
       <c r="F195" s="9" t="str">
-        <f>TRIM(LOWER(E195))</f>
+        <f t="shared" si="3"/>
         <v>vente des actifs agricoles</v>
       </c>
       <c r="G195" s="4">
@@ -49056,7 +49059,7 @@
         <v>29</v>
       </c>
       <c r="F196" s="9" t="str">
-        <f>TRIM(LOWER(E196))</f>
+        <f t="shared" si="3"/>
         <v>sold agricultural assets</v>
       </c>
       <c r="G196" s="4">
@@ -49086,7 +49089,7 @@
         <v>29</v>
       </c>
       <c r="F197" s="9" t="str">
-        <f>TRIM(LOWER(E197))</f>
+        <f t="shared" si="3"/>
         <v>sold agricultural assets</v>
       </c>
       <c r="G197" s="4">
@@ -49116,7 +49119,7 @@
         <v>29</v>
       </c>
       <c r="F198" s="9" t="str">
-        <f>TRIM(LOWER(E198))</f>
+        <f t="shared" si="3"/>
         <v>sold agricultural assets</v>
       </c>
       <c r="G198" s="4">
@@ -49146,7 +49149,7 @@
         <v>29</v>
       </c>
       <c r="F199" s="9" t="str">
-        <f>TRIM(LOWER(E199))</f>
+        <f t="shared" si="3"/>
         <v>sold agricultural assets</v>
       </c>
       <c r="G199" s="4">
@@ -49176,7 +49179,7 @@
         <v>29</v>
       </c>
       <c r="F200" s="9" t="str">
-        <f>TRIM(LOWER(E200))</f>
+        <f t="shared" si="3"/>
         <v>sold agricultural assets</v>
       </c>
       <c r="G200" s="4">
@@ -49204,7 +49207,7 @@
         <v>29</v>
       </c>
       <c r="F201" s="9" t="str">
-        <f>TRIM(LOWER(E201))</f>
+        <f t="shared" si="3"/>
         <v>sold agricultural assets</v>
       </c>
       <c r="G201" s="4">
@@ -49232,7 +49235,7 @@
         <v>29</v>
       </c>
       <c r="F202" s="9" t="str">
-        <f>TRIM(LOWER(E202))</f>
+        <f t="shared" si="3"/>
         <v>sold agricultural assets</v>
       </c>
       <c r="G202" s="4">
@@ -49260,7 +49263,7 @@
         <v>153</v>
       </c>
       <c r="F203" s="9" t="str">
-        <f>TRIM(LOWER(E203))</f>
+        <f t="shared" si="3"/>
         <v>sale of household durable goods</v>
       </c>
       <c r="G203" s="4">
@@ -49288,7 +49291,7 @@
         <v>19</v>
       </c>
       <c r="F204" s="9" t="str">
-        <f>TRIM(LOWER(E204))</f>
+        <f t="shared" si="3"/>
         <v>sold durable household assets (agricultural or non-agricultural)</v>
       </c>
       <c r="G204" s="4">
@@ -49316,7 +49319,7 @@
         <v>19</v>
       </c>
       <c r="F205" s="9" t="str">
-        <f>TRIM(LOWER(E205))</f>
+        <f t="shared" si="3"/>
         <v>sold durable household assets (agricultural or non-agricultural)</v>
       </c>
       <c r="G205" s="4">
@@ -49344,7 +49347,7 @@
         <v>19</v>
       </c>
       <c r="F206" s="9" t="str">
-        <f>TRIM(LOWER(E206))</f>
+        <f t="shared" si="3"/>
         <v>sold durable household assets (agricultural or non-agricultural)</v>
       </c>
       <c r="G206" s="4">
@@ -49372,7 +49375,7 @@
         <v>19</v>
       </c>
       <c r="F207" s="9" t="str">
-        <f>TRIM(LOWER(E207))</f>
+        <f t="shared" si="3"/>
         <v>sold durable household assets (agricultural or non-agricultural)</v>
       </c>
       <c r="G207" s="4">
@@ -49400,7 +49403,7 @@
         <v>130</v>
       </c>
       <c r="F208" s="9" t="str">
-        <f>TRIM(LOWER(E208))</f>
+        <f t="shared" si="3"/>
         <v>vente des biens durables du ménage</v>
       </c>
       <c r="G208" s="4">
@@ -49430,7 +49433,7 @@
         <v>172</v>
       </c>
       <c r="F209" s="9" t="str">
-        <f>TRIM(LOWER(E209))</f>
+        <f t="shared" si="3"/>
         <v>sold consumption asset (specify)</v>
       </c>
       <c r="G209" s="4">
@@ -49458,7 +49461,7 @@
         <v>30</v>
       </c>
       <c r="F210" s="9" t="str">
-        <f>TRIM(LOWER(E210))</f>
+        <f t="shared" si="3"/>
         <v>sold durable assets</v>
       </c>
       <c r="G210" s="4">
@@ -49488,7 +49491,7 @@
         <v>30</v>
       </c>
       <c r="F211" s="9" t="str">
-        <f>TRIM(LOWER(E211))</f>
+        <f t="shared" si="3"/>
         <v>sold durable assets</v>
       </c>
       <c r="G211" s="4">
@@ -49518,7 +49521,7 @@
         <v>30</v>
       </c>
       <c r="F212" s="9" t="str">
-        <f>TRIM(LOWER(E212))</f>
+        <f t="shared" si="3"/>
         <v>sold durable assets</v>
       </c>
       <c r="G212" s="4">
@@ -49548,7 +49551,7 @@
         <v>30</v>
       </c>
       <c r="F213" s="9" t="str">
-        <f>TRIM(LOWER(E213))</f>
+        <f t="shared" si="3"/>
         <v>sold durable assets</v>
       </c>
       <c r="G213" s="4">
@@ -49578,7 +49581,7 @@
         <v>30</v>
       </c>
       <c r="F214" s="9" t="str">
-        <f>TRIM(LOWER(E214))</f>
+        <f t="shared" si="3"/>
         <v>sold durable assets</v>
       </c>
       <c r="G214" s="4">
@@ -49606,7 +49609,7 @@
         <v>30</v>
       </c>
       <c r="F215" s="9" t="str">
-        <f>TRIM(LOWER(E215))</f>
+        <f t="shared" si="3"/>
         <v>sold durable assets</v>
       </c>
       <c r="G215" s="4">
@@ -49634,7 +49637,7 @@
         <v>30</v>
       </c>
       <c r="F216" s="9" t="str">
-        <f>TRIM(LOWER(E216))</f>
+        <f t="shared" si="3"/>
         <v>sold durable assets</v>
       </c>
       <c r="G216" s="4">
@@ -49664,7 +49667,7 @@
         <v>170</v>
       </c>
       <c r="F217" s="9" t="str">
-        <f>TRIM(LOWER(E217))</f>
+        <f t="shared" si="3"/>
         <v>sold productive asset (specify)</v>
       </c>
       <c r="G217" s="4">
@@ -49692,7 +49695,7 @@
         <v>20</v>
       </c>
       <c r="F218" s="9" t="str">
-        <f>TRIM(LOWER(E218))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G218" s="4">
@@ -49720,7 +49723,7 @@
         <v>20</v>
       </c>
       <c r="F219" s="9" t="str">
-        <f>TRIM(LOWER(E219))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G219" s="4">
@@ -49748,7 +49751,7 @@
         <v>20</v>
       </c>
       <c r="F220" s="9" t="str">
-        <f>TRIM(LOWER(E220))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G220" s="4">
@@ -49776,7 +49779,7 @@
         <v>20</v>
       </c>
       <c r="F221" s="9" t="str">
-        <f>TRIM(LOWER(E221))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G221" s="4">
@@ -49804,7 +49807,7 @@
         <v>131</v>
       </c>
       <c r="F222" s="9" t="str">
-        <f>TRIM(LOWER(E222))</f>
+        <f t="shared" si="3"/>
         <v>vente de terrain/immeubles/maisons</v>
       </c>
       <c r="G222" s="4">
@@ -49832,7 +49835,7 @@
         <v>48</v>
       </c>
       <c r="F223" s="9" t="str">
-        <f>TRIM(LOWER(E223))</f>
+        <f t="shared" si="3"/>
         <v>sale of land</v>
       </c>
       <c r="G223" s="4">
@@ -49860,7 +49863,7 @@
         <v>69</v>
       </c>
       <c r="F224" s="9" t="str">
-        <f>TRIM(LOWER(E224))</f>
+        <f t="shared" si="3"/>
         <v>sale of land</v>
       </c>
       <c r="G224" s="4">
@@ -49888,7 +49891,7 @@
         <v>48</v>
       </c>
       <c r="F225" s="9" t="str">
-        <f>TRIM(LOWER(E225))</f>
+        <f t="shared" si="3"/>
         <v>sale of land</v>
       </c>
       <c r="G225" s="4">
@@ -49916,7 +49919,7 @@
         <v>70</v>
       </c>
       <c r="F226" s="9" t="str">
-        <f>TRIM(LOWER(E226))</f>
+        <f t="shared" si="3"/>
         <v>sale of other property</v>
       </c>
       <c r="G226" s="4">
@@ -49944,7 +49947,7 @@
         <v>49</v>
       </c>
       <c r="F227" s="9" t="str">
-        <f>TRIM(LOWER(E227))</f>
+        <f t="shared" si="3"/>
         <v>sale of other property</v>
       </c>
       <c r="G227" s="4">
@@ -49974,7 +49977,7 @@
         <v>169</v>
       </c>
       <c r="F228" s="9" t="str">
-        <f>TRIM(LOWER(E228))</f>
+        <f t="shared" si="3"/>
         <v>sold land (specify homestead or agricultural)</v>
       </c>
       <c r="G228" s="4">
@@ -50002,7 +50005,7 @@
         <v>31</v>
       </c>
       <c r="F229" s="9" t="str">
-        <f>TRIM(LOWER(E229))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G229" s="4">
@@ -50032,7 +50035,7 @@
         <v>31</v>
       </c>
       <c r="F230" s="9" t="str">
-        <f>TRIM(LOWER(E230))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G230" s="4">
@@ -50062,7 +50065,7 @@
         <v>31</v>
       </c>
       <c r="F231" s="9" t="str">
-        <f>TRIM(LOWER(E231))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G231" s="4">
@@ -50092,7 +50095,7 @@
         <v>31</v>
       </c>
       <c r="F232" s="9" t="str">
-        <f>TRIM(LOWER(E232))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G232" s="4">
@@ -50120,7 +50123,7 @@
         <v>31</v>
       </c>
       <c r="F233" s="9" t="str">
-        <f>TRIM(LOWER(E233))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G233" s="4">
@@ -50148,7 +50151,7 @@
         <v>31</v>
       </c>
       <c r="F234" s="9" t="str">
-        <f>TRIM(LOWER(E234))</f>
+        <f t="shared" si="3"/>
         <v>sold land/building</v>
       </c>
       <c r="G234" s="4">
@@ -50176,7 +50179,7 @@
         <v>32</v>
       </c>
       <c r="F235" s="9" t="str">
-        <f>TRIM(LOWER(E235))</f>
+        <f t="shared" si="3"/>
         <v>sold crop stock</v>
       </c>
       <c r="G235" s="4">
@@ -50206,7 +50209,7 @@
         <v>32</v>
       </c>
       <c r="F236" s="9" t="str">
-        <f>TRIM(LOWER(E236))</f>
+        <f t="shared" si="3"/>
         <v>sold crop stock</v>
       </c>
       <c r="G236" s="4">
@@ -50236,7 +50239,7 @@
         <v>32</v>
       </c>
       <c r="F237" s="9" t="str">
-        <f>TRIM(LOWER(E237))</f>
+        <f t="shared" si="3"/>
         <v>sold crop stock</v>
       </c>
       <c r="G237" s="4">
@@ -50266,7 +50269,7 @@
         <v>32</v>
       </c>
       <c r="F238" s="9" t="str">
-        <f>TRIM(LOWER(E238))</f>
+        <f t="shared" si="3"/>
         <v>sold crop stock</v>
       </c>
       <c r="G238" s="4">
@@ -50294,7 +50297,7 @@
         <v>32</v>
       </c>
       <c r="F239" s="9" t="str">
-        <f>TRIM(LOWER(E239))</f>
+        <f t="shared" si="3"/>
         <v>sold crop stock</v>
       </c>
       <c r="G239" s="4">
@@ -50322,7 +50325,7 @@
         <v>32</v>
       </c>
       <c r="F240" s="9" t="str">
-        <f>TRIM(LOWER(E240))</f>
+        <f t="shared" si="3"/>
         <v>sold crop stock</v>
       </c>
       <c r="G240" s="4">
@@ -50350,7 +50353,7 @@
         <v>22</v>
       </c>
       <c r="F241" s="9" t="str">
-        <f>TRIM(LOWER(E241))</f>
+        <f t="shared" si="3"/>
         <v>distress sales of animal stock</v>
       </c>
       <c r="G241" s="4">
@@ -50378,7 +50381,7 @@
         <v>22</v>
       </c>
       <c r="F242" s="9" t="str">
-        <f>TRIM(LOWER(E242))</f>
+        <f t="shared" si="3"/>
         <v>distress sales of animal stock</v>
       </c>
       <c r="G242" s="4">
@@ -50406,7 +50409,7 @@
         <v>22</v>
       </c>
       <c r="F243" s="9" t="str">
-        <f>TRIM(LOWER(E243))</f>
+        <f t="shared" si="3"/>
         <v>distress sales of animal stock</v>
       </c>
       <c r="G243" s="4">
@@ -50434,7 +50437,7 @@
         <v>22</v>
       </c>
       <c r="F244" s="9" t="str">
-        <f>TRIM(LOWER(E244))</f>
+        <f t="shared" si="3"/>
         <v>distress sales of animal stock</v>
       </c>
       <c r="G244" s="4">
@@ -50462,7 +50465,7 @@
         <v>156</v>
       </c>
       <c r="F245" s="9" t="str">
-        <f>TRIM(LOWER(E245))</f>
+        <f t="shared" si="3"/>
         <v>sale of animals</v>
       </c>
       <c r="G245" s="4">
@@ -50490,7 +50493,7 @@
         <v>133</v>
       </c>
       <c r="F246" s="9" t="str">
-        <f>TRIM(LOWER(E246))</f>
+        <f t="shared" si="3"/>
         <v>vente de bétail</v>
       </c>
       <c r="G246" s="4">
@@ -50518,7 +50521,7 @@
         <v>47</v>
       </c>
       <c r="F247" s="9" t="str">
-        <f>TRIM(LOWER(E247))</f>
+        <f t="shared" si="3"/>
         <v>sale of livestock</v>
       </c>
       <c r="G247" s="4">
@@ -50546,7 +50549,7 @@
         <v>68</v>
       </c>
       <c r="F248" s="9" t="str">
-        <f>TRIM(LOWER(E248))</f>
+        <f t="shared" si="3"/>
         <v>sale of livestock</v>
       </c>
       <c r="G248" s="4">
@@ -50574,7 +50577,7 @@
         <v>47</v>
       </c>
       <c r="F249" s="9" t="str">
-        <f>TRIM(LOWER(E249))</f>
+        <f t="shared" si="3"/>
         <v>sale of livestock</v>
       </c>
       <c r="G249" s="4">
@@ -50602,7 +50605,7 @@
         <v>33</v>
       </c>
       <c r="F250" s="9" t="str">
-        <f>TRIM(LOWER(E250))</f>
+        <f t="shared" si="3"/>
         <v>sold livestock</v>
       </c>
       <c r="G250" s="4">
@@ -50632,7 +50635,7 @@
         <v>33</v>
       </c>
       <c r="F251" s="9" t="str">
-        <f>TRIM(LOWER(E251))</f>
+        <f t="shared" si="3"/>
         <v>sold livestock</v>
       </c>
       <c r="G251" s="4">
@@ -50662,7 +50665,7 @@
         <v>33</v>
       </c>
       <c r="F252" s="9" t="str">
-        <f>TRIM(LOWER(E252))</f>
+        <f t="shared" si="3"/>
         <v>sold livestock</v>
       </c>
       <c r="G252" s="4">
@@ -50692,7 +50695,7 @@
         <v>33</v>
       </c>
       <c r="F253" s="9" t="str">
-        <f>TRIM(LOWER(E253))</f>
+        <f t="shared" si="3"/>
         <v>sold livestock</v>
       </c>
       <c r="G253" s="4">
@@ -50720,7 +50723,7 @@
         <v>33</v>
       </c>
       <c r="F254" s="9" t="str">
-        <f>TRIM(LOWER(E254))</f>
+        <f t="shared" si="3"/>
         <v>sold livestock</v>
       </c>
       <c r="G254" s="4">
@@ -50748,7 +50751,7 @@
         <v>33</v>
       </c>
       <c r="F255" s="9" t="str">
-        <f>TRIM(LOWER(E255))</f>
+        <f t="shared" si="3"/>
         <v>sold livestock</v>
       </c>
       <c r="G255" s="4">
@@ -50776,7 +50779,7 @@
         <v>157</v>
       </c>
       <c r="F256" s="9" t="str">
-        <f>TRIM(LOWER(E256))</f>
+        <f t="shared" si="3"/>
         <v>increase fishing activities</v>
       </c>
       <c r="G256" s="4">
@@ -50804,7 +50807,7 @@
         <v>134</v>
       </c>
       <c r="F257" s="9" t="str">
-        <f>TRIM(LOWER(E257))</f>
+        <f t="shared" si="3"/>
         <v>pratique plus importante des activités de pêche</v>
       </c>
       <c r="G257" s="4">
@@ -50832,7 +50835,7 @@
         <v>34</v>
       </c>
       <c r="F258" s="9" t="str">
-        <f>TRIM(LOWER(E258))</f>
+        <f t="shared" ref="F258:F321" si="4">TRIM(LOWER(E258))</f>
         <v>intensify fishing</v>
       </c>
       <c r="G258" s="4">
@@ -50862,7 +50865,7 @@
         <v>34</v>
       </c>
       <c r="F259" s="9" t="str">
-        <f>TRIM(LOWER(E259))</f>
+        <f t="shared" si="4"/>
         <v>intensify fishing</v>
       </c>
       <c r="G259" s="4">
@@ -50892,7 +50895,7 @@
         <v>34</v>
       </c>
       <c r="F260" s="9" t="str">
-        <f>TRIM(LOWER(E260))</f>
+        <f t="shared" si="4"/>
         <v>intensify fishing</v>
       </c>
       <c r="G260" s="4">
@@ -50922,7 +50925,7 @@
         <v>34</v>
       </c>
       <c r="F261" s="9" t="str">
-        <f>TRIM(LOWER(E261))</f>
+        <f t="shared" si="4"/>
         <v>intensify fishing</v>
       </c>
       <c r="G261" s="4">
@@ -50950,7 +50953,7 @@
         <v>34</v>
       </c>
       <c r="F262" s="9" t="str">
-        <f>TRIM(LOWER(E262))</f>
+        <f t="shared" si="4"/>
         <v>intensify fishing</v>
       </c>
       <c r="G262" s="4">
@@ -50978,7 +50981,7 @@
         <v>135</v>
       </c>
       <c r="F263" s="9" t="str">
-        <f>TRIM(LOWER(E263))</f>
+        <f t="shared" si="4"/>
         <v>confiage des enfants à d'autres ménages</v>
       </c>
       <c r="G263" s="4">
@@ -51006,7 +51009,7 @@
         <v>158</v>
       </c>
       <c r="F264" s="9" t="str">
-        <f>TRIM(LOWER(E264))</f>
+        <f t="shared" si="4"/>
         <v>send children to other households</v>
       </c>
       <c r="G264" s="4">
@@ -51034,7 +51037,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="9" t="str">
-        <f>TRIM(LOWER(E265))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live elsewhere</v>
       </c>
       <c r="G265" s="4">
@@ -51062,7 +51065,7 @@
         <v>23</v>
       </c>
       <c r="F266" s="9" t="str">
-        <f>TRIM(LOWER(E266))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live elsewhere</v>
       </c>
       <c r="G266" s="4">
@@ -51090,7 +51093,7 @@
         <v>23</v>
       </c>
       <c r="F267" s="9" t="str">
-        <f>TRIM(LOWER(E267))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live elsewhere</v>
       </c>
       <c r="G267" s="4">
@@ -51118,7 +51121,7 @@
         <v>23</v>
       </c>
       <c r="F268" s="9" t="str">
-        <f>TRIM(LOWER(E268))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live elsewhere</v>
       </c>
       <c r="G268" s="4">
@@ -51148,7 +51151,7 @@
         <v>182</v>
       </c>
       <c r="F269" s="9" t="str">
-        <f>TRIM(LOWER(E269))</f>
+        <f t="shared" si="4"/>
         <v>sent children to be fostered by relatives</v>
       </c>
       <c r="G269" s="4">
@@ -51176,7 +51179,7 @@
         <v>35</v>
       </c>
       <c r="F270" s="9" t="str">
-        <f>TRIM(LOWER(E270))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live elsewhere</v>
       </c>
       <c r="G270" s="4">
@@ -51206,7 +51209,7 @@
         <v>35</v>
       </c>
       <c r="F271" s="9" t="str">
-        <f>TRIM(LOWER(E271))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live elsewhere</v>
       </c>
       <c r="G271" s="4">
@@ -51236,7 +51239,7 @@
         <v>35</v>
       </c>
       <c r="F272" s="9" t="str">
-        <f>TRIM(LOWER(E272))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live elsewhere</v>
       </c>
       <c r="G272" s="4">
@@ -51266,7 +51269,7 @@
         <v>35</v>
       </c>
       <c r="F273" s="9" t="str">
-        <f>TRIM(LOWER(E273))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live elsewhere</v>
       </c>
       <c r="G273" s="4">
@@ -51294,7 +51297,7 @@
         <v>35</v>
       </c>
       <c r="F274" s="9" t="str">
-        <f>TRIM(LOWER(E274))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live elsewhere</v>
       </c>
       <c r="G274" s="4">
@@ -51322,7 +51325,7 @@
         <v>50</v>
       </c>
       <c r="F275" s="9" t="str">
-        <f>TRIM(LOWER(E275))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live with friends</v>
       </c>
       <c r="G275" s="4">
@@ -51350,7 +51353,7 @@
         <v>71</v>
       </c>
       <c r="F276" s="9" t="str">
-        <f>TRIM(LOWER(E276))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live with friends</v>
       </c>
       <c r="G276" s="4">
@@ -51378,7 +51381,7 @@
         <v>50</v>
       </c>
       <c r="F277" s="9" t="str">
-        <f>TRIM(LOWER(E277))</f>
+        <f t="shared" si="4"/>
         <v>sent children to live with friends</v>
       </c>
       <c r="G277" s="4">
@@ -51406,7 +51409,7 @@
         <v>136</v>
       </c>
       <c r="F278" s="9" t="str">
-        <f>TRIM(LOWER(E278))</f>
+        <f t="shared" si="4"/>
         <v>engagé dans des activités spirituelles (prières, sacrifices, consultation de marabout,</v>
       </c>
       <c r="G278" s="4">
@@ -51434,7 +51437,7 @@
         <v>159</v>
       </c>
       <c r="F279" s="9" t="str">
-        <f>TRIM(LOWER(E279))</f>
+        <f t="shared" si="4"/>
         <v>engage in spiritual activities (prayers, sacrifices, consultation with witches,</v>
       </c>
       <c r="G279" s="4">
@@ -51462,7 +51465,7 @@
         <v>107</v>
       </c>
       <c r="F280" s="9" t="str">
-        <f>TRIM(LOWER(E280))</f>
+        <f t="shared" si="4"/>
         <v>engaged in spiritual efforts - prayer, sacrifices, diviner consultations</v>
       </c>
       <c r="G280" s="4">
@@ -51492,7 +51495,7 @@
         <v>231</v>
       </c>
       <c r="F281" s="9" t="str">
-        <f>TRIM(LOWER(E281))</f>
+        <f t="shared" si="4"/>
         <v>engaged in spiritual efforts - prayer, sacrifices, diviner consultations</v>
       </c>
       <c r="G281" s="4">
@@ -51522,7 +51525,7 @@
         <v>231</v>
       </c>
       <c r="F282" s="9" t="str">
-        <f>TRIM(LOWER(E282))</f>
+        <f t="shared" si="4"/>
         <v>engaged in spiritual efforts - prayer, sacrifices, diviner consultations</v>
       </c>
       <c r="G282" s="4">
@@ -51550,7 +51553,7 @@
         <v>43</v>
       </c>
       <c r="F283" s="9" t="str">
-        <f>TRIM(LOWER(E283))</f>
+        <f t="shared" si="4"/>
         <v>engaged in spiritual efforts- prayer, sacrifices, diviner consultations</v>
       </c>
       <c r="G283" s="4">
@@ -51580,7 +51583,7 @@
         <v>43</v>
       </c>
       <c r="F284" s="9" t="str">
-        <f>TRIM(LOWER(E284))</f>
+        <f t="shared" si="4"/>
         <v>engaged in spiritual efforts- prayer, sacrifices, diviner consultations</v>
       </c>
       <c r="G284" s="4">
@@ -51608,7 +51611,7 @@
         <v>114</v>
       </c>
       <c r="F285" s="9" t="str">
-        <f>TRIM(LOWER(E285))</f>
+        <f t="shared" si="4"/>
         <v>engaged in spiritual efforts -prayer, sacrifices, divinerconsultations</v>
       </c>
       <c r="G285" s="4">
@@ -51636,7 +51639,7 @@
         <v>139</v>
       </c>
       <c r="F286" s="9" t="str">
-        <f>TRIM(LOWER(E286))</f>
+        <f t="shared" si="4"/>
         <v>aucune stratégie</v>
       </c>
       <c r="G286" s="4">
@@ -51664,7 +51667,7 @@
         <v>162</v>
       </c>
       <c r="F287" s="9" t="str">
-        <f>TRIM(LOWER(E287))</f>
+        <f t="shared" si="4"/>
         <v>nothing</v>
       </c>
       <c r="G287" s="4">
@@ -51692,7 +51695,7 @@
         <v>36</v>
       </c>
       <c r="F288" s="9" t="str">
-        <f>TRIM(LOWER(E288))</f>
+        <f t="shared" si="4"/>
         <v>did not do anything</v>
       </c>
       <c r="G288" s="4">
@@ -51722,7 +51725,7 @@
         <v>36</v>
       </c>
       <c r="F289" s="9" t="str">
-        <f>TRIM(LOWER(E289))</f>
+        <f t="shared" si="4"/>
         <v>did not do anything</v>
       </c>
       <c r="G289" s="4">
@@ -51752,7 +51755,7 @@
         <v>36</v>
       </c>
       <c r="F290" s="9" t="str">
-        <f>TRIM(LOWER(E290))</f>
+        <f t="shared" si="4"/>
         <v>did not do anything</v>
       </c>
       <c r="G290" s="4">
@@ -51782,7 +51785,7 @@
         <v>36</v>
       </c>
       <c r="F291" s="9" t="str">
-        <f>TRIM(LOWER(E291))</f>
+        <f t="shared" si="4"/>
         <v>did not do anything</v>
       </c>
       <c r="G291" s="4">
@@ -51810,7 +51813,7 @@
         <v>36</v>
       </c>
       <c r="F292" s="9" t="str">
-        <f>TRIM(LOWER(E292))</f>
+        <f t="shared" si="4"/>
         <v>did not do anything</v>
       </c>
       <c r="G292" s="4">
@@ -51838,7 +51841,7 @@
         <v>36</v>
       </c>
       <c r="F293" s="9" t="str">
-        <f>TRIM(LOWER(E293))</f>
+        <f t="shared" si="4"/>
         <v>did not do anything</v>
       </c>
       <c r="G293" s="4">
@@ -51866,7 +51869,7 @@
         <v>67</v>
       </c>
       <c r="F294" s="9" t="str">
-        <f>TRIM(LOWER(E294))</f>
+        <f t="shared" si="4"/>
         <v>did nothing</v>
       </c>
       <c r="G294" s="4">
@@ -51894,7 +51897,7 @@
         <v>88</v>
       </c>
       <c r="F295" s="9" t="str">
-        <f>TRIM(LOWER(E295))</f>
+        <f t="shared" si="4"/>
         <v>did nothing</v>
       </c>
       <c r="G295" s="4">
@@ -51922,7 +51925,7 @@
         <v>67</v>
       </c>
       <c r="F296" s="9" t="str">
-        <f>TRIM(LOWER(E296))</f>
+        <f t="shared" si="4"/>
         <v>did nothing</v>
       </c>
       <c r="G296" s="4">
@@ -51952,7 +51955,7 @@
         <v>168</v>
       </c>
       <c r="F297" s="9" t="str">
-        <f>TRIM(LOWER(E297))</f>
+        <f t="shared" si="4"/>
         <v>none</v>
       </c>
       <c r="G297" s="4">
@@ -51980,7 +51983,7 @@
         <v>138</v>
       </c>
       <c r="F298" s="9" t="str">
-        <f>TRIM(LOWER(E298))</f>
+        <f t="shared" si="4"/>
         <v>autre stratégie</v>
       </c>
       <c r="G298" s="4">
@@ -52008,7 +52011,7 @@
         <v>161</v>
       </c>
       <c r="F299" s="9" t="str">
-        <f>TRIM(LOWER(E299))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G299" s="4">
@@ -52036,7 +52039,7 @@
         <v>37</v>
       </c>
       <c r="F300" s="9" t="str">
-        <f>TRIM(LOWER(E300))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G300" s="4">
@@ -52066,7 +52069,7 @@
         <v>37</v>
       </c>
       <c r="F301" s="9" t="str">
-        <f>TRIM(LOWER(E301))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G301" s="4">
@@ -52096,7 +52099,7 @@
         <v>37</v>
       </c>
       <c r="F302" s="9" t="str">
-        <f>TRIM(LOWER(E302))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G302" s="4">
@@ -52124,7 +52127,7 @@
         <v>37</v>
       </c>
       <c r="F303" s="9" t="str">
-        <f>TRIM(LOWER(E303))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G303" s="4">
@@ -52152,7 +52155,7 @@
         <v>25</v>
       </c>
       <c r="F304" s="9" t="str">
-        <f>TRIM(LOWER(E304))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G304" s="4">
@@ -52180,7 +52183,7 @@
         <v>37</v>
       </c>
       <c r="F305" s="9" t="str">
-        <f>TRIM(LOWER(E305))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G305" s="4">
@@ -52208,7 +52211,7 @@
         <v>37</v>
       </c>
       <c r="F306" s="9" t="str">
-        <f>TRIM(LOWER(E306))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G306" s="4">
@@ -52236,7 +52239,7 @@
         <v>37</v>
       </c>
       <c r="F307" s="9" t="str">
-        <f>TRIM(LOWER(E307))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G307" s="4">
@@ -52264,7 +52267,7 @@
         <v>25</v>
       </c>
       <c r="F308" s="9" t="str">
-        <f>TRIM(LOWER(E308))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G308" s="4">
@@ -52292,7 +52295,7 @@
         <v>25</v>
       </c>
       <c r="F309" s="9" t="str">
-        <f>TRIM(LOWER(E309))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G309" s="4">
@@ -52320,7 +52323,7 @@
         <v>25</v>
       </c>
       <c r="F310" s="9" t="str">
-        <f>TRIM(LOWER(E310))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G310" s="4">
@@ -52348,7 +52351,7 @@
         <v>25</v>
       </c>
       <c r="F311" s="9" t="str">
-        <f>TRIM(LOWER(E311))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G311" s="4">
@@ -52378,7 +52381,7 @@
         <v>189</v>
       </c>
       <c r="F312" s="9" t="str">
-        <f>TRIM(LOWER(E312))</f>
+        <f t="shared" si="4"/>
         <v>other (specify)</v>
       </c>
       <c r="G312" s="4">
@@ -52406,7 +52409,7 @@
         <v>13</v>
       </c>
       <c r="F313" s="9" t="str">
-        <f>TRIM(LOWER(E313))</f>
+        <f t="shared" si="4"/>
         <v>changed cropping practices (crop choices or technology)</v>
       </c>
       <c r="G313" s="4">
@@ -52434,7 +52437,7 @@
         <v>13</v>
       </c>
       <c r="F314" s="9" t="str">
-        <f>TRIM(LOWER(E314))</f>
+        <f t="shared" si="4"/>
         <v>changed cropping practices (crop choices or technology)</v>
       </c>
       <c r="G314" s="4">
@@ -52462,7 +52465,7 @@
         <v>13</v>
       </c>
       <c r="F315" s="9" t="str">
-        <f>TRIM(LOWER(E315))</f>
+        <f t="shared" si="4"/>
         <v>changed cropping practices (crop choices or technology)</v>
       </c>
       <c r="G315" s="4">
@@ -52490,7 +52493,7 @@
         <v>13</v>
       </c>
       <c r="F316" s="9" t="str">
-        <f>TRIM(LOWER(E316))</f>
+        <f t="shared" si="4"/>
         <v>changed cropping practices (crop choices or technology)</v>
       </c>
       <c r="G316" s="4">
@@ -52518,7 +52521,7 @@
         <v>160</v>
       </c>
       <c r="F317" s="9" t="str">
-        <f>TRIM(LOWER(E317))</f>
+        <f t="shared" si="4"/>
         <v>grow food in the contre saison</v>
       </c>
       <c r="G317" s="4">
@@ -52546,7 +52549,7 @@
         <v>137</v>
       </c>
       <c r="F318" s="9" t="str">
-        <f>TRIM(LOWER(E318))</f>
+        <f t="shared" si="4"/>
         <v>pratique de la culture de contre saison</v>
       </c>
       <c r="G318" s="4">
@@ -52574,7 +52577,7 @@
         <v>120</v>
       </c>
       <c r="F319" s="9" t="str">
-        <f>TRIM(LOWER(E319))</f>
+        <f t="shared" si="4"/>
         <v>marier les enfants</v>
       </c>
       <c r="G319" s="4">
@@ -52602,7 +52605,7 @@
         <v>143</v>
       </c>
       <c r="F320" s="9" t="str">
-        <f>TRIM(LOWER(E320))</f>
+        <f t="shared" si="4"/>
         <v>marry the children</v>
       </c>
       <c r="G320" s="4">
@@ -52630,7 +52633,7 @@
         <v>21</v>
       </c>
       <c r="F321" s="9" t="str">
-        <f>TRIM(LOWER(E321))</f>
+        <f t="shared" si="4"/>
         <v>rented out land/building</v>
       </c>
       <c r="G321" s="4">
@@ -52658,7 +52661,7 @@
         <v>21</v>
       </c>
       <c r="F322" s="9" t="str">
-        <f>TRIM(LOWER(E322))</f>
+        <f t="shared" ref="F322:F385" si="5">TRIM(LOWER(E322))</f>
         <v>rented out land/building</v>
       </c>
       <c r="G322" s="4">
@@ -52686,7 +52689,7 @@
         <v>21</v>
       </c>
       <c r="F323" s="9" t="str">
-        <f>TRIM(LOWER(E323))</f>
+        <f t="shared" si="5"/>
         <v>rented out land/building</v>
       </c>
       <c r="G323" s="4">
@@ -52716,7 +52719,7 @@
         <v>190</v>
       </c>
       <c r="F324" s="9" t="str">
-        <f>TRIM(LOWER(E324))</f>
+        <f t="shared" si="5"/>
         <v>mortgaged/leased land (specify homestead or agricultural)</v>
       </c>
       <c r="G324" s="4">
@@ -52744,7 +52747,7 @@
         <v>61</v>
       </c>
       <c r="F325" s="9" t="str">
-        <f>TRIM(LOWER(E325))</f>
+        <f t="shared" si="5"/>
         <v>reduced non-food consumption</v>
       </c>
       <c r="G325" s="4">
@@ -52772,7 +52775,7 @@
         <v>82</v>
       </c>
       <c r="F326" s="9" t="str">
-        <f>TRIM(LOWER(E326))</f>
+        <f t="shared" si="5"/>
         <v>reduced non-food consumption</v>
       </c>
       <c r="G326" s="4">
@@ -52800,7 +52803,7 @@
         <v>61</v>
       </c>
       <c r="F327" s="9" t="str">
-        <f>TRIM(LOWER(E327))</f>
+        <f t="shared" si="5"/>
         <v>reduced non-food consumption</v>
       </c>
       <c r="G327" s="4">
@@ -52828,7 +52831,7 @@
         <v>66</v>
       </c>
       <c r="F328" s="9" t="str">
-        <f>TRIM(LOWER(E328))</f>
+        <f t="shared" si="5"/>
         <v>was covered by insurance policy</v>
       </c>
       <c r="G328" s="4">
@@ -52856,7 +52859,7 @@
         <v>87</v>
       </c>
       <c r="F329" s="9" t="str">
-        <f>TRIM(LOWER(E329))</f>
+        <f t="shared" si="5"/>
         <v>was covered by insurance policy</v>
       </c>
       <c r="G329" s="4">
@@ -52884,7 +52887,7 @@
         <v>66</v>
       </c>
       <c r="F330" s="9" t="str">
-        <f>TRIM(LOWER(E330))</f>
+        <f t="shared" si="5"/>
         <v>was covered by insurance policy</v>
       </c>
       <c r="G330" s="4">

--- a/processeddata/shock_codes.xlsx
+++ b/processeddata/shock_codes.xlsx
@@ -21047,8 +21047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="H478" sqref="H478"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
